--- a/Documentation/Miscellaneous/Schedule of Term 3 (2017-2018).xlsx
+++ b/Documentation/Miscellaneous/Schedule of Term 3 (2017-2018).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PBL1 Repository\trunk\Documentation\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1C66F9-40DA-45CF-9BE0-C319A3565CC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F757A-BCC6-49B3-B3E9-38311750401A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="10275" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1843,7 +1843,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1959,6 +1959,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="12" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="4" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -29428,12 +29431,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300793FE-19EF-405E-BC33-F239AE127AED}">
   <dimension ref="A1:AD374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="26"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="26"/>
@@ -29532,7 +29536,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" ref="L3:L44" ca="1" si="0">H3*0.125</f>
+        <f t="shared" ref="L3:L51" ca="1" si="0">H3*0.125</f>
         <v>0.99999999999999978</v>
       </c>
       <c r="N3" s="9">
@@ -29575,7 +29579,7 @@
         <v>2.25</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N44" si="3">(((J4*(745.699872*2.5))/1000)*L4)*$P$1</f>
+        <f t="shared" ref="N4:N51" si="3">(((J4*(745.699872*2.5))/1000)*L4)*$P$1</f>
         <v>85.728453659639996</v>
       </c>
       <c r="W4" s="10"/>
@@ -31170,16 +31174,16 @@
         <v>10.000000000000002</v>
       </c>
       <c r="I45" s="30"/>
-      <c r="J45" s="10"/>
-      <c r="M45" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="N45" s="34">
-        <f ca="1">SUM(N3:N44)</f>
-        <v>3584.7194141382797</v>
-      </c>
-      <c r="O45" t="s">
-        <v>404</v>
+      <c r="J45" s="49">
+        <v>1</v>
+      </c>
+      <c r="L45" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="N45" s="9">
+        <f t="shared" si="3"/>
+        <v>23.813459349900004</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -31208,13 +31212,16 @@
         <v>1.9999999999999996</v>
       </c>
       <c r="I46" s="30"/>
-      <c r="J46" s="10"/>
-      <c r="N46" s="34">
-        <f ca="1">N45*4</f>
-        <v>14338.877656553119</v>
-      </c>
-      <c r="O46" t="s">
-        <v>405</v>
+      <c r="J46" s="49">
+        <v>1</v>
+      </c>
+      <c r="L46" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="N46" s="9">
+        <f t="shared" si="3"/>
+        <v>4.7626918699799985</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -31243,13 +31250,16 @@
         <v>18.000000000000004</v>
       </c>
       <c r="I47" s="30"/>
-      <c r="J47" s="10"/>
-      <c r="N47" s="34">
-        <f ca="1">N46*3</f>
-        <v>43016.63296965936</v>
-      </c>
-      <c r="O47" t="s">
-        <v>406</v>
+      <c r="J47" s="49">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="0"/>
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="N47" s="9">
+        <f t="shared" si="3"/>
+        <v>42.864226829820005</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -31278,9 +31288,19 @@
         <v>38</v>
       </c>
       <c r="I48" s="30"/>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J48" s="49">
+        <v>1</v>
+      </c>
+      <c r="L48" s="9">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="N48" s="9">
+        <f t="shared" si="3"/>
+        <v>90.491145529619999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>316</v>
       </c>
@@ -31306,9 +31326,19 @@
         <v>30</v>
       </c>
       <c r="I49" s="30"/>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="3"/>
+        <v>71.440378049700001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>316</v>
       </c>
@@ -31334,9 +31364,19 @@
         <v>20</v>
       </c>
       <c r="I50" s="30"/>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="49">
+        <v>1</v>
+      </c>
+      <c r="L50" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="N50" s="9">
+        <f t="shared" si="3"/>
+        <v>47.626918699799994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>316</v>
       </c>
@@ -31358,8 +31398,15 @@
       <c r="H51" s="10"/>
       <c r="I51" s="30"/>
       <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M51" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="N51" s="34">
+        <f ca="1">SUM(N3:N50)</f>
+        <v>3865.7182344670996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>316</v>
       </c>
@@ -31381,8 +31428,15 @@
       <c r="H52" s="17"/>
       <c r="I52" s="30"/>
       <c r="J52" s="10"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N52" s="34">
+        <f ca="1">N51*4</f>
+        <v>15462.872937868398</v>
+      </c>
+      <c r="O52" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>316</v>
       </c>
@@ -31404,8 +31458,15 @@
       <c r="H53" s="17"/>
       <c r="I53" s="30"/>
       <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N53" s="34">
+        <f ca="1">N52*3</f>
+        <v>46388.618813605193</v>
+      </c>
+      <c r="O53" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>316</v>
       </c>
@@ -31427,8 +31488,11 @@
       <c r="H54" s="17"/>
       <c r="I54" s="30"/>
       <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>316</v>
       </c>
@@ -31451,7 +31515,7 @@
       <c r="I55" s="30"/>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>316</v>
       </c>
@@ -31474,7 +31538,7 @@
       <c r="I56" s="30"/>
       <c r="J56" s="10"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>316</v>
       </c>
@@ -31497,7 +31561,7 @@
       <c r="I57" s="30"/>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>316</v>
       </c>
@@ -31520,7 +31584,7 @@
       <c r="I58" s="30"/>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>316</v>
       </c>
@@ -31543,7 +31607,7 @@
       <c r="I59" s="30"/>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>316</v>
       </c>
@@ -31566,7 +31630,7 @@
       <c r="I60" s="30"/>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>316</v>
       </c>
@@ -31589,7 +31653,7 @@
       <c r="I61" s="30"/>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>316</v>
       </c>
@@ -31612,7 +31676,7 @@
       <c r="I62" s="30"/>
       <c r="J62" s="10"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>316</v>
       </c>
@@ -31635,7 +31699,7 @@
       <c r="I63" s="30"/>
       <c r="J63" s="10"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>316</v>
       </c>

--- a/Documentation/Miscellaneous/Schedule of Term 3 (2017-2018).xlsx
+++ b/Documentation/Miscellaneous/Schedule of Term 3 (2017-2018).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PBL1 Repository\trunk\Documentation\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F757A-BCC6-49B3-B3E9-38311750401A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF2AFB1-804E-4873-961A-66A6FE38A1F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="10275" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1843,7 +1843,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1964,6 +1964,7 @@
     <xf numFmtId="1" fontId="9" fillId="5" borderId="4" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="19" fillId="6" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -29431,8 +29432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300793FE-19EF-405E-BC33-F239AE127AED}">
   <dimension ref="A1:AD374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="J24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29440,14 +29441,16 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="26"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="26"/>
+    <col min="9" max="9" width="0" style="26" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="26"/>
+    <col min="11" max="11" width="0" style="26" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="26"/>
     <col min="14" max="14" width="95.140625" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -29543,6 +29546,10 @@
         <f ca="1">(((J3*(745.699872*2.5))/1000)*L3)*$P$1</f>
         <v>38.101534959839988</v>
       </c>
+      <c r="P3" s="14">
+        <f>(((2.7/1000)*10.219)*12.5)</f>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W3" s="10"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -29582,6 +29589,10 @@
         <f t="shared" ref="N4:N51" si="3">(((J4*(745.699872*2.5))/1000)*L4)*$P$1</f>
         <v>85.728453659639996</v>
       </c>
+      <c r="P4" s="14">
+        <f t="shared" ref="P4:P50" si="4">(((2.7/1000)*10.219)*12.5)</f>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -29621,7 +29632,10 @@
         <f t="shared" si="3"/>
         <v>38.101534959840009</v>
       </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -29661,6 +29675,10 @@
         <f t="shared" si="3"/>
         <v>38.101534959839995</v>
       </c>
+      <c r="P6" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -29700,6 +29718,10 @@
         <f t="shared" si="3"/>
         <v>38.101534959840016</v>
       </c>
+      <c r="P7" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -29739,6 +29761,10 @@
         <f t="shared" si="3"/>
         <v>57.15230243976</v>
       </c>
+      <c r="P8" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -29778,6 +29804,10 @@
         <f t="shared" si="3"/>
         <v>57.152302439760014</v>
       </c>
+      <c r="P9" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -29817,6 +29847,10 @@
         <f t="shared" si="3"/>
         <v>142.8807560994</v>
       </c>
+      <c r="P10" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -29856,6 +29890,10 @@
         <f t="shared" si="3"/>
         <v>209.55844227911999</v>
       </c>
+      <c r="P11" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -29893,6 +29931,10 @@
         <f t="shared" si="3"/>
         <v>114.30460487952</v>
       </c>
+      <c r="P12" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -29932,6 +29974,10 @@
         <f t="shared" si="3"/>
         <v>38.101534959840009</v>
       </c>
+      <c r="P13" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -29971,6 +30017,10 @@
         <f t="shared" si="3"/>
         <v>19.050767479919983</v>
       </c>
+      <c r="P14" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -30010,6 +30060,10 @@
         <f t="shared" si="3"/>
         <v>76.203069919680004</v>
       </c>
+      <c r="P15" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -30049,6 +30103,10 @@
         <f t="shared" si="3"/>
         <v>38.101534959839995</v>
       </c>
+      <c r="P16" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -30088,6 +30146,10 @@
         <f t="shared" si="3"/>
         <v>76.203069919680004</v>
       </c>
+      <c r="P17" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -30127,6 +30189,10 @@
         <f t="shared" si="3"/>
         <v>19.050767479920008</v>
       </c>
+      <c r="P18" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -30166,6 +30232,10 @@
         <f t="shared" si="3"/>
         <v>19.050767479919994</v>
       </c>
+      <c r="P19" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -30205,6 +30275,10 @@
         <f t="shared" si="3"/>
         <v>19.050767479920001</v>
       </c>
+      <c r="P20" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -30244,6 +30318,10 @@
         <f t="shared" si="3"/>
         <v>57.15230243976</v>
       </c>
+      <c r="P21" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W21" s="10"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -30283,6 +30361,10 @@
         <f t="shared" si="3"/>
         <v>76.203069919680004</v>
       </c>
+      <c r="P22" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -30322,6 +30404,10 @@
         <f t="shared" si="3"/>
         <v>114.30460487952</v>
       </c>
+      <c r="P23" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -30361,6 +30447,10 @@
         <f t="shared" si="3"/>
         <v>95.253837399599988</v>
       </c>
+      <c r="P24" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -30400,6 +30490,10 @@
         <f t="shared" si="3"/>
         <v>123.82998861948001</v>
       </c>
+      <c r="P25" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -30439,6 +30533,10 @@
         <f t="shared" si="3"/>
         <v>9.5253837399600041</v>
       </c>
+      <c r="P26" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -30478,6 +30576,10 @@
         <f t="shared" si="3"/>
         <v>95.253837399599988</v>
       </c>
+      <c r="P27" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W27" s="10"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -30517,6 +30619,10 @@
         <f t="shared" si="3"/>
         <v>57.15230243976</v>
       </c>
+      <c r="P28" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -30556,6 +30662,10 @@
         <f t="shared" si="3"/>
         <v>201.62062249581999</v>
       </c>
+      <c r="P29" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -30595,6 +30705,10 @@
         <f t="shared" si="3"/>
         <v>76.20306991967999</v>
       </c>
+      <c r="P30" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -30634,6 +30748,10 @@
         <f t="shared" si="3"/>
         <v>196.85793062584003</v>
       </c>
+      <c r="P31" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W31" s="10"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -30672,6 +30790,10 @@
       <c r="N32" s="9">
         <f t="shared" si="3"/>
         <v>171.45690731927999</v>
+      </c>
+      <c r="P32" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
       </c>
       <c r="W32" s="10"/>
       <c r="AA32" s="2"/>
@@ -30679,7 +30801,7 @@
       <c r="AC32" s="24"/>
       <c r="AD32" s="10"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>309</v>
       </c>
@@ -30716,9 +30838,13 @@
         <f t="shared" si="3"/>
         <v>142.88075609939997</v>
       </c>
+      <c r="P33" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W33" s="10"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>314</v>
       </c>
@@ -30755,9 +30881,13 @@
         <f t="shared" si="3"/>
         <v>114.30460487951996</v>
       </c>
+      <c r="P34" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>314</v>
       </c>
@@ -30794,9 +30924,13 @@
         <f t="shared" si="3"/>
         <v>95.253837399599973</v>
       </c>
+      <c r="P35" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W35" s="10"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>314</v>
       </c>
@@ -30833,9 +30967,13 @@
         <f t="shared" si="3"/>
         <v>85.728453659639996</v>
       </c>
+      <c r="P36" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>314</v>
       </c>
@@ -30872,10 +31010,14 @@
         <f t="shared" si="3"/>
         <v>57.15230243976</v>
       </c>
+      <c r="P37" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W37" s="10"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>314</v>
       </c>
@@ -30912,9 +31054,13 @@
         <f t="shared" si="3"/>
         <v>133.35537235943997</v>
       </c>
+      <c r="P38" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>314</v>
       </c>
@@ -30951,9 +31097,13 @@
         <f t="shared" si="3"/>
         <v>95.253837399599988</v>
       </c>
+      <c r="P39" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>314</v>
       </c>
@@ -30990,9 +31140,13 @@
         <f t="shared" si="3"/>
         <v>142.8807560994</v>
       </c>
+      <c r="P40" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W40" s="10"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>314</v>
       </c>
@@ -31029,9 +31183,13 @@
         <f t="shared" si="3"/>
         <v>76.203069919680019</v>
       </c>
+      <c r="P41" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>314</v>
       </c>
@@ -31068,9 +31226,13 @@
         <f t="shared" si="3"/>
         <v>71.440378049700001</v>
       </c>
+      <c r="P42" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>314</v>
       </c>
@@ -31107,9 +31269,13 @@
         <f t="shared" si="3"/>
         <v>76.203069919680019</v>
       </c>
+      <c r="P43" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W43" s="10"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>314</v>
       </c>
@@ -31146,9 +31312,13 @@
         <f t="shared" si="3"/>
         <v>95.253837399599973</v>
       </c>
+      <c r="P44" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
       <c r="W44" s="10"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>314</v>
       </c>
@@ -31185,8 +31355,14 @@
         <f t="shared" si="3"/>
         <v>23.813459349900004</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P45" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="34"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>316</v>
       </c>
@@ -31223,8 +31399,14 @@
         <f t="shared" si="3"/>
         <v>4.7626918699799985</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P46" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="34"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>316</v>
       </c>
@@ -31261,8 +31443,14 @@
         <f t="shared" si="3"/>
         <v>42.864226829820005</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P47" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="34"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>316</v>
       </c>
@@ -31299,8 +31487,12 @@
         <f t="shared" si="3"/>
         <v>90.491145529619999</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>316</v>
       </c>
@@ -31337,8 +31529,12 @@
         <f t="shared" si="3"/>
         <v>71.440378049700001</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>316</v>
       </c>
@@ -31375,8 +31571,12 @@
         <f t="shared" si="3"/>
         <v>47.626918699799994</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34489124999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>316</v>
       </c>
@@ -31405,8 +31605,15 @@
         <f ca="1">SUM(N3:N50)</f>
         <v>3865.7182344670996</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>404</v>
+      </c>
+      <c r="P51" s="50">
+        <f>SUM(P3:P50)</f>
+        <v>16.554779999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>316</v>
       </c>
@@ -31433,10 +31640,14 @@
         <v>15462.872937868398</v>
       </c>
       <c r="O52" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="P52" s="50">
+        <f>P51*4</f>
+        <v>66.21911999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>316</v>
       </c>
@@ -31463,10 +31674,14 @@
         <v>46388.618813605193</v>
       </c>
       <c r="O53" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="P53" s="50">
+        <f>P52*3</f>
+        <v>198.65735999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>316</v>
       </c>
@@ -31488,11 +31703,8 @@
       <c r="H54" s="17"/>
       <c r="I54" s="30"/>
       <c r="J54" s="10"/>
-      <c r="O54" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>316</v>
       </c>
@@ -31515,7 +31727,7 @@
       <c r="I55" s="30"/>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>316</v>
       </c>
@@ -31538,7 +31750,7 @@
       <c r="I56" s="30"/>
       <c r="J56" s="10"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>316</v>
       </c>
@@ -31561,7 +31773,7 @@
       <c r="I57" s="30"/>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>316</v>
       </c>
@@ -31584,7 +31796,7 @@
       <c r="I58" s="30"/>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>316</v>
       </c>
@@ -31607,7 +31819,7 @@
       <c r="I59" s="30"/>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>316</v>
       </c>
@@ -31630,7 +31842,7 @@
       <c r="I60" s="30"/>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>316</v>
       </c>
@@ -31653,7 +31865,7 @@
       <c r="I61" s="30"/>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>316</v>
       </c>
@@ -31676,7 +31888,7 @@
       <c r="I62" s="30"/>
       <c r="J62" s="10"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>316</v>
       </c>
@@ -31699,7 +31911,7 @@
       <c r="I63" s="30"/>
       <c r="J63" s="10"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>316</v>
       </c>
@@ -31805,7 +32017,7 @@
         <v>353</v>
       </c>
       <c r="E68" s="9">
-        <f t="shared" ref="E68:E131" si="4">(D68-C68)*24</f>
+        <f t="shared" ref="E68:E131" si="5">(D68-C68)*24</f>
         <v>2.0000000000000009</v>
       </c>
       <c r="F68" s="28"/>
@@ -31828,7 +32040,7 @@
         <v>352</v>
       </c>
       <c r="E69" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F69" s="28"/>
@@ -31851,7 +32063,7 @@
         <v>350</v>
       </c>
       <c r="E70" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F70" s="28"/>
@@ -31874,7 +32086,7 @@
         <v>353</v>
       </c>
       <c r="E71" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F71" s="28"/>
@@ -31897,7 +32109,7 @@
         <v>358</v>
       </c>
       <c r="E72" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F72" s="28"/>
@@ -31920,7 +32132,7 @@
         <v>353</v>
       </c>
       <c r="E73" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F73" s="28"/>
@@ -31943,7 +32155,7 @@
         <v>352</v>
       </c>
       <c r="E74" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F74" s="28"/>
@@ -31966,7 +32178,7 @@
         <v>350</v>
       </c>
       <c r="E75" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F75" s="28"/>
@@ -31989,7 +32201,7 @@
         <v>351</v>
       </c>
       <c r="E76" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F76" s="28"/>
@@ -32012,7 +32224,7 @@
         <v>355</v>
       </c>
       <c r="E77" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000000018</v>
       </c>
       <c r="F77" s="28"/>
@@ -32035,7 +32247,7 @@
         <v>357</v>
       </c>
       <c r="E78" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F78" s="28"/>
@@ -32058,7 +32270,7 @@
         <v>358</v>
       </c>
       <c r="E79" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F79" s="28"/>
@@ -32081,7 +32293,7 @@
         <v>358</v>
       </c>
       <c r="E80" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F80" s="28"/>
@@ -32104,7 +32316,7 @@
         <v>359</v>
       </c>
       <c r="E81" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F81" s="28"/>
@@ -32127,7 +32339,7 @@
         <v>358</v>
       </c>
       <c r="E82" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F82" s="28"/>
@@ -32150,7 +32362,7 @@
         <v>359</v>
       </c>
       <c r="E83" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F83" s="28"/>
@@ -32173,7 +32385,7 @@
         <v>359</v>
       </c>
       <c r="E84" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F84" s="28"/>
@@ -32196,7 +32408,7 @@
         <v>358</v>
       </c>
       <c r="E85" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F85" s="28"/>
@@ -32219,7 +32431,7 @@
         <v>359</v>
       </c>
       <c r="E86" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F86" s="28"/>
@@ -32242,7 +32454,7 @@
         <v>352</v>
       </c>
       <c r="E87" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F87" s="28"/>
@@ -32265,7 +32477,7 @@
         <v>359</v>
       </c>
       <c r="E88" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F88" s="28"/>
@@ -32288,7 +32500,7 @@
         <v>361</v>
       </c>
       <c r="E89" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F89" s="28"/>
@@ -32311,7 +32523,7 @@
         <v>358</v>
       </c>
       <c r="E90" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F90" s="28"/>
@@ -32334,7 +32546,7 @@
         <v>359</v>
       </c>
       <c r="E91" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F91" s="28"/>
@@ -32357,7 +32569,7 @@
         <v>359</v>
       </c>
       <c r="E92" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F92" s="28"/>
@@ -32380,7 +32592,7 @@
         <v>358</v>
       </c>
       <c r="E93" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F93" s="28"/>
@@ -32403,7 +32615,7 @@
         <v>359</v>
       </c>
       <c r="E94" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F94" s="28"/>
@@ -32426,7 +32638,7 @@
         <v>351</v>
       </c>
       <c r="E95" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F95" s="28"/>
@@ -32449,7 +32661,7 @@
         <v>353</v>
       </c>
       <c r="E96" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F96" s="28"/>
@@ -32472,7 +32684,7 @@
         <v>351</v>
       </c>
       <c r="E97" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F97" s="28"/>
@@ -32495,7 +32707,7 @@
         <v>351</v>
       </c>
       <c r="E98" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F98" s="28"/>
@@ -32518,7 +32730,7 @@
         <v>358</v>
       </c>
       <c r="E99" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F99" s="28"/>
@@ -32541,7 +32753,7 @@
         <v>352</v>
       </c>
       <c r="E100" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F100" s="28"/>
@@ -32564,7 +32776,7 @@
         <v>353</v>
       </c>
       <c r="E101" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F101" s="28"/>
@@ -32587,7 +32799,7 @@
         <v>358</v>
       </c>
       <c r="E102" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F102" s="28"/>
@@ -32610,7 +32822,7 @@
         <v>351</v>
       </c>
       <c r="E103" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F103" s="28"/>
@@ -32633,7 +32845,7 @@
         <v>351</v>
       </c>
       <c r="E104" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F104" s="28"/>
@@ -32656,7 +32868,7 @@
         <v>358</v>
       </c>
       <c r="E105" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F105" s="28"/>
@@ -32679,7 +32891,7 @@
         <v>352</v>
       </c>
       <c r="E106" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F106" s="28"/>
@@ -32702,7 +32914,7 @@
         <v>352</v>
       </c>
       <c r="E107" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F107" s="28"/>
@@ -32725,7 +32937,7 @@
         <v>352</v>
       </c>
       <c r="E108" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F108" s="28"/>
@@ -32748,7 +32960,7 @@
         <v>358</v>
       </c>
       <c r="E109" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F109" s="28"/>
@@ -32771,7 +32983,7 @@
         <v>352</v>
       </c>
       <c r="E110" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F110" s="28"/>
@@ -32794,7 +33006,7 @@
         <v>352</v>
       </c>
       <c r="E111" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F111" s="28"/>
@@ -32817,7 +33029,7 @@
         <v>358</v>
       </c>
       <c r="E112" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F112" s="28"/>
@@ -32840,7 +33052,7 @@
         <v>352</v>
       </c>
       <c r="E113" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F113" s="28"/>
@@ -32863,7 +33075,7 @@
         <v>352</v>
       </c>
       <c r="E114" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F114" s="28"/>
@@ -32886,7 +33098,7 @@
         <v>352</v>
       </c>
       <c r="E115" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F115" s="28"/>
@@ -32909,7 +33121,7 @@
         <v>352</v>
       </c>
       <c r="E116" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F116" s="28"/>
@@ -32932,7 +33144,7 @@
         <v>353</v>
       </c>
       <c r="E117" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F117" s="28"/>
@@ -32955,7 +33167,7 @@
         <v>358</v>
       </c>
       <c r="E118" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F118" s="28"/>
@@ -32978,7 +33190,7 @@
         <v>352</v>
       </c>
       <c r="E119" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F119" s="28"/>
@@ -33001,7 +33213,7 @@
         <v>358</v>
       </c>
       <c r="E120" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F120" s="28"/>
@@ -33024,7 +33236,7 @@
         <v>351</v>
       </c>
       <c r="E121" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F121" s="28"/>
@@ -33047,7 +33259,7 @@
         <v>350</v>
       </c>
       <c r="E122" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F122" s="28"/>
@@ -33070,7 +33282,7 @@
         <v>353</v>
       </c>
       <c r="E123" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F123" s="28"/>
@@ -33093,7 +33305,7 @@
         <v>351</v>
       </c>
       <c r="E124" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F124" s="28"/>
@@ -33116,7 +33328,7 @@
         <v>351</v>
       </c>
       <c r="E125" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F125" s="28"/>
@@ -33139,7 +33351,7 @@
         <v>353</v>
       </c>
       <c r="E126" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F126" s="28"/>
@@ -33162,7 +33374,7 @@
         <v>350</v>
       </c>
       <c r="E127" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F127" s="28"/>
@@ -33185,7 +33397,7 @@
         <v>353</v>
       </c>
       <c r="E128" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F128" s="28"/>
@@ -33208,7 +33420,7 @@
         <v>351</v>
       </c>
       <c r="E129" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F129" s="28"/>
@@ -33231,7 +33443,7 @@
         <v>353</v>
       </c>
       <c r="E130" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F130" s="28"/>
@@ -33254,7 +33466,7 @@
         <v>353</v>
       </c>
       <c r="E131" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F131" s="28"/>
@@ -33277,7 +33489,7 @@
         <v>353</v>
       </c>
       <c r="E132" s="9">
-        <f t="shared" ref="E132:E195" si="5">(D132-C132)*24</f>
+        <f t="shared" ref="E132:E195" si="6">(D132-C132)*24</f>
         <v>2.0000000000000009</v>
       </c>
       <c r="F132" s="28"/>
@@ -33300,7 +33512,7 @@
         <v>352</v>
       </c>
       <c r="E133" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F133" s="28"/>
@@ -33323,7 +33535,7 @@
         <v>353</v>
       </c>
       <c r="E134" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F134" s="28"/>
@@ -33346,7 +33558,7 @@
         <v>350</v>
       </c>
       <c r="E135" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F135" s="28"/>
@@ -33369,7 +33581,7 @@
         <v>351</v>
       </c>
       <c r="E136" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F136" s="28"/>
@@ -33392,7 +33604,7 @@
         <v>353</v>
       </c>
       <c r="E137" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F137" s="28"/>
@@ -33415,7 +33627,7 @@
         <v>352</v>
       </c>
       <c r="E138" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F138" s="28"/>
@@ -33438,7 +33650,7 @@
         <v>353</v>
       </c>
       <c r="E139" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F139" s="28"/>
@@ -33461,7 +33673,7 @@
         <v>350</v>
       </c>
       <c r="E140" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F140" s="28"/>
@@ -33484,7 +33696,7 @@
         <v>350</v>
       </c>
       <c r="E141" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F141" s="28"/>
@@ -33507,7 +33719,7 @@
         <v>351</v>
       </c>
       <c r="E142" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F142" s="28"/>
@@ -33530,7 +33742,7 @@
         <v>350</v>
       </c>
       <c r="E143" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F143" s="28"/>
@@ -33553,7 +33765,7 @@
         <v>351</v>
       </c>
       <c r="E144" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F144" s="28"/>
@@ -33576,7 +33788,7 @@
         <v>352</v>
       </c>
       <c r="E145" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F145" s="28"/>
@@ -33599,7 +33811,7 @@
         <v>362</v>
       </c>
       <c r="E146" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3333333333333313</v>
       </c>
       <c r="F146" s="28"/>
@@ -33622,7 +33834,7 @@
         <v>351</v>
       </c>
       <c r="E147" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="F147" s="28"/>
@@ -33645,7 +33857,7 @@
         <v>352</v>
       </c>
       <c r="E148" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F148" s="28"/>
@@ -33668,7 +33880,7 @@
         <v>358</v>
       </c>
       <c r="E149" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F149" s="28"/>
@@ -33691,7 +33903,7 @@
         <v>359</v>
       </c>
       <c r="E150" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F150" s="28"/>
@@ -33714,7 +33926,7 @@
         <v>353</v>
       </c>
       <c r="E151" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F151" s="28"/>
@@ -33737,7 +33949,7 @@
         <v>351</v>
       </c>
       <c r="E152" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F152" s="28"/>
@@ -33760,7 +33972,7 @@
         <v>359</v>
       </c>
       <c r="E153" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F153" s="28"/>
@@ -33783,7 +33995,7 @@
         <v>358</v>
       </c>
       <c r="E154" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F154" s="28"/>
@@ -33829,7 +34041,7 @@
         <v>352</v>
       </c>
       <c r="E156" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F156" s="28"/>
@@ -33852,7 +34064,7 @@
         <v>352</v>
       </c>
       <c r="E157" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F157" s="28"/>
@@ -33875,7 +34087,7 @@
         <v>358</v>
       </c>
       <c r="E158" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F158" s="28"/>
@@ -33898,7 +34110,7 @@
         <v>359</v>
       </c>
       <c r="E159" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F159" s="28"/>
@@ -33921,7 +34133,7 @@
         <v>353</v>
       </c>
       <c r="E160" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F160" s="28"/>
@@ -33944,7 +34156,7 @@
         <v>351</v>
       </c>
       <c r="E161" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F161" s="28"/>
@@ -33967,7 +34179,7 @@
         <v>361</v>
       </c>
       <c r="E162" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0000000000000013</v>
       </c>
       <c r="F162" s="28"/>
@@ -33990,7 +34202,7 @@
         <v>358</v>
       </c>
       <c r="E163" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F163" s="28"/>
@@ -34013,7 +34225,7 @@
         <v>353</v>
       </c>
       <c r="E164" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F164" s="28"/>
@@ -34036,7 +34248,7 @@
         <v>353</v>
       </c>
       <c r="E165" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F165" s="28"/>
@@ -34059,7 +34271,7 @@
         <v>358</v>
       </c>
       <c r="E166" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F166" s="28"/>
@@ -34082,7 +34294,7 @@
         <v>352</v>
       </c>
       <c r="E167" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F167" s="28"/>
@@ -34105,7 +34317,7 @@
         <v>352</v>
       </c>
       <c r="E168" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F168" s="28"/>
@@ -34128,7 +34340,7 @@
         <v>353</v>
       </c>
       <c r="E169" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F169" s="28"/>
@@ -34151,7 +34363,7 @@
         <v>358</v>
       </c>
       <c r="E170" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F170" s="28"/>
@@ -34174,7 +34386,7 @@
         <v>351</v>
       </c>
       <c r="E171" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F171" s="28"/>
@@ -34197,7 +34409,7 @@
         <v>353</v>
       </c>
       <c r="E172" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F172" s="28"/>
@@ -34220,7 +34432,7 @@
         <v>352</v>
       </c>
       <c r="E173" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F173" s="28"/>
@@ -34243,7 +34455,7 @@
         <v>350</v>
       </c>
       <c r="E174" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F174" s="28"/>
@@ -34266,7 +34478,7 @@
         <v>358</v>
       </c>
       <c r="E175" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F175" s="28"/>
@@ -34289,7 +34501,7 @@
         <v>358</v>
       </c>
       <c r="E176" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F176" s="28"/>
@@ -34312,7 +34524,7 @@
         <v>351</v>
       </c>
       <c r="E177" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F177" s="28"/>
@@ -34335,7 +34547,7 @@
         <v>353</v>
       </c>
       <c r="E178" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F178" s="28"/>
@@ -34358,7 +34570,7 @@
         <v>365</v>
       </c>
       <c r="E179" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3333333333333339</v>
       </c>
       <c r="F179" s="28"/>
@@ -34381,7 +34593,7 @@
         <v>350</v>
       </c>
       <c r="E180" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F180" s="28"/>
@@ -34404,7 +34616,7 @@
         <v>351</v>
       </c>
       <c r="E181" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F181" s="28"/>
@@ -34427,7 +34639,7 @@
         <v>351</v>
       </c>
       <c r="E182" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F182" s="28"/>
@@ -34450,7 +34662,7 @@
         <v>353</v>
       </c>
       <c r="E183" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F183" s="28"/>
@@ -34473,7 +34685,7 @@
         <v>366</v>
       </c>
       <c r="E184" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6666666666666679</v>
       </c>
       <c r="F184" s="28"/>
@@ -34496,7 +34708,7 @@
         <v>352</v>
       </c>
       <c r="E185" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F185" s="28"/>
@@ -34519,7 +34731,7 @@
         <v>350</v>
       </c>
       <c r="E186" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F186" s="28"/>
@@ -34542,7 +34754,7 @@
         <v>351</v>
       </c>
       <c r="E187" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F187" s="28"/>
@@ -34565,7 +34777,7 @@
         <v>358</v>
       </c>
       <c r="E188" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F188" s="28"/>
@@ -34588,7 +34800,7 @@
         <v>351</v>
       </c>
       <c r="E189" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F189" s="28"/>
@@ -34611,7 +34823,7 @@
         <v>353</v>
       </c>
       <c r="E190" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F190" s="28"/>
@@ -34634,7 +34846,7 @@
         <v>368</v>
       </c>
       <c r="E191" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3333333333333339</v>
       </c>
       <c r="F191" s="28"/>
@@ -34657,7 +34869,7 @@
         <v>353</v>
       </c>
       <c r="E192" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F192" s="28"/>
@@ -34680,7 +34892,7 @@
         <v>358</v>
       </c>
       <c r="E193" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F193" s="28"/>
@@ -34703,7 +34915,7 @@
         <v>352</v>
       </c>
       <c r="E194" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F194" s="28"/>
@@ -34726,7 +34938,7 @@
         <v>350</v>
       </c>
       <c r="E195" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F195" s="28"/>
@@ -34749,7 +34961,7 @@
         <v>351</v>
       </c>
       <c r="E196" s="9">
-        <f t="shared" ref="E196:E259" si="6">(D196-C196)*24</f>
+        <f t="shared" ref="E196:E259" si="7">(D196-C196)*24</f>
         <v>2.0000000000000009</v>
       </c>
       <c r="F196" s="28"/>
@@ -34772,7 +34984,7 @@
         <v>353</v>
       </c>
       <c r="E197" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F197" s="28"/>
@@ -34795,7 +35007,7 @@
         <v>352</v>
       </c>
       <c r="E198" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F198" s="28"/>
@@ -34818,7 +35030,7 @@
         <v>351</v>
       </c>
       <c r="E199" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F199" s="28"/>
@@ -34841,7 +35053,7 @@
         <v>358</v>
       </c>
       <c r="E200" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F200" s="28"/>
@@ -34864,7 +35076,7 @@
         <v>353</v>
       </c>
       <c r="E201" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F201" s="28"/>
@@ -34887,7 +35099,7 @@
         <v>358</v>
       </c>
       <c r="E202" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F202" s="28"/>
@@ -34910,7 +35122,7 @@
         <v>351</v>
       </c>
       <c r="E203" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F203" s="28"/>
@@ -34933,7 +35145,7 @@
         <v>352</v>
       </c>
       <c r="E204" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F204" s="28"/>
@@ -34956,7 +35168,7 @@
         <v>350</v>
       </c>
       <c r="E205" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F205" s="28"/>
@@ -34979,7 +35191,7 @@
         <v>353</v>
       </c>
       <c r="E206" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F206" s="28"/>
@@ -35002,7 +35214,7 @@
         <v>352</v>
       </c>
       <c r="E207" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F207" s="28"/>
@@ -35025,7 +35237,7 @@
         <v>351</v>
       </c>
       <c r="E208" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F208" s="28"/>
@@ -35048,7 +35260,7 @@
         <v>358</v>
       </c>
       <c r="E209" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F209" s="28"/>
@@ -35071,7 +35283,7 @@
         <v>350</v>
       </c>
       <c r="E210" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F210" s="28"/>
@@ -35094,7 +35306,7 @@
         <v>351</v>
       </c>
       <c r="E211" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F211" s="28"/>
@@ -35117,7 +35329,7 @@
         <v>353</v>
       </c>
       <c r="E212" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F212" s="28"/>
@@ -35140,7 +35352,7 @@
         <v>352</v>
       </c>
       <c r="E213" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F213" s="28"/>
@@ -35163,7 +35375,7 @@
         <v>358</v>
       </c>
       <c r="E214" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F214" s="28"/>
@@ -35186,7 +35398,7 @@
         <v>358</v>
       </c>
       <c r="E215" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F215" s="28"/>
@@ -35209,7 +35421,7 @@
         <v>353</v>
       </c>
       <c r="E216" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F216" s="28"/>
@@ -35232,7 +35444,7 @@
         <v>351</v>
       </c>
       <c r="E217" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F217" s="28"/>
@@ -35255,7 +35467,7 @@
         <v>351</v>
       </c>
       <c r="E218" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F218" s="28"/>
@@ -35278,7 +35490,7 @@
         <v>353</v>
       </c>
       <c r="E219" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F219" s="28"/>
@@ -35301,7 +35513,7 @@
         <v>352</v>
       </c>
       <c r="E220" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F220" s="28"/>
@@ -35324,7 +35536,7 @@
         <v>358</v>
       </c>
       <c r="E221" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F221" s="28"/>
@@ -35347,7 +35559,7 @@
         <v>358</v>
       </c>
       <c r="E222" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F222" s="28"/>
@@ -35370,7 +35582,7 @@
         <v>353</v>
       </c>
       <c r="E223" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F223" s="28"/>
@@ -35393,7 +35605,7 @@
         <v>351</v>
       </c>
       <c r="E224" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F224" s="28"/>
@@ -35416,7 +35628,7 @@
         <v>352</v>
       </c>
       <c r="E225" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F225" s="28"/>
@@ -35439,7 +35651,7 @@
         <v>351</v>
       </c>
       <c r="E226" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F226" s="28"/>
@@ -35462,7 +35674,7 @@
         <v>358</v>
       </c>
       <c r="E227" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F227" s="28"/>
@@ -35485,7 +35697,7 @@
         <v>358</v>
       </c>
       <c r="E228" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F228" s="28"/>
@@ -35508,7 +35720,7 @@
         <v>353</v>
       </c>
       <c r="E229" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F229" s="28"/>
@@ -35531,7 +35743,7 @@
         <v>351</v>
       </c>
       <c r="E230" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F230" s="28"/>
@@ -35554,7 +35766,7 @@
         <v>351</v>
       </c>
       <c r="E231" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="F231" s="28"/>
@@ -35577,7 +35789,7 @@
         <v>352</v>
       </c>
       <c r="E232" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F232" s="28"/>
@@ -35600,7 +35812,7 @@
         <v>351</v>
       </c>
       <c r="E233" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F233" s="28"/>
@@ -35623,7 +35835,7 @@
         <v>358</v>
       </c>
       <c r="E234" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F234" s="28"/>
@@ -35646,7 +35858,7 @@
         <v>353</v>
       </c>
       <c r="E235" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F235" s="28"/>
@@ -35669,7 +35881,7 @@
         <v>358</v>
       </c>
       <c r="E236" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F236" s="28"/>
@@ -35692,7 +35904,7 @@
         <v>353</v>
       </c>
       <c r="E237" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F237" s="28"/>
@@ -35715,7 +35927,7 @@
         <v>358</v>
       </c>
       <c r="E238" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F238" s="28"/>
@@ -35738,7 +35950,7 @@
         <v>353</v>
       </c>
       <c r="E239" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F239" s="28"/>
@@ -35761,7 +35973,7 @@
         <v>352</v>
       </c>
       <c r="E240" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F240" s="28"/>
@@ -35784,7 +35996,7 @@
         <v>358</v>
       </c>
       <c r="E241" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F241" s="28"/>
@@ -35807,7 +36019,7 @@
         <v>353</v>
       </c>
       <c r="E242" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F242" s="28"/>
@@ -35830,7 +36042,7 @@
         <v>358</v>
       </c>
       <c r="E243" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F243" s="28"/>
@@ -35853,7 +36065,7 @@
         <v>351</v>
       </c>
       <c r="E244" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="F244" s="28"/>
@@ -35876,7 +36088,7 @@
         <v>352</v>
       </c>
       <c r="E245" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="F245" s="28"/>
@@ -35899,7 +36111,7 @@
         <v>353</v>
       </c>
       <c r="E246" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F246" s="28"/>
@@ -35922,7 +36134,7 @@
         <v>350</v>
       </c>
       <c r="E247" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F247" s="28"/>
@@ -35945,7 +36157,7 @@
         <v>350</v>
       </c>
       <c r="E248" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F248" s="28"/>
@@ -35968,7 +36180,7 @@
         <v>358</v>
       </c>
       <c r="E249" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F249" s="28"/>
@@ -35991,7 +36203,7 @@
         <v>361</v>
       </c>
       <c r="E250" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="F250" s="28"/>
@@ -36014,7 +36226,7 @@
         <v>352</v>
       </c>
       <c r="E251" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="F251" s="28"/>
@@ -36037,7 +36249,7 @@
         <v>352</v>
       </c>
       <c r="E252" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F252" s="28"/>
@@ -36060,7 +36272,7 @@
         <v>353</v>
       </c>
       <c r="E253" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F253" s="28"/>
@@ -36083,7 +36295,7 @@
         <v>352</v>
       </c>
       <c r="E254" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F254" s="28"/>
@@ -36106,7 +36318,7 @@
         <v>353</v>
       </c>
       <c r="E255" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F255" s="28"/>
@@ -36129,7 +36341,7 @@
         <v>352</v>
       </c>
       <c r="E256" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F256" s="28"/>
@@ -36152,7 +36364,7 @@
         <v>352</v>
       </c>
       <c r="E257" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F257" s="28"/>
@@ -36175,7 +36387,7 @@
         <v>350</v>
       </c>
       <c r="E258" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F258" s="28"/>
@@ -36198,7 +36410,7 @@
         <v>351</v>
       </c>
       <c r="E259" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F259" s="28"/>
@@ -36221,7 +36433,7 @@
         <v>353</v>
       </c>
       <c r="E260" s="9">
-        <f t="shared" ref="E260:E323" si="7">(D260-C260)*24</f>
+        <f t="shared" ref="E260:E323" si="8">(D260-C260)*24</f>
         <v>2.0000000000000009</v>
       </c>
       <c r="F260" s="28"/>
@@ -36244,7 +36456,7 @@
         <v>358</v>
       </c>
       <c r="E261" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F261" s="28"/>
@@ -36267,7 +36479,7 @@
         <v>352</v>
       </c>
       <c r="E262" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F262" s="28"/>
@@ -36290,7 +36502,7 @@
         <v>352</v>
       </c>
       <c r="E263" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F263" s="28"/>
@@ -36313,7 +36525,7 @@
         <v>350</v>
       </c>
       <c r="E264" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F264" s="28"/>
@@ -36336,7 +36548,7 @@
         <v>351</v>
       </c>
       <c r="E265" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F265" s="28"/>
@@ -36359,7 +36571,7 @@
         <v>353</v>
       </c>
       <c r="E266" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F266" s="28"/>
@@ -36382,7 +36594,7 @@
         <v>358</v>
       </c>
       <c r="E267" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F267" s="28"/>
@@ -36405,7 +36617,7 @@
         <v>358</v>
       </c>
       <c r="E268" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F268" s="28"/>
@@ -36428,7 +36640,7 @@
         <v>351</v>
       </c>
       <c r="E269" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F269" s="28"/>
@@ -36451,7 +36663,7 @@
         <v>350</v>
       </c>
       <c r="E270" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F270" s="28"/>
@@ -36474,7 +36686,7 @@
         <v>353</v>
       </c>
       <c r="E271" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F271" s="28"/>
@@ -36497,7 +36709,7 @@
         <v>358</v>
       </c>
       <c r="E272" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F272" s="28"/>
@@ -36520,7 +36732,7 @@
         <v>351</v>
       </c>
       <c r="E273" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F273" s="28"/>
@@ -36543,7 +36755,7 @@
         <v>352</v>
       </c>
       <c r="E274" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F274" s="28"/>
@@ -36566,7 +36778,7 @@
         <v>351</v>
       </c>
       <c r="E275" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F275" s="28"/>
@@ -36589,7 +36801,7 @@
         <v>358</v>
       </c>
       <c r="E276" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F276" s="28"/>
@@ -36612,7 +36824,7 @@
         <v>351</v>
       </c>
       <c r="E277" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F277" s="28"/>
@@ -36635,7 +36847,7 @@
         <v>352</v>
       </c>
       <c r="E278" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F278" s="28"/>
@@ -36658,7 +36870,7 @@
         <v>352</v>
       </c>
       <c r="E279" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F279" s="28"/>
@@ -36681,7 +36893,7 @@
         <v>353</v>
       </c>
       <c r="E280" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F280" s="28"/>
@@ -36704,7 +36916,7 @@
         <v>351</v>
       </c>
       <c r="E281" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F281" s="28"/>
@@ -36727,7 +36939,7 @@
         <v>353</v>
       </c>
       <c r="E282" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F282" s="28"/>
@@ -36750,7 +36962,7 @@
         <v>350</v>
       </c>
       <c r="E283" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F283" s="28"/>
@@ -36773,7 +36985,7 @@
         <v>352</v>
       </c>
       <c r="E284" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F284" s="28"/>
@@ -36796,7 +37008,7 @@
         <v>358</v>
       </c>
       <c r="E285" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F285" s="28"/>
@@ -36819,7 +37031,7 @@
         <v>357</v>
       </c>
       <c r="E286" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="F286" s="28"/>
@@ -36842,7 +37054,7 @@
         <v>352</v>
       </c>
       <c r="E287" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F287" s="28"/>
@@ -36865,7 +37077,7 @@
         <v>353</v>
       </c>
       <c r="E288" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F288" s="28"/>
@@ -36888,7 +37100,7 @@
         <v>351</v>
       </c>
       <c r="E289" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F289" s="28"/>
@@ -36911,7 +37123,7 @@
         <v>353</v>
       </c>
       <c r="E290" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F290" s="28"/>
@@ -36934,7 +37146,7 @@
         <v>350</v>
       </c>
       <c r="E291" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F291" s="28"/>
@@ -36957,7 +37169,7 @@
         <v>352</v>
       </c>
       <c r="E292" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F292" s="28"/>
@@ -36980,7 +37192,7 @@
         <v>351</v>
       </c>
       <c r="E293" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F293" s="28"/>
@@ -37003,7 +37215,7 @@
         <v>353</v>
       </c>
       <c r="E294" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F294" s="28"/>
@@ -37026,7 +37238,7 @@
         <v>351</v>
       </c>
       <c r="E295" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F295" s="28"/>
@@ -37049,7 +37261,7 @@
         <v>350</v>
       </c>
       <c r="E296" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F296" s="28"/>
@@ -37072,7 +37284,7 @@
         <v>351</v>
       </c>
       <c r="E297" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F297" s="28"/>
@@ -37095,7 +37307,7 @@
         <v>353</v>
       </c>
       <c r="E298" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F298" s="28"/>
@@ -37118,7 +37330,7 @@
         <v>351</v>
       </c>
       <c r="E299" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F299" s="28"/>
@@ -37141,7 +37353,7 @@
         <v>350</v>
       </c>
       <c r="E300" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F300" s="28"/>
@@ -37164,7 +37376,7 @@
         <v>352</v>
       </c>
       <c r="E301" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="F301" s="28"/>
@@ -37187,7 +37399,7 @@
         <v>353</v>
       </c>
       <c r="E302" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F302" s="28"/>
@@ -37210,7 +37422,7 @@
         <v>352</v>
       </c>
       <c r="E303" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="F303" s="28"/>
@@ -37233,7 +37445,7 @@
         <v>353</v>
       </c>
       <c r="E304" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F304" s="28"/>
@@ -37256,7 +37468,7 @@
         <v>351</v>
       </c>
       <c r="E305" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F305" s="28"/>
@@ -37279,7 +37491,7 @@
         <v>352</v>
       </c>
       <c r="E306" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F306" s="28"/>
@@ -37302,7 +37514,7 @@
         <v>353</v>
       </c>
       <c r="E307" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F307" s="28"/>
@@ -37325,7 +37537,7 @@
         <v>353</v>
       </c>
       <c r="E308" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F308" s="28"/>
@@ -37348,7 +37560,7 @@
         <v>351</v>
       </c>
       <c r="E309" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F309" s="28"/>
@@ -37371,7 +37583,7 @@
         <v>352</v>
       </c>
       <c r="E310" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F310" s="28"/>
@@ -37394,7 +37606,7 @@
         <v>353</v>
       </c>
       <c r="E311" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F311" s="28"/>
@@ -37417,7 +37629,7 @@
         <v>351</v>
       </c>
       <c r="E312" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F312" s="28"/>
@@ -37440,7 +37652,7 @@
         <v>352</v>
       </c>
       <c r="E313" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F313" s="28"/>
@@ -37463,7 +37675,7 @@
         <v>358</v>
       </c>
       <c r="E314" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F314" s="28"/>
@@ -37486,7 +37698,7 @@
         <v>352</v>
       </c>
       <c r="E315" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F315" s="28"/>
@@ -37509,7 +37721,7 @@
         <v>351</v>
       </c>
       <c r="E316" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F316" s="28"/>
@@ -37532,7 +37744,7 @@
         <v>351</v>
       </c>
       <c r="E317" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F317" s="28"/>
@@ -37555,7 +37767,7 @@
         <v>352</v>
       </c>
       <c r="E318" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F318" s="28"/>
@@ -37578,7 +37790,7 @@
         <v>358</v>
       </c>
       <c r="E319" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F319" s="28"/>
@@ -37601,7 +37813,7 @@
         <v>352</v>
       </c>
       <c r="E320" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F320" s="28"/>
@@ -37624,7 +37836,7 @@
         <v>351</v>
       </c>
       <c r="E321" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F321" s="28"/>
@@ -37647,7 +37859,7 @@
         <v>351</v>
       </c>
       <c r="E322" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F322" s="28"/>
@@ -37670,7 +37882,7 @@
         <v>353</v>
       </c>
       <c r="E323" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F323" s="28"/>
@@ -37693,7 +37905,7 @@
         <v>350</v>
       </c>
       <c r="E324" s="9">
-        <f t="shared" ref="E324:E374" si="8">(D324-C324)*24</f>
+        <f t="shared" ref="E324:E374" si="9">(D324-C324)*24</f>
         <v>1.9999999999999996</v>
       </c>
       <c r="F324" s="28"/>
@@ -37716,7 +37928,7 @@
         <v>357</v>
       </c>
       <c r="E325" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F325" s="28"/>
@@ -37739,7 +37951,7 @@
         <v>350</v>
       </c>
       <c r="E326" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F326" s="28"/>
@@ -37762,7 +37974,7 @@
         <v>351</v>
       </c>
       <c r="E327" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F327" s="28"/>
@@ -37785,7 +37997,7 @@
         <v>351</v>
       </c>
       <c r="E328" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F328" s="28"/>
@@ -37808,7 +38020,7 @@
         <v>353</v>
       </c>
       <c r="E329" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F329" s="28"/>
@@ -37831,7 +38043,7 @@
         <v>350</v>
       </c>
       <c r="E330" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F330" s="28"/>
@@ -37854,7 +38066,7 @@
         <v>357</v>
       </c>
       <c r="E331" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F331" s="28"/>
@@ -37877,7 +38089,7 @@
         <v>355</v>
       </c>
       <c r="E332" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.0000000000000018</v>
       </c>
       <c r="F332" s="28"/>
@@ -37900,7 +38112,7 @@
         <v>350</v>
       </c>
       <c r="E333" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F333" s="28"/>
@@ -37923,7 +38135,7 @@
         <v>358</v>
       </c>
       <c r="E334" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F334" s="28"/>
@@ -37946,7 +38158,7 @@
         <v>353</v>
       </c>
       <c r="E335" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F335" s="28"/>
@@ -37969,7 +38181,7 @@
         <v>351</v>
       </c>
       <c r="E336" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F336" s="28"/>
@@ -37992,7 +38204,7 @@
         <v>350</v>
       </c>
       <c r="E337" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F337" s="28"/>
@@ -38015,7 +38227,7 @@
         <v>353</v>
       </c>
       <c r="E338" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F338" s="28"/>
@@ -38038,7 +38250,7 @@
         <v>358</v>
       </c>
       <c r="E339" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F339" s="28"/>
@@ -38061,7 +38273,7 @@
         <v>353</v>
       </c>
       <c r="E340" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F340" s="28"/>
@@ -38084,7 +38296,7 @@
         <v>351</v>
       </c>
       <c r="E341" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F341" s="28"/>
@@ -38107,7 +38319,7 @@
         <v>353</v>
       </c>
       <c r="E342" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F342" s="28"/>
@@ -38130,7 +38342,7 @@
         <v>351</v>
       </c>
       <c r="E343" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F343" s="28"/>
@@ -38153,7 +38365,7 @@
         <v>350</v>
       </c>
       <c r="E344" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F344" s="28"/>
@@ -38176,7 +38388,7 @@
         <v>358</v>
       </c>
       <c r="E345" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F345" s="28"/>
@@ -38199,7 +38411,7 @@
         <v>351</v>
       </c>
       <c r="E346" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F346" s="28"/>
@@ -38222,7 +38434,7 @@
         <v>358</v>
       </c>
       <c r="E347" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F347" s="28"/>
@@ -38245,7 +38457,7 @@
         <v>355</v>
       </c>
       <c r="E348" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.0000000000000018</v>
       </c>
       <c r="F348" s="28"/>
@@ -38268,7 +38480,7 @@
         <v>357</v>
       </c>
       <c r="E349" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F349" s="28"/>
@@ -38291,7 +38503,7 @@
         <v>350</v>
       </c>
       <c r="E350" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F350" s="28"/>
@@ -38314,7 +38526,7 @@
         <v>358</v>
       </c>
       <c r="E351" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F351" s="28"/>
@@ -38337,7 +38549,7 @@
         <v>353</v>
       </c>
       <c r="E352" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F352" s="28"/>
@@ -38360,7 +38572,7 @@
         <v>351</v>
       </c>
       <c r="E353" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F353" s="28"/>
@@ -38383,7 +38595,7 @@
         <v>350</v>
       </c>
       <c r="E354" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F354" s="28"/>
@@ -38406,7 +38618,7 @@
         <v>353</v>
       </c>
       <c r="E355" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F355" s="28"/>
@@ -38429,7 +38641,7 @@
         <v>358</v>
       </c>
       <c r="E356" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F356" s="28"/>
@@ -38452,7 +38664,7 @@
         <v>353</v>
       </c>
       <c r="E357" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F357" s="28"/>
@@ -38475,7 +38687,7 @@
         <v>351</v>
       </c>
       <c r="E358" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F358" s="28"/>
@@ -38498,7 +38710,7 @@
         <v>350</v>
       </c>
       <c r="E359" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F359" s="28"/>
@@ -38521,7 +38733,7 @@
         <v>358</v>
       </c>
       <c r="E360" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F360" s="28"/>
@@ -38544,7 +38756,7 @@
         <v>350</v>
       </c>
       <c r="E361" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F361" s="28"/>
@@ -38567,7 +38779,7 @@
         <v>358</v>
       </c>
       <c r="E362" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F362" s="28"/>
@@ -38590,7 +38802,7 @@
         <v>369</v>
       </c>
       <c r="E363" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F363" s="28"/>
@@ -38613,7 +38825,7 @@
         <v>357</v>
       </c>
       <c r="E364" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F364" s="28"/>
@@ -38636,7 +38848,7 @@
         <v>350</v>
       </c>
       <c r="E365" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F365" s="28"/>
@@ -38659,7 +38871,7 @@
         <v>358</v>
       </c>
       <c r="E366" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F366" s="28"/>
@@ -38682,7 +38894,7 @@
         <v>353</v>
       </c>
       <c r="E367" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F367" s="28"/>
@@ -38705,7 +38917,7 @@
         <v>350</v>
       </c>
       <c r="E368" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F368" s="28"/>
@@ -38728,7 +38940,7 @@
         <v>353</v>
       </c>
       <c r="E369" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F369" s="28"/>
@@ -38751,7 +38963,7 @@
         <v>351</v>
       </c>
       <c r="E370" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F370" s="28"/>
@@ -38774,7 +38986,7 @@
         <v>353</v>
       </c>
       <c r="E371" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F371" s="28"/>
@@ -38797,7 +39009,7 @@
         <v>353</v>
       </c>
       <c r="E372" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F372" s="28"/>
@@ -38820,7 +39032,7 @@
         <v>350</v>
       </c>
       <c r="E373" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F373" s="28"/>
@@ -38843,7 +39055,7 @@
         <v>358</v>
       </c>
       <c r="E374" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F374" s="28"/>

--- a/Documentation/Miscellaneous/Schedule of Term 3 (2017-2018).xlsx
+++ b/Documentation/Miscellaneous/Schedule of Term 3 (2017-2018).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PBL1 Repository\trunk\Documentation\Miscellaneous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JM\Documents\IOT-FMS\trunk\Documentation\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF2AFB1-804E-4873-961A-66A6FE38A1F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A9F29414-BDDB-43C9-A10C-893CF2A53808}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="10275" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ALL20173 (1)'!$D$1:$D$605</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1922,6 +1922,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="4" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="6" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1937,34 +1959,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="12" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="4" xfId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="6" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9666,24 +9666,24 @@
     <col min="8" max="8" width="10.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="44"/>
+    <col min="11" max="11" width="9.140625" style="38"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="44"/>
+    <col min="14" max="14" width="9.140625" style="38"/>
     <col min="15" max="15" width="19.85546875" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="44"/>
+    <col min="19" max="19" width="9.140625" style="38"/>
     <col min="20" max="20" width="20" customWidth="1"/>
     <col min="21" max="21" width="8" customWidth="1"/>
     <col min="22" max="22" width="13.5703125" customWidth="1"/>
     <col min="23" max="23" width="14.5703125" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="44"/>
+    <col min="24" max="24" width="9.140625" style="38"/>
     <col min="25" max="25" width="27.140625" customWidth="1"/>
     <col min="26" max="26" width="17" customWidth="1"/>
     <col min="27" max="27" width="25" customWidth="1"/>
     <col min="28" max="28" width="20.42578125" customWidth="1"/>
-    <col min="29" max="29" width="9" style="44" customWidth="1"/>
+    <col min="29" max="29" width="9" style="38" customWidth="1"/>
     <col min="30" max="30" width="14.85546875" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="13.28515625" hidden="1" customWidth="1"/>
     <col min="32" max="33" width="0" hidden="1" customWidth="1"/>
@@ -9692,43 +9692,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="41"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="M1" s="47"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="41"/>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="47"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="49"/>
       <c r="S1" s="41"/>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="Y1" s="45" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="Y1" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -9737,14 +9737,14 @@
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="9" t="s">
         <v>377</v>
       </c>
@@ -29410,18 +29410,18 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="N1:N1048576"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="AC1:AC1048576"/>
     <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="X1:X1048576"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="K1:K1048576"/>
     <mergeCell ref="S1:S1048576"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="N1:N1048576"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29432,8 +29432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300793FE-19EF-405E-BC33-F239AE127AED}">
   <dimension ref="A1:AD374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="J20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29454,17 +29454,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="H1" s="38"/>
+      <c r="H1" s="46"/>
       <c r="N1" s="35" t="s">
         <v>402</v>
       </c>
@@ -29485,10 +29485,10 @@
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="22" t="s">
         <v>377</v>
       </c>
@@ -29539,7 +29539,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" ref="L3:L51" ca="1" si="0">H3*0.125</f>
+        <f t="shared" ref="L3:L50" ca="1" si="0">H3*0.125</f>
         <v>0.99999999999999978</v>
       </c>
       <c r="N3" s="9">
@@ -29547,8 +29547,8 @@
         <v>38.101534959839988</v>
       </c>
       <c r="P3" s="14">
-        <f>(((2.7/1000)*10.219)*12.5)</f>
-        <v>0.34489124999999998</v>
+        <f>(((2.13/1000)*10.219)*12.5)</f>
+        <v>0.272080875</v>
       </c>
       <c r="W3" s="10"/>
     </row>
@@ -29586,12 +29586,12 @@
         <v>2.25</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N51" si="3">(((J4*(745.699872*2.5))/1000)*L4)*$P$1</f>
+        <f t="shared" ref="N4:N50" si="3">(((J4*(745.699872*2.5))/1000)*L4)*$P$1</f>
         <v>85.728453659639996</v>
       </c>
       <c r="P4" s="14">
-        <f t="shared" ref="P4:P50" si="4">(((2.7/1000)*10.219)*12.5)</f>
-        <v>0.34489124999999998</v>
+        <f t="shared" ref="P4:P50" si="4">(((2.13/1000)*10.219)*12.5)</f>
+        <v>0.272080875</v>
       </c>
       <c r="W4" s="10"/>
     </row>
@@ -29634,7 +29634,7 @@
       </c>
       <c r="P5" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W5" s="10"/>
     </row>
@@ -29677,7 +29677,7 @@
       </c>
       <c r="P6" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W6" s="10"/>
     </row>
@@ -29720,7 +29720,7 @@
       </c>
       <c r="P7" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W7" s="10"/>
     </row>
@@ -29763,7 +29763,7 @@
       </c>
       <c r="P8" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W8" s="10"/>
     </row>
@@ -29806,7 +29806,7 @@
       </c>
       <c r="P9" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W9" s="10"/>
     </row>
@@ -29849,7 +29849,7 @@
       </c>
       <c r="P10" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W10" s="10"/>
     </row>
@@ -29892,7 +29892,7 @@
       </c>
       <c r="P11" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W11" s="10"/>
     </row>
@@ -29933,7 +29933,7 @@
       </c>
       <c r="P12" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W12" s="10"/>
     </row>
@@ -29976,7 +29976,7 @@
       </c>
       <c r="P13" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W13" s="10"/>
     </row>
@@ -30019,7 +30019,7 @@
       </c>
       <c r="P14" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W14" s="10"/>
     </row>
@@ -30062,7 +30062,7 @@
       </c>
       <c r="P15" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W15" s="10"/>
     </row>
@@ -30105,7 +30105,7 @@
       </c>
       <c r="P16" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W16" s="10"/>
     </row>
@@ -30148,7 +30148,7 @@
       </c>
       <c r="P17" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W17" s="10"/>
     </row>
@@ -30191,7 +30191,7 @@
       </c>
       <c r="P18" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W18" s="10"/>
     </row>
@@ -30234,7 +30234,7 @@
       </c>
       <c r="P19" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W19" s="10"/>
     </row>
@@ -30277,7 +30277,7 @@
       </c>
       <c r="P20" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W20" s="10"/>
     </row>
@@ -30320,7 +30320,7 @@
       </c>
       <c r="P21" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W21" s="10"/>
     </row>
@@ -30363,7 +30363,7 @@
       </c>
       <c r="P22" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W22" s="10"/>
     </row>
@@ -30406,7 +30406,7 @@
       </c>
       <c r="P23" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W23" s="10"/>
     </row>
@@ -30449,7 +30449,7 @@
       </c>
       <c r="P24" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W24" s="10"/>
     </row>
@@ -30492,7 +30492,7 @@
       </c>
       <c r="P25" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W25" s="10"/>
     </row>
@@ -30535,7 +30535,7 @@
       </c>
       <c r="P26" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W26" s="10"/>
     </row>
@@ -30578,7 +30578,7 @@
       </c>
       <c r="P27" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W27" s="10"/>
     </row>
@@ -30621,7 +30621,7 @@
       </c>
       <c r="P28" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W28" s="10"/>
     </row>
@@ -30664,7 +30664,7 @@
       </c>
       <c r="P29" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W29" s="10"/>
     </row>
@@ -30707,7 +30707,7 @@
       </c>
       <c r="P30" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W30" s="10"/>
     </row>
@@ -30750,7 +30750,7 @@
       </c>
       <c r="P31" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W31" s="10"/>
     </row>
@@ -30793,7 +30793,7 @@
       </c>
       <c r="P32" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W32" s="10"/>
       <c r="AA32" s="2"/>
@@ -30840,7 +30840,7 @@
       </c>
       <c r="P33" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W33" s="10"/>
     </row>
@@ -30883,7 +30883,7 @@
       </c>
       <c r="P34" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W34" s="10"/>
     </row>
@@ -30926,7 +30926,7 @@
       </c>
       <c r="P35" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W35" s="10"/>
     </row>
@@ -30969,7 +30969,7 @@
       </c>
       <c r="P36" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W36" s="10"/>
     </row>
@@ -31012,7 +31012,7 @@
       </c>
       <c r="P37" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W37" s="10"/>
       <c r="AA37" s="2"/>
@@ -31056,7 +31056,7 @@
       </c>
       <c r="P38" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W38" s="10"/>
     </row>
@@ -31099,7 +31099,7 @@
       </c>
       <c r="P39" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W39" s="10"/>
     </row>
@@ -31142,7 +31142,7 @@
       </c>
       <c r="P40" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W40" s="10"/>
     </row>
@@ -31185,7 +31185,7 @@
       </c>
       <c r="P41" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W41" s="10"/>
     </row>
@@ -31228,7 +31228,7 @@
       </c>
       <c r="P42" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W42" s="10"/>
     </row>
@@ -31271,7 +31271,7 @@
       </c>
       <c r="P43" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W43" s="10"/>
     </row>
@@ -31314,7 +31314,7 @@
       </c>
       <c r="P44" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="W44" s="10"/>
     </row>
@@ -31344,7 +31344,7 @@
         <v>10.000000000000002</v>
       </c>
       <c r="I45" s="30"/>
-      <c r="J45" s="49">
+      <c r="J45" s="36">
         <v>1</v>
       </c>
       <c r="L45" s="9">
@@ -31357,7 +31357,7 @@
       </c>
       <c r="P45" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="AA45" s="33"/>
       <c r="AB45" s="34"/>
@@ -31388,7 +31388,7 @@
         <v>1.9999999999999996</v>
       </c>
       <c r="I46" s="30"/>
-      <c r="J46" s="49">
+      <c r="J46" s="36">
         <v>1</v>
       </c>
       <c r="L46" s="9">
@@ -31401,7 +31401,7 @@
       </c>
       <c r="P46" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="AA46" s="26"/>
       <c r="AB46" s="34"/>
@@ -31432,7 +31432,7 @@
         <v>18.000000000000004</v>
       </c>
       <c r="I47" s="30"/>
-      <c r="J47" s="49">
+      <c r="J47" s="36">
         <v>1</v>
       </c>
       <c r="L47" s="9">
@@ -31445,7 +31445,7 @@
       </c>
       <c r="P47" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
       <c r="AA47" s="26"/>
       <c r="AB47" s="34"/>
@@ -31476,7 +31476,7 @@
         <v>38</v>
       </c>
       <c r="I48" s="30"/>
-      <c r="J48" s="49">
+      <c r="J48" s="36">
         <v>1</v>
       </c>
       <c r="L48" s="9">
@@ -31489,7 +31489,7 @@
       </c>
       <c r="P48" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -31518,7 +31518,7 @@
         <v>30</v>
       </c>
       <c r="I49" s="30"/>
-      <c r="J49" s="49">
+      <c r="J49" s="36">
         <v>1</v>
       </c>
       <c r="L49" s="9">
@@ -31531,7 +31531,7 @@
       </c>
       <c r="P49" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -31560,7 +31560,7 @@
         <v>20</v>
       </c>
       <c r="I50" s="30"/>
-      <c r="J50" s="49">
+      <c r="J50" s="36">
         <v>1</v>
       </c>
       <c r="L50" s="9">
@@ -31573,7 +31573,7 @@
       </c>
       <c r="P50" s="14">
         <f t="shared" si="4"/>
-        <v>0.34489124999999998</v>
+        <v>0.272080875</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -31608,9 +31608,9 @@
       <c r="O51" t="s">
         <v>404</v>
       </c>
-      <c r="P51" s="50">
+      <c r="P51" s="37">
         <f>SUM(P3:P50)</f>
-        <v>16.554779999999997</v>
+        <v>13.059882000000009</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -31642,9 +31642,9 @@
       <c r="O52" t="s">
         <v>405</v>
       </c>
-      <c r="P52" s="50">
+      <c r="P52" s="37">
         <f>P51*4</f>
-        <v>66.21911999999999</v>
+        <v>52.239528000000035</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -31676,9 +31676,9 @@
       <c r="O53" t="s">
         <v>406</v>
       </c>
-      <c r="P53" s="50">
+      <c r="P53" s="37">
         <f>P52*3</f>
-        <v>198.65735999999998</v>
+        <v>156.71858400000011</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">

--- a/Documentation/Miscellaneous/Schedule of Term 3 (2017-2018).xlsx
+++ b/Documentation/Miscellaneous/Schedule of Term 3 (2017-2018).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JM\Documents\IOT-FMS\trunk\Documentation\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A9F29414-BDDB-43C9-A10C-893CF2A53808}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6C946E00-86FE-40DA-A31F-940A8AB67154}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="10275" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="10275" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ALL20173 (1)" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="ALL20173 (1)" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet8" sheetId="9" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4580" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4580" uniqueCount="408">
   <si>
     <t>Master List of Subject Offerings</t>
   </si>
@@ -1247,6 +1247,9 @@
   </si>
   <si>
     <t>per term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR CONDITIONER </t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E605"/>
   <sheetViews>
-    <sheetView topLeftCell="A400" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J421" sqref="J421"/>
     </sheetView>
   </sheetViews>
@@ -8678,7 +8681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -9650,7 +9653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN417"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
@@ -29432,8 +29435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300793FE-19EF-405E-BC33-F239AE127AED}">
   <dimension ref="A1:AD374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29505,7 +29508,7 @@
         <v>397</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="W2" s="23"/>
     </row>
@@ -29794,15 +29797,15 @@
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="0"/>
         <v>1.5000000000000004</v>
       </c>
       <c r="N9" s="9">
-        <f t="shared" si="3"/>
-        <v>57.152302439760014</v>
+        <f>(((J9*(745.699872*3))/1000)*L9)*$P$1</f>
+        <v>102.87414439156802</v>
       </c>
       <c r="P9" s="14">
         <f t="shared" si="4"/>
@@ -29964,15 +29967,15 @@
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="N13" s="9">
-        <f t="shared" si="3"/>
-        <v>38.101534959840009</v>
+        <f>(((J13*(745.699872*3))/1000)*L13)*$P$1</f>
+        <v>68.582762927712011</v>
       </c>
       <c r="P13" s="14">
         <f t="shared" si="4"/>
@@ -30652,15 +30655,15 @@
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="0"/>
         <v>5.2916666666666661</v>
       </c>
       <c r="N29" s="9">
-        <f t="shared" si="3"/>
-        <v>201.62062249581999</v>
+        <f>(((J29*(745.699872*3))/1000)*L29)*$P$1</f>
+        <v>362.91712049247599</v>
       </c>
       <c r="P29" s="14">
         <f t="shared" si="4"/>
@@ -31603,7 +31606,7 @@
       </c>
       <c r="N51" s="34">
         <f ca="1">SUM(N3:N50)</f>
-        <v>3865.7182344670996</v>
+        <v>4103.2178023834349</v>
       </c>
       <c r="O51" t="s">
         <v>404</v>
@@ -31637,7 +31640,7 @@
       <c r="J52" s="10"/>
       <c r="N52" s="34">
         <f ca="1">N51*4</f>
-        <v>15462.872937868398</v>
+        <v>16412.87120953374</v>
       </c>
       <c r="O52" t="s">
         <v>405</v>
@@ -31671,7 +31674,7 @@
       <c r="J53" s="10"/>
       <c r="N53" s="34">
         <f ca="1">N52*3</f>
-        <v>46388.618813605193</v>
+        <v>49238.613628601219</v>
       </c>
       <c r="O53" t="s">
         <v>406</v>

--- a/Documentation/Miscellaneous/Schedule of Term 3 (2017-2018).xlsx
+++ b/Documentation/Miscellaneous/Schedule of Term 3 (2017-2018).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JM\Documents\IOT-FMS\trunk\Documentation\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6C946E00-86FE-40DA-A31F-940A8AB67154}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{691EC7E6-2517-413F-9D46-EABC48631AC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="10275" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1929,24 +1929,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="19" fillId="6" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1960,6 +1942,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="16" applyBorder="1" applyAlignment="1">
@@ -9669,24 +9669,24 @@
     <col min="8" max="8" width="10.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="38"/>
+    <col min="11" max="11" width="9.140625" style="46"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="38"/>
+    <col min="14" max="14" width="9.140625" style="46"/>
     <col min="15" max="15" width="19.85546875" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="38"/>
+    <col min="19" max="19" width="9.140625" style="46"/>
     <col min="20" max="20" width="20" customWidth="1"/>
     <col min="21" max="21" width="8" customWidth="1"/>
     <col min="22" max="22" width="13.5703125" customWidth="1"/>
     <col min="23" max="23" width="14.5703125" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="38"/>
+    <col min="24" max="24" width="9.140625" style="46"/>
     <col min="25" max="25" width="27.140625" customWidth="1"/>
     <col min="26" max="26" width="17" customWidth="1"/>
     <col min="27" max="27" width="25" customWidth="1"/>
     <col min="28" max="28" width="20.42578125" customWidth="1"/>
-    <col min="29" max="29" width="9" style="38" customWidth="1"/>
+    <col min="29" max="29" width="9" style="46" customWidth="1"/>
     <col min="30" max="30" width="14.85546875" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="13.28515625" hidden="1" customWidth="1"/>
     <col min="32" max="33" width="0" hidden="1" customWidth="1"/>
@@ -9695,43 +9695,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="39" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="47" t="s">
         <v>390</v>
       </c>
       <c r="M1" s="49"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
       <c r="R1" s="49"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="40" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="Y1" s="39" t="s">
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="Y1" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -9740,25 +9740,25 @@
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="I2" s="45"/>
+      <c r="I2" s="39"/>
       <c r="J2" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="N2" s="42"/>
+      <c r="N2" s="44"/>
       <c r="O2" s="12" t="s">
         <v>378</v>
       </c>
@@ -9771,7 +9771,7 @@
       <c r="R2" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="S2" s="42"/>
+      <c r="S2" s="44"/>
       <c r="T2" s="8" t="s">
         <v>378</v>
       </c>
@@ -9830,7 +9830,7 @@
         <f>(I3-H3)*24</f>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="6">
         <v>302</v>
       </c>
@@ -9838,7 +9838,7 @@
         <f>SUMIF($A$3:$A$411,L3,$J$3:$J$411)</f>
         <v>7.9999999999999982</v>
       </c>
-      <c r="N3" s="42"/>
+      <c r="N3" s="44"/>
       <c r="O3" s="6">
         <v>2</v>
       </c>
@@ -9851,7 +9851,7 @@
       <c r="R3" s="6">
         <v>31</v>
       </c>
-      <c r="S3" s="42"/>
+      <c r="S3" s="44"/>
       <c r="T3" s="6">
         <f>($M3/2)*15</f>
         <v>59.999999999999986</v>
@@ -9945,7 +9945,7 @@
         <f t="shared" ref="J4:J67" si="5">(I4-H4)*24</f>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="6">
         <v>304</v>
       </c>
@@ -9953,7 +9953,7 @@
         <f>SUMIF($A$3:$A$411,L4,$J$3:$J$411)</f>
         <v>18</v>
       </c>
-      <c r="N4" s="42"/>
+      <c r="N4" s="44"/>
       <c r="O4" s="6">
         <v>2</v>
       </c>
@@ -9966,7 +9966,7 @@
       <c r="R4" s="6">
         <v>0</v>
       </c>
-      <c r="S4" s="42"/>
+      <c r="S4" s="44"/>
       <c r="T4" s="6">
         <f t="shared" ref="T4:T44" si="6">($M4/2)*15</f>
         <v>135</v>
@@ -10060,7 +10060,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K5" s="42"/>
+      <c r="K5" s="44"/>
       <c r="L5" s="6">
         <v>305</v>
       </c>
@@ -10068,7 +10068,7 @@
         <f t="shared" ref="M5:M50" si="18">SUMIF($A$3:$A$411,L5,$J$3:$J$411)</f>
         <v>8.0000000000000018</v>
       </c>
-      <c r="N5" s="42"/>
+      <c r="N5" s="44"/>
       <c r="O5" s="6">
         <v>2</v>
       </c>
@@ -10081,7 +10081,7 @@
       <c r="R5" s="6">
         <v>0</v>
       </c>
-      <c r="S5" s="42"/>
+      <c r="S5" s="44"/>
       <c r="T5" s="6">
         <f t="shared" si="6"/>
         <v>60.000000000000014</v>
@@ -10175,7 +10175,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K6" s="42"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="6">
         <v>306</v>
       </c>
@@ -10183,7 +10183,7 @@
         <f t="shared" si="18"/>
         <v>7.9999999999999991</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="6">
         <v>2</v>
       </c>
@@ -10196,7 +10196,7 @@
       <c r="R6" s="6">
         <v>37</v>
       </c>
-      <c r="S6" s="42"/>
+      <c r="S6" s="44"/>
       <c r="T6" s="6">
         <f t="shared" si="6"/>
         <v>59.999999999999993</v>
@@ -10283,7 +10283,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K7" s="42"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="6">
         <v>307</v>
       </c>
@@ -10291,7 +10291,7 @@
         <f t="shared" si="18"/>
         <v>8.0000000000000036</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="6">
         <v>2</v>
       </c>
@@ -10304,7 +10304,7 @@
       <c r="R7" s="6">
         <v>0</v>
       </c>
-      <c r="S7" s="42"/>
+      <c r="S7" s="44"/>
       <c r="T7" s="6">
         <f t="shared" si="6"/>
         <v>60.000000000000028</v>
@@ -10394,7 +10394,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K8" s="42"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="6">
         <v>308</v>
       </c>
@@ -10402,7 +10402,7 @@
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="44"/>
       <c r="O8" s="6">
         <v>2</v>
       </c>
@@ -10415,7 +10415,7 @@
       <c r="R8" s="6">
         <v>37</v>
       </c>
-      <c r="S8" s="42"/>
+      <c r="S8" s="44"/>
       <c r="T8" s="6">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -10502,7 +10502,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K9" s="42"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="6">
         <v>309</v>
       </c>
@@ -10510,7 +10510,7 @@
         <f t="shared" si="18"/>
         <v>12.000000000000004</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="6">
         <v>2</v>
       </c>
@@ -10523,7 +10523,7 @@
       <c r="R9" s="6">
         <v>0</v>
       </c>
-      <c r="S9" s="42"/>
+      <c r="S9" s="44"/>
       <c r="T9" s="6">
         <f t="shared" si="6"/>
         <v>90.000000000000028</v>
@@ -10613,7 +10613,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K10" s="42"/>
+      <c r="K10" s="44"/>
       <c r="L10" s="6">
         <v>314</v>
       </c>
@@ -10621,7 +10621,7 @@
         <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="N10" s="42"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="6">
         <v>2</v>
       </c>
@@ -10634,7 +10634,7 @@
       <c r="R10" s="6">
         <v>37</v>
       </c>
-      <c r="S10" s="42"/>
+      <c r="S10" s="44"/>
       <c r="T10" s="6">
         <f t="shared" si="6"/>
         <v>225</v>
@@ -10724,7 +10724,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K11" s="42"/>
+      <c r="K11" s="44"/>
       <c r="L11" s="6">
         <v>316</v>
       </c>
@@ -10732,7 +10732,7 @@
         <f t="shared" si="18"/>
         <v>44</v>
       </c>
-      <c r="N11" s="42"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="6">
         <v>2</v>
       </c>
@@ -10745,7 +10745,7 @@
       <c r="R11" s="6">
         <v>38</v>
       </c>
-      <c r="S11" s="42"/>
+      <c r="S11" s="44"/>
       <c r="T11" s="6">
         <f t="shared" si="6"/>
         <v>330</v>
@@ -10839,7 +10839,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K12" s="42"/>
+      <c r="K12" s="44"/>
       <c r="L12" s="6">
         <v>318</v>
       </c>
@@ -10847,7 +10847,7 @@
         <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="N12" s="42"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="6">
         <v>2</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="R12" s="6">
         <v>33</v>
       </c>
-      <c r="S12" s="42"/>
+      <c r="S12" s="44"/>
       <c r="T12" s="6">
         <f t="shared" si="6"/>
         <v>180</v>
@@ -10951,7 +10951,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K13" s="42"/>
+      <c r="K13" s="44"/>
       <c r="L13" s="6">
         <v>409</v>
       </c>
@@ -10959,7 +10959,7 @@
         <f t="shared" si="18"/>
         <v>8.0000000000000018</v>
       </c>
-      <c r="N13" s="42"/>
+      <c r="N13" s="44"/>
       <c r="O13" s="6">
         <v>2</v>
       </c>
@@ -10972,7 +10972,7 @@
       <c r="R13" s="6">
         <v>0</v>
       </c>
-      <c r="S13" s="42"/>
+      <c r="S13" s="44"/>
       <c r="T13" s="6">
         <f t="shared" si="6"/>
         <v>60.000000000000014</v>
@@ -11062,7 +11062,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K14" s="42"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="6">
         <v>415</v>
       </c>
@@ -11070,7 +11070,7 @@
         <f t="shared" si="18"/>
         <v>3.9999999999999964</v>
       </c>
-      <c r="N14" s="42"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="6">
         <v>2</v>
       </c>
@@ -11083,7 +11083,7 @@
       <c r="R14" s="6">
         <v>0</v>
       </c>
-      <c r="S14" s="42"/>
+      <c r="S14" s="44"/>
       <c r="T14" s="6">
         <f t="shared" si="6"/>
         <v>29.999999999999972</v>
@@ -11173,7 +11173,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K15" s="42"/>
+      <c r="K15" s="44"/>
       <c r="L15" s="6">
         <v>416</v>
       </c>
@@ -11181,7 +11181,7 @@
         <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="N15" s="42"/>
+      <c r="N15" s="44"/>
       <c r="O15" s="6">
         <v>2</v>
       </c>
@@ -11194,7 +11194,7 @@
       <c r="R15" s="6">
         <v>0</v>
       </c>
-      <c r="S15" s="42"/>
+      <c r="S15" s="44"/>
       <c r="T15" s="6">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -11284,7 +11284,7 @@
         <f t="shared" si="5"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="K16" s="42"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="6">
         <v>417</v>
       </c>
@@ -11292,7 +11292,7 @@
         <f t="shared" si="18"/>
         <v>7.9999999999999991</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="6">
         <v>2</v>
       </c>
@@ -11305,7 +11305,7 @@
       <c r="R16" s="6">
         <v>0</v>
       </c>
-      <c r="S16" s="42"/>
+      <c r="S16" s="44"/>
       <c r="T16" s="6">
         <f t="shared" si="6"/>
         <v>59.999999999999993</v>
@@ -11402,7 +11402,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K17" s="42"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="6">
         <v>418</v>
       </c>
@@ -11410,7 +11410,7 @@
         <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="N17" s="42"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="6">
         <v>2</v>
       </c>
@@ -11423,7 +11423,7 @@
       <c r="R17" s="6">
         <v>0</v>
       </c>
-      <c r="S17" s="42"/>
+      <c r="S17" s="44"/>
       <c r="T17" s="6">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -11513,7 +11513,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K18" s="42"/>
+      <c r="K18" s="44"/>
       <c r="L18" s="6">
         <v>505</v>
       </c>
@@ -11521,7 +11521,7 @@
         <f t="shared" si="18"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="N18" s="42"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="6">
         <v>2</v>
       </c>
@@ -11534,7 +11534,7 @@
       <c r="R18" s="6">
         <v>29</v>
       </c>
-      <c r="S18" s="42"/>
+      <c r="S18" s="44"/>
       <c r="T18" s="6">
         <f t="shared" si="6"/>
         <v>30.000000000000014</v>
@@ -11624,7 +11624,7 @@
         <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K19" s="42"/>
+      <c r="K19" s="44"/>
       <c r="L19" s="6">
         <v>515</v>
       </c>
@@ -11632,7 +11632,7 @@
         <f t="shared" si="18"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="N19" s="42"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="6">
         <v>2</v>
       </c>
@@ -11645,7 +11645,7 @@
       <c r="R19" s="6">
         <v>30</v>
       </c>
-      <c r="S19" s="42"/>
+      <c r="S19" s="44"/>
       <c r="T19" s="6">
         <f t="shared" si="6"/>
         <v>29.999999999999993</v>
@@ -11735,7 +11735,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K20" s="42"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="6">
         <v>518</v>
       </c>
@@ -11743,7 +11743,7 @@
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="N20" s="42"/>
+      <c r="N20" s="44"/>
       <c r="O20" s="6">
         <v>2</v>
       </c>
@@ -11756,7 +11756,7 @@
       <c r="R20" s="6">
         <v>0</v>
       </c>
-      <c r="S20" s="42"/>
+      <c r="S20" s="44"/>
       <c r="T20" s="6">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -11846,7 +11846,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K21" s="42"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="6">
         <v>602</v>
       </c>
@@ -11854,7 +11854,7 @@
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="6">
         <v>2</v>
       </c>
@@ -11867,7 +11867,7 @@
       <c r="R21" s="6">
         <v>32</v>
       </c>
-      <c r="S21" s="42"/>
+      <c r="S21" s="44"/>
       <c r="T21" s="6">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -11957,7 +11957,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="44"/>
       <c r="L22" s="6">
         <v>604</v>
       </c>
@@ -11965,7 +11965,7 @@
         <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="N22" s="42"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="6">
         <v>2</v>
       </c>
@@ -11978,7 +11978,7 @@
       <c r="R22" s="6">
         <v>28</v>
       </c>
-      <c r="S22" s="42"/>
+      <c r="S22" s="44"/>
       <c r="T22" s="6">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -12068,7 +12068,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K23" s="42"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="6">
         <v>606</v>
       </c>
@@ -12076,7 +12076,7 @@
         <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="N23" s="42"/>
+      <c r="N23" s="44"/>
       <c r="O23" s="6">
         <v>2</v>
       </c>
@@ -12089,7 +12089,7 @@
       <c r="R23" s="6">
         <v>30</v>
       </c>
-      <c r="S23" s="42"/>
+      <c r="S23" s="44"/>
       <c r="T23" s="6">
         <f t="shared" si="6"/>
         <v>180</v>
@@ -12179,7 +12179,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K24" s="42"/>
+      <c r="K24" s="44"/>
       <c r="L24" s="6">
         <v>608</v>
       </c>
@@ -12187,7 +12187,7 @@
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="N24" s="42"/>
+      <c r="N24" s="44"/>
       <c r="O24" s="6">
         <v>2</v>
       </c>
@@ -12200,7 +12200,7 @@
       <c r="R24" s="6">
         <v>30</v>
       </c>
-      <c r="S24" s="42"/>
+      <c r="S24" s="44"/>
       <c r="T24" s="6">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -12290,7 +12290,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K25" s="42"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="6">
         <v>613</v>
       </c>
@@ -12298,7 +12298,7 @@
         <f t="shared" si="18"/>
         <v>26</v>
       </c>
-      <c r="N25" s="42"/>
+      <c r="N25" s="44"/>
       <c r="O25" s="6">
         <v>2</v>
       </c>
@@ -12311,7 +12311,7 @@
       <c r="R25" s="6">
         <v>0</v>
       </c>
-      <c r="S25" s="42"/>
+      <c r="S25" s="44"/>
       <c r="T25" s="6">
         <f t="shared" si="6"/>
         <v>195</v>
@@ -12401,7 +12401,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K26" s="42"/>
+      <c r="K26" s="44"/>
       <c r="L26" s="6">
         <v>801</v>
       </c>
@@ -12409,7 +12409,7 @@
         <f t="shared" si="18"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="N26" s="42"/>
+      <c r="N26" s="44"/>
       <c r="O26" s="6">
         <v>1</v>
       </c>
@@ -12422,7 +12422,7 @@
       <c r="R26" s="6">
         <v>9</v>
       </c>
-      <c r="S26" s="42"/>
+      <c r="S26" s="44"/>
       <c r="T26" s="6">
         <f t="shared" si="6"/>
         <v>30.000000000000014</v>
@@ -12512,7 +12512,7 @@
         <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K27" s="42"/>
+      <c r="K27" s="44"/>
       <c r="L27" s="6">
         <v>802</v>
       </c>
@@ -12520,7 +12520,7 @@
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="N27" s="42"/>
+      <c r="N27" s="44"/>
       <c r="O27" s="6">
         <v>2</v>
       </c>
@@ -12533,7 +12533,7 @@
       <c r="R27" s="6">
         <v>30</v>
       </c>
-      <c r="S27" s="42"/>
+      <c r="S27" s="44"/>
       <c r="T27" s="6">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -12623,7 +12623,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K28" s="42"/>
+      <c r="K28" s="44"/>
       <c r="L28" s="6">
         <v>805</v>
       </c>
@@ -12631,7 +12631,7 @@
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="N28" s="42"/>
+      <c r="N28" s="44"/>
       <c r="O28" s="6">
         <v>2</v>
       </c>
@@ -12644,7 +12644,7 @@
       <c r="R28" s="6">
         <v>7</v>
       </c>
-      <c r="S28" s="42"/>
+      <c r="S28" s="44"/>
       <c r="T28" s="6">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -12734,7 +12734,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K29" s="42"/>
+      <c r="K29" s="44"/>
       <c r="L29" s="6">
         <v>809</v>
       </c>
@@ -12742,7 +12742,7 @@
         <f t="shared" si="18"/>
         <v>42.333333333333329</v>
       </c>
-      <c r="N29" s="42"/>
+      <c r="N29" s="44"/>
       <c r="O29" s="6">
         <v>2</v>
       </c>
@@ -12755,7 +12755,7 @@
       <c r="R29" s="6">
         <v>0</v>
       </c>
-      <c r="S29" s="42"/>
+      <c r="S29" s="44"/>
       <c r="T29" s="6">
         <f t="shared" si="6"/>
         <v>317.49999999999994</v>
@@ -12845,7 +12845,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K30" s="42"/>
+      <c r="K30" s="44"/>
       <c r="L30" s="6">
         <v>811</v>
       </c>
@@ -12853,7 +12853,7 @@
         <f t="shared" si="18"/>
         <v>15.999999999999998</v>
       </c>
-      <c r="N30" s="42"/>
+      <c r="N30" s="44"/>
       <c r="O30" s="6">
         <v>2</v>
       </c>
@@ -12866,7 +12866,7 @@
       <c r="R30" s="6">
         <v>0</v>
       </c>
-      <c r="S30" s="42"/>
+      <c r="S30" s="44"/>
       <c r="T30" s="6">
         <f t="shared" si="6"/>
         <v>119.99999999999999</v>
@@ -12956,7 +12956,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K31" s="42"/>
+      <c r="K31" s="44"/>
       <c r="L31" s="6">
         <v>813</v>
       </c>
@@ -12964,7 +12964,7 @@
         <f t="shared" si="18"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="N31" s="42"/>
+      <c r="N31" s="44"/>
       <c r="O31" s="6">
         <v>2</v>
       </c>
@@ -12977,7 +12977,7 @@
       <c r="R31" s="6">
         <v>0</v>
       </c>
-      <c r="S31" s="42"/>
+      <c r="S31" s="44"/>
       <c r="T31" s="6">
         <f t="shared" si="6"/>
         <v>310</v>
@@ -13067,7 +13067,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K32" s="42"/>
+      <c r="K32" s="44"/>
       <c r="L32" s="6">
         <v>815</v>
       </c>
@@ -13075,7 +13075,7 @@
         <f t="shared" si="18"/>
         <v>36</v>
       </c>
-      <c r="N32" s="42"/>
+      <c r="N32" s="44"/>
       <c r="O32" s="6">
         <v>2</v>
       </c>
@@ -13088,7 +13088,7 @@
       <c r="R32" s="6">
         <v>0</v>
       </c>
-      <c r="S32" s="42"/>
+      <c r="S32" s="44"/>
       <c r="T32" s="6">
         <f t="shared" si="6"/>
         <v>270</v>
@@ -13178,7 +13178,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K33" s="42"/>
+      <c r="K33" s="44"/>
       <c r="L33" s="6">
         <v>816</v>
       </c>
@@ -13186,7 +13186,7 @@
         <f t="shared" si="18"/>
         <v>29.999999999999993</v>
       </c>
-      <c r="N33" s="42"/>
+      <c r="N33" s="44"/>
       <c r="O33" s="6">
         <v>2</v>
       </c>
@@ -13199,7 +13199,7 @@
       <c r="R33" s="6">
         <v>0</v>
       </c>
-      <c r="S33" s="42"/>
+      <c r="S33" s="44"/>
       <c r="T33" s="6">
         <f t="shared" si="6"/>
         <v>224.99999999999994</v>
@@ -13289,7 +13289,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K34" s="42"/>
+      <c r="K34" s="44"/>
       <c r="L34" s="6">
         <v>817</v>
       </c>
@@ -13297,7 +13297,7 @@
         <f t="shared" si="18"/>
         <v>23.999999999999993</v>
       </c>
-      <c r="N34" s="42"/>
+      <c r="N34" s="44"/>
       <c r="O34" s="6">
         <v>2</v>
       </c>
@@ -13310,7 +13310,7 @@
       <c r="R34" s="6">
         <v>0</v>
       </c>
-      <c r="S34" s="42"/>
+      <c r="S34" s="44"/>
       <c r="T34" s="6">
         <f t="shared" si="6"/>
         <v>179.99999999999994</v>
@@ -13400,7 +13400,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K35" s="42"/>
+      <c r="K35" s="44"/>
       <c r="L35" s="6">
         <v>818</v>
       </c>
@@ -13408,7 +13408,7 @@
         <f t="shared" si="18"/>
         <v>19.999999999999993</v>
       </c>
-      <c r="N35" s="42"/>
+      <c r="N35" s="44"/>
       <c r="O35" s="6">
         <v>2</v>
       </c>
@@ -13421,7 +13421,7 @@
       <c r="R35" s="6">
         <v>0</v>
       </c>
-      <c r="S35" s="42"/>
+      <c r="S35" s="44"/>
       <c r="T35" s="6">
         <f t="shared" si="6"/>
         <v>149.99999999999994</v>
@@ -13511,7 +13511,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K36" s="42"/>
+      <c r="K36" s="44"/>
       <c r="L36" s="6">
         <v>1013</v>
       </c>
@@ -13519,7 +13519,7 @@
         <f t="shared" si="18"/>
         <v>18</v>
       </c>
-      <c r="N36" s="42"/>
+      <c r="N36" s="44"/>
       <c r="O36" s="6">
         <v>2</v>
       </c>
@@ -13532,7 +13532,7 @@
       <c r="R36" s="6">
         <v>0</v>
       </c>
-      <c r="S36" s="42"/>
+      <c r="S36" s="44"/>
       <c r="T36" s="6">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -13622,7 +13622,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K37" s="42"/>
+      <c r="K37" s="44"/>
       <c r="L37" s="6">
         <v>1014</v>
       </c>
@@ -13630,7 +13630,7 @@
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="N37" s="42"/>
+      <c r="N37" s="44"/>
       <c r="O37" s="6">
         <v>2</v>
       </c>
@@ -13643,7 +13643,7 @@
       <c r="R37" s="6">
         <v>0</v>
       </c>
-      <c r="S37" s="42"/>
+      <c r="S37" s="44"/>
       <c r="T37" s="6">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -13733,7 +13733,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K38" s="42"/>
+      <c r="K38" s="44"/>
       <c r="L38" s="6">
         <v>1015</v>
       </c>
@@ -13741,7 +13741,7 @@
         <f t="shared" si="18"/>
         <v>27.999999999999993</v>
       </c>
-      <c r="N38" s="42"/>
+      <c r="N38" s="44"/>
       <c r="O38" s="6">
         <v>2</v>
       </c>
@@ -13754,7 +13754,7 @@
       <c r="R38" s="6">
         <v>0</v>
       </c>
-      <c r="S38" s="42"/>
+      <c r="S38" s="44"/>
       <c r="T38" s="6">
         <f t="shared" si="6"/>
         <v>209.99999999999994</v>
@@ -13844,7 +13844,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K39" s="42"/>
+      <c r="K39" s="44"/>
       <c r="L39" s="6">
         <v>1016</v>
       </c>
@@ -13852,7 +13852,7 @@
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="N39" s="42"/>
+      <c r="N39" s="44"/>
       <c r="O39" s="6">
         <v>2</v>
       </c>
@@ -13865,7 +13865,7 @@
       <c r="R39" s="6">
         <v>0</v>
       </c>
-      <c r="S39" s="42"/>
+      <c r="S39" s="44"/>
       <c r="T39" s="6">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -13955,7 +13955,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K40" s="42"/>
+      <c r="K40" s="44"/>
       <c r="L40" s="6">
         <v>1017</v>
       </c>
@@ -13963,7 +13963,7 @@
         <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="N40" s="42"/>
+      <c r="N40" s="44"/>
       <c r="O40" s="6">
         <v>2</v>
       </c>
@@ -13976,7 +13976,7 @@
       <c r="R40" s="6">
         <v>0</v>
       </c>
-      <c r="S40" s="42"/>
+      <c r="S40" s="44"/>
       <c r="T40" s="6">
         <f t="shared" si="6"/>
         <v>225</v>
@@ -14066,7 +14066,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K41" s="42"/>
+      <c r="K41" s="44"/>
       <c r="L41" s="6">
         <v>1018</v>
       </c>
@@ -14074,7 +14074,7 @@
         <f t="shared" si="18"/>
         <v>16.000000000000004</v>
       </c>
-      <c r="N41" s="42"/>
+      <c r="N41" s="44"/>
       <c r="O41" s="6">
         <v>2</v>
       </c>
@@ -14087,7 +14087,7 @@
       <c r="R41" s="6">
         <v>0</v>
       </c>
-      <c r="S41" s="42"/>
+      <c r="S41" s="44"/>
       <c r="T41" s="6">
         <f t="shared" si="6"/>
         <v>120.00000000000003</v>
@@ -14177,7 +14177,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K42" s="42"/>
+      <c r="K42" s="44"/>
       <c r="L42" s="6">
         <v>1114</v>
       </c>
@@ -14185,7 +14185,7 @@
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="N42" s="42"/>
+      <c r="N42" s="44"/>
       <c r="O42" s="6">
         <v>3</v>
       </c>
@@ -14198,7 +14198,7 @@
       <c r="R42" s="6">
         <v>0</v>
       </c>
-      <c r="S42" s="42"/>
+      <c r="S42" s="44"/>
       <c r="T42" s="6">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -14288,7 +14288,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K43" s="42"/>
+      <c r="K43" s="44"/>
       <c r="L43" s="6">
         <v>1115</v>
       </c>
@@ -14296,7 +14296,7 @@
         <f t="shared" si="18"/>
         <v>16.000000000000004</v>
       </c>
-      <c r="N43" s="42"/>
+      <c r="N43" s="44"/>
       <c r="O43" s="6">
         <v>2</v>
       </c>
@@ -14309,7 +14309,7 @@
       <c r="R43" s="6">
         <v>0</v>
       </c>
-      <c r="S43" s="42"/>
+      <c r="S43" s="44"/>
       <c r="T43" s="6">
         <f t="shared" si="6"/>
         <v>120.00000000000003</v>
@@ -14399,7 +14399,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K44" s="42"/>
+      <c r="K44" s="44"/>
       <c r="L44" s="6">
         <v>1117</v>
       </c>
@@ -14407,7 +14407,7 @@
         <f t="shared" si="18"/>
         <v>19.999999999999996</v>
       </c>
-      <c r="N44" s="42"/>
+      <c r="N44" s="44"/>
       <c r="O44" s="6">
         <v>2</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="R44" s="6">
         <v>0</v>
       </c>
-      <c r="S44" s="42"/>
+      <c r="S44" s="44"/>
       <c r="T44" s="6">
         <f t="shared" si="6"/>
         <v>149.99999999999997</v>
@@ -14510,7 +14510,7 @@
         <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K45" s="42"/>
+      <c r="K45" s="44"/>
       <c r="L45" s="6" t="s">
         <v>199</v>
       </c>
@@ -14518,8 +14518,8 @@
         <f t="shared" si="18"/>
         <v>10.000000000000002</v>
       </c>
-      <c r="N45" s="42"/>
-      <c r="S45" s="42"/>
+      <c r="N45" s="44"/>
+      <c r="S45" s="44"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
@@ -14581,7 +14581,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K46" s="42"/>
+      <c r="K46" s="44"/>
       <c r="L46" s="6" t="s">
         <v>235</v>
       </c>
@@ -14589,8 +14589,8 @@
         <f t="shared" si="18"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="N46" s="42"/>
-      <c r="S46" s="42"/>
+      <c r="N46" s="44"/>
+      <c r="S46" s="44"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
@@ -14652,7 +14652,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K47" s="42"/>
+      <c r="K47" s="44"/>
       <c r="L47" s="6" t="s">
         <v>139</v>
       </c>
@@ -14660,8 +14660,8 @@
         <f t="shared" si="18"/>
         <v>18.000000000000004</v>
       </c>
-      <c r="N47" s="42"/>
-      <c r="S47" s="42"/>
+      <c r="N47" s="44"/>
+      <c r="S47" s="44"/>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
@@ -14723,7 +14723,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K48" s="42"/>
+      <c r="K48" s="44"/>
       <c r="L48" s="6" t="s">
         <v>190</v>
       </c>
@@ -14731,8 +14731,8 @@
         <f t="shared" si="18"/>
         <v>38</v>
       </c>
-      <c r="N48" s="42"/>
-      <c r="S48" s="42"/>
+      <c r="N48" s="44"/>
+      <c r="S48" s="44"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
@@ -14794,7 +14794,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K49" s="42"/>
+      <c r="K49" s="44"/>
       <c r="L49" s="6" t="s">
         <v>213</v>
       </c>
@@ -14802,8 +14802,8 @@
         <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="N49" s="42"/>
-      <c r="S49" s="42"/>
+      <c r="N49" s="44"/>
+      <c r="S49" s="44"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
@@ -14865,7 +14865,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K50" s="42"/>
+      <c r="K50" s="44"/>
       <c r="L50" s="6" t="s">
         <v>231</v>
       </c>
@@ -14873,8 +14873,8 @@
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="N50" s="42"/>
-      <c r="S50" s="42"/>
+      <c r="N50" s="44"/>
+      <c r="S50" s="44"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
@@ -14936,10 +14936,10 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K51" s="42"/>
+      <c r="K51" s="44"/>
       <c r="L51" s="6"/>
-      <c r="N51" s="42"/>
-      <c r="S51" s="42"/>
+      <c r="N51" s="44"/>
+      <c r="S51" s="44"/>
       <c r="AD51" s="15">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14993,10 +14993,10 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K52" s="42"/>
+      <c r="K52" s="44"/>
       <c r="L52" s="6"/>
-      <c r="N52" s="42"/>
-      <c r="S52" s="42"/>
+      <c r="N52" s="44"/>
+      <c r="S52" s="44"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
@@ -15034,10 +15034,10 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K53" s="42"/>
+      <c r="K53" s="44"/>
       <c r="L53" s="6"/>
-      <c r="N53" s="42"/>
-      <c r="S53" s="42"/>
+      <c r="N53" s="44"/>
+      <c r="S53" s="44"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
@@ -15075,9 +15075,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="S54" s="42"/>
+      <c r="K54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="S54" s="44"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
@@ -15115,9 +15115,9 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="S55" s="42"/>
+      <c r="K55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="S55" s="44"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
@@ -15155,9 +15155,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="S56" s="42"/>
+      <c r="K56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="S56" s="44"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
@@ -15195,9 +15195,9 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="S57" s="42"/>
+      <c r="K57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="S57" s="44"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
@@ -15235,9 +15235,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="S58" s="42"/>
+      <c r="K58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
@@ -15275,9 +15275,9 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="S59" s="42"/>
+      <c r="K59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="S59" s="44"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
@@ -15315,9 +15315,9 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="S60" s="42"/>
+      <c r="K60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="S60" s="44"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
@@ -15355,9 +15355,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="S61" s="42"/>
+      <c r="K61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="S61" s="44"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
@@ -15395,9 +15395,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="S62" s="42"/>
+      <c r="K62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="S62" s="44"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
@@ -15435,9 +15435,9 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="S63" s="42"/>
+      <c r="K63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="S63" s="44"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
@@ -15475,9 +15475,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K64" s="42"/>
-      <c r="N64" s="42"/>
-      <c r="S64" s="42"/>
+      <c r="K64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="S64" s="44"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
@@ -15515,9 +15515,9 @@
         <f t="shared" si="5"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="K65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="S65" s="42"/>
+      <c r="K65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="S65" s="44"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
@@ -15555,9 +15555,9 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="S66" s="42"/>
+      <c r="K66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="S66" s="44"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
@@ -15595,9 +15595,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="S67" s="42"/>
+      <c r="K67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="S67" s="44"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
@@ -15635,9 +15635,9 @@
         <f t="shared" ref="J68:J131" si="22">(I68-H68)*24</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K68" s="42"/>
-      <c r="N68" s="42"/>
-      <c r="S68" s="42"/>
+      <c r="K68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="S68" s="44"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
@@ -15675,9 +15675,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="S69" s="42"/>
+      <c r="K69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="S69" s="44"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
@@ -15715,9 +15715,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K70" s="42"/>
-      <c r="N70" s="42"/>
-      <c r="S70" s="42"/>
+      <c r="K70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="S70" s="44"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
@@ -15755,9 +15755,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K71" s="42"/>
-      <c r="N71" s="42"/>
-      <c r="S71" s="42"/>
+      <c r="K71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="S71" s="44"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
@@ -15795,9 +15795,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K72" s="42"/>
-      <c r="N72" s="42"/>
-      <c r="S72" s="42"/>
+      <c r="K72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="S72" s="44"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
@@ -15835,9 +15835,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K73" s="42"/>
-      <c r="N73" s="42"/>
-      <c r="S73" s="42"/>
+      <c r="K73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="S73" s="44"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
@@ -15875,9 +15875,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="S74" s="42"/>
+      <c r="K74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="S74" s="44"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
@@ -15915,9 +15915,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K75" s="42"/>
-      <c r="N75" s="42"/>
-      <c r="S75" s="42"/>
+      <c r="K75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="S75" s="44"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
@@ -15955,9 +15955,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K76" s="42"/>
-      <c r="N76" s="42"/>
-      <c r="S76" s="42"/>
+      <c r="K76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
@@ -15995,9 +15995,9 @@
         <f t="shared" si="22"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="K77" s="42"/>
-      <c r="N77" s="42"/>
-      <c r="S77" s="42"/>
+      <c r="K77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="S77" s="44"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
@@ -16035,9 +16035,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K78" s="42"/>
-      <c r="N78" s="42"/>
-      <c r="S78" s="42"/>
+      <c r="K78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="S78" s="44"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
@@ -16075,9 +16075,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K79" s="42"/>
-      <c r="N79" s="42"/>
-      <c r="S79" s="42"/>
+      <c r="K79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="S79" s="44"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
@@ -16115,9 +16115,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K80" s="42"/>
-      <c r="N80" s="42"/>
-      <c r="S80" s="42"/>
+      <c r="K80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="S80" s="44"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
@@ -16155,9 +16155,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K81" s="42"/>
-      <c r="N81" s="42"/>
-      <c r="S81" s="42"/>
+      <c r="K81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="S81" s="44"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
@@ -16195,9 +16195,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K82" s="42"/>
-      <c r="N82" s="42"/>
-      <c r="S82" s="42"/>
+      <c r="K82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="S82" s="44"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
@@ -16235,9 +16235,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K83" s="42"/>
-      <c r="N83" s="42"/>
-      <c r="S83" s="42"/>
+      <c r="K83" s="44"/>
+      <c r="N83" s="44"/>
+      <c r="S83" s="44"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
@@ -16275,9 +16275,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K84" s="42"/>
-      <c r="N84" s="42"/>
-      <c r="S84" s="42"/>
+      <c r="K84" s="44"/>
+      <c r="N84" s="44"/>
+      <c r="S84" s="44"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
@@ -16315,9 +16315,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K85" s="42"/>
-      <c r="N85" s="42"/>
-      <c r="S85" s="42"/>
+      <c r="K85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="S85" s="44"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
@@ -16355,9 +16355,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K86" s="42"/>
-      <c r="N86" s="42"/>
-      <c r="S86" s="42"/>
+      <c r="K86" s="44"/>
+      <c r="N86" s="44"/>
+      <c r="S86" s="44"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
@@ -16395,9 +16395,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K87" s="42"/>
-      <c r="N87" s="42"/>
-      <c r="S87" s="42"/>
+      <c r="K87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="S87" s="44"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
@@ -16435,9 +16435,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K88" s="42"/>
-      <c r="N88" s="42"/>
-      <c r="S88" s="42"/>
+      <c r="K88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="S88" s="44"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
@@ -16475,9 +16475,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K89" s="42"/>
-      <c r="N89" s="42"/>
-      <c r="S89" s="42"/>
+      <c r="K89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="S89" s="44"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
@@ -16515,9 +16515,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K90" s="42"/>
-      <c r="N90" s="42"/>
-      <c r="S90" s="42"/>
+      <c r="K90" s="44"/>
+      <c r="N90" s="44"/>
+      <c r="S90" s="44"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
@@ -16555,9 +16555,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K91" s="42"/>
-      <c r="N91" s="42"/>
-      <c r="S91" s="42"/>
+      <c r="K91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="S91" s="44"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
@@ -16595,9 +16595,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K92" s="42"/>
-      <c r="N92" s="42"/>
-      <c r="S92" s="42"/>
+      <c r="K92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="S92" s="44"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
@@ -16635,9 +16635,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K93" s="42"/>
-      <c r="N93" s="42"/>
-      <c r="S93" s="42"/>
+      <c r="K93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="S93" s="44"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
@@ -16675,9 +16675,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K94" s="42"/>
-      <c r="N94" s="42"/>
-      <c r="S94" s="42"/>
+      <c r="K94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="S94" s="44"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
@@ -16715,9 +16715,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K95" s="42"/>
-      <c r="N95" s="42"/>
-      <c r="S95" s="42"/>
+      <c r="K95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="S95" s="44"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
@@ -16755,9 +16755,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K96" s="42"/>
-      <c r="N96" s="42"/>
-      <c r="S96" s="42"/>
+      <c r="K96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
@@ -16795,9 +16795,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K97" s="42"/>
-      <c r="N97" s="42"/>
-      <c r="S97" s="42"/>
+      <c r="K97" s="44"/>
+      <c r="N97" s="44"/>
+      <c r="S97" s="44"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
@@ -16835,9 +16835,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K98" s="42"/>
-      <c r="N98" s="42"/>
-      <c r="S98" s="42"/>
+      <c r="K98" s="44"/>
+      <c r="N98" s="44"/>
+      <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
@@ -16875,9 +16875,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K99" s="42"/>
-      <c r="N99" s="42"/>
-      <c r="S99" s="42"/>
+      <c r="K99" s="44"/>
+      <c r="N99" s="44"/>
+      <c r="S99" s="44"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
@@ -16915,9 +16915,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K100" s="42"/>
-      <c r="N100" s="42"/>
-      <c r="S100" s="42"/>
+      <c r="K100" s="44"/>
+      <c r="N100" s="44"/>
+      <c r="S100" s="44"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
@@ -16955,9 +16955,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K101" s="42"/>
-      <c r="N101" s="42"/>
-      <c r="S101" s="42"/>
+      <c r="K101" s="44"/>
+      <c r="N101" s="44"/>
+      <c r="S101" s="44"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
@@ -16995,9 +16995,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K102" s="42"/>
-      <c r="N102" s="42"/>
-      <c r="S102" s="42"/>
+      <c r="K102" s="44"/>
+      <c r="N102" s="44"/>
+      <c r="S102" s="44"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
@@ -17035,9 +17035,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K103" s="42"/>
-      <c r="N103" s="42"/>
-      <c r="S103" s="42"/>
+      <c r="K103" s="44"/>
+      <c r="N103" s="44"/>
+      <c r="S103" s="44"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
@@ -17075,9 +17075,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K104" s="42"/>
-      <c r="N104" s="42"/>
-      <c r="S104" s="42"/>
+      <c r="K104" s="44"/>
+      <c r="N104" s="44"/>
+      <c r="S104" s="44"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
@@ -17115,9 +17115,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K105" s="42"/>
-      <c r="N105" s="42"/>
-      <c r="S105" s="42"/>
+      <c r="K105" s="44"/>
+      <c r="N105" s="44"/>
+      <c r="S105" s="44"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
@@ -17155,9 +17155,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K106" s="42"/>
-      <c r="N106" s="42"/>
-      <c r="S106" s="42"/>
+      <c r="K106" s="44"/>
+      <c r="N106" s="44"/>
+      <c r="S106" s="44"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
@@ -17195,9 +17195,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K107" s="42"/>
-      <c r="N107" s="42"/>
-      <c r="S107" s="42"/>
+      <c r="K107" s="44"/>
+      <c r="N107" s="44"/>
+      <c r="S107" s="44"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
@@ -17235,9 +17235,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K108" s="42"/>
-      <c r="N108" s="42"/>
-      <c r="S108" s="42"/>
+      <c r="K108" s="44"/>
+      <c r="N108" s="44"/>
+      <c r="S108" s="44"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
@@ -17275,9 +17275,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K109" s="42"/>
-      <c r="N109" s="42"/>
-      <c r="S109" s="42"/>
+      <c r="K109" s="44"/>
+      <c r="N109" s="44"/>
+      <c r="S109" s="44"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
@@ -17315,9 +17315,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K110" s="42"/>
-      <c r="N110" s="42"/>
-      <c r="S110" s="42"/>
+      <c r="K110" s="44"/>
+      <c r="N110" s="44"/>
+      <c r="S110" s="44"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
@@ -17355,9 +17355,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K111" s="42"/>
-      <c r="N111" s="42"/>
-      <c r="S111" s="42"/>
+      <c r="K111" s="44"/>
+      <c r="N111" s="44"/>
+      <c r="S111" s="44"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
@@ -17395,9 +17395,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K112" s="42"/>
-      <c r="N112" s="42"/>
-      <c r="S112" s="42"/>
+      <c r="K112" s="44"/>
+      <c r="N112" s="44"/>
+      <c r="S112" s="44"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
@@ -17435,9 +17435,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K113" s="42"/>
-      <c r="N113" s="42"/>
-      <c r="S113" s="42"/>
+      <c r="K113" s="44"/>
+      <c r="N113" s="44"/>
+      <c r="S113" s="44"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
@@ -17475,9 +17475,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K114" s="42"/>
-      <c r="N114" s="42"/>
-      <c r="S114" s="42"/>
+      <c r="K114" s="44"/>
+      <c r="N114" s="44"/>
+      <c r="S114" s="44"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
@@ -17515,9 +17515,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K115" s="42"/>
-      <c r="N115" s="42"/>
-      <c r="S115" s="42"/>
+      <c r="K115" s="44"/>
+      <c r="N115" s="44"/>
+      <c r="S115" s="44"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
@@ -17555,9 +17555,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K116" s="42"/>
-      <c r="N116" s="42"/>
-      <c r="S116" s="42"/>
+      <c r="K116" s="44"/>
+      <c r="N116" s="44"/>
+      <c r="S116" s="44"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
@@ -17595,9 +17595,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K117" s="42"/>
-      <c r="N117" s="42"/>
-      <c r="S117" s="42"/>
+      <c r="K117" s="44"/>
+      <c r="N117" s="44"/>
+      <c r="S117" s="44"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
@@ -17635,9 +17635,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K118" s="42"/>
-      <c r="N118" s="42"/>
-      <c r="S118" s="42"/>
+      <c r="K118" s="44"/>
+      <c r="N118" s="44"/>
+      <c r="S118" s="44"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
@@ -17675,9 +17675,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K119" s="42"/>
-      <c r="N119" s="42"/>
-      <c r="S119" s="42"/>
+      <c r="K119" s="44"/>
+      <c r="N119" s="44"/>
+      <c r="S119" s="44"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
@@ -17715,9 +17715,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K120" s="42"/>
-      <c r="N120" s="42"/>
-      <c r="S120" s="42"/>
+      <c r="K120" s="44"/>
+      <c r="N120" s="44"/>
+      <c r="S120" s="44"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
@@ -17755,9 +17755,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K121" s="42"/>
-      <c r="N121" s="42"/>
-      <c r="S121" s="42"/>
+      <c r="K121" s="44"/>
+      <c r="N121" s="44"/>
+      <c r="S121" s="44"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
@@ -17795,9 +17795,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K122" s="42"/>
-      <c r="N122" s="42"/>
-      <c r="S122" s="42"/>
+      <c r="K122" s="44"/>
+      <c r="N122" s="44"/>
+      <c r="S122" s="44"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
@@ -17835,9 +17835,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K123" s="42"/>
-      <c r="N123" s="42"/>
-      <c r="S123" s="42"/>
+      <c r="K123" s="44"/>
+      <c r="N123" s="44"/>
+      <c r="S123" s="44"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
@@ -17875,9 +17875,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K124" s="42"/>
-      <c r="N124" s="42"/>
-      <c r="S124" s="42"/>
+      <c r="K124" s="44"/>
+      <c r="N124" s="44"/>
+      <c r="S124" s="44"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
@@ -17915,9 +17915,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K125" s="42"/>
-      <c r="N125" s="42"/>
-      <c r="S125" s="42"/>
+      <c r="K125" s="44"/>
+      <c r="N125" s="44"/>
+      <c r="S125" s="44"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
@@ -17955,9 +17955,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K126" s="42"/>
-      <c r="N126" s="42"/>
-      <c r="S126" s="42"/>
+      <c r="K126" s="44"/>
+      <c r="N126" s="44"/>
+      <c r="S126" s="44"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
@@ -17995,9 +17995,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K127" s="42"/>
-      <c r="N127" s="42"/>
-      <c r="S127" s="42"/>
+      <c r="K127" s="44"/>
+      <c r="N127" s="44"/>
+      <c r="S127" s="44"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
@@ -18035,9 +18035,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K128" s="42"/>
-      <c r="N128" s="42"/>
-      <c r="S128" s="42"/>
+      <c r="K128" s="44"/>
+      <c r="N128" s="44"/>
+      <c r="S128" s="44"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
@@ -18075,9 +18075,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K129" s="42"/>
-      <c r="N129" s="42"/>
-      <c r="S129" s="42"/>
+      <c r="K129" s="44"/>
+      <c r="N129" s="44"/>
+      <c r="S129" s="44"/>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
@@ -18115,9 +18115,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K130" s="42"/>
-      <c r="N130" s="42"/>
-      <c r="S130" s="42"/>
+      <c r="K130" s="44"/>
+      <c r="N130" s="44"/>
+      <c r="S130" s="44"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
@@ -18155,9 +18155,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K131" s="42"/>
-      <c r="N131" s="42"/>
-      <c r="S131" s="42"/>
+      <c r="K131" s="44"/>
+      <c r="N131" s="44"/>
+      <c r="S131" s="44"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
@@ -18195,9 +18195,9 @@
         <f t="shared" ref="J132:J195" si="26">(I132-H132)*24</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K132" s="42"/>
-      <c r="N132" s="42"/>
-      <c r="S132" s="42"/>
+      <c r="K132" s="44"/>
+      <c r="N132" s="44"/>
+      <c r="S132" s="44"/>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
@@ -18235,9 +18235,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K133" s="42"/>
-      <c r="N133" s="42"/>
-      <c r="S133" s="42"/>
+      <c r="K133" s="44"/>
+      <c r="N133" s="44"/>
+      <c r="S133" s="44"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
@@ -18275,9 +18275,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K134" s="42"/>
-      <c r="N134" s="42"/>
-      <c r="S134" s="42"/>
+      <c r="K134" s="44"/>
+      <c r="N134" s="44"/>
+      <c r="S134" s="44"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
@@ -18315,9 +18315,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K135" s="42"/>
-      <c r="N135" s="42"/>
-      <c r="S135" s="42"/>
+      <c r="K135" s="44"/>
+      <c r="N135" s="44"/>
+      <c r="S135" s="44"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
@@ -18355,9 +18355,9 @@
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="K136" s="42"/>
-      <c r="N136" s="42"/>
-      <c r="S136" s="42"/>
+      <c r="K136" s="44"/>
+      <c r="N136" s="44"/>
+      <c r="S136" s="44"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
@@ -18395,9 +18395,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K137" s="42"/>
-      <c r="N137" s="42"/>
-      <c r="S137" s="42"/>
+      <c r="K137" s="44"/>
+      <c r="N137" s="44"/>
+      <c r="S137" s="44"/>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
@@ -18435,9 +18435,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K138" s="42"/>
-      <c r="N138" s="42"/>
-      <c r="S138" s="42"/>
+      <c r="K138" s="44"/>
+      <c r="N138" s="44"/>
+      <c r="S138" s="44"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
@@ -18475,9 +18475,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K139" s="42"/>
-      <c r="N139" s="42"/>
-      <c r="S139" s="42"/>
+      <c r="K139" s="44"/>
+      <c r="N139" s="44"/>
+      <c r="S139" s="44"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
@@ -18515,9 +18515,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K140" s="42"/>
-      <c r="N140" s="42"/>
-      <c r="S140" s="42"/>
+      <c r="K140" s="44"/>
+      <c r="N140" s="44"/>
+      <c r="S140" s="44"/>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
@@ -18555,9 +18555,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K141" s="42"/>
-      <c r="N141" s="42"/>
-      <c r="S141" s="42"/>
+      <c r="K141" s="44"/>
+      <c r="N141" s="44"/>
+      <c r="S141" s="44"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
@@ -18595,9 +18595,9 @@
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="K142" s="42"/>
-      <c r="N142" s="42"/>
-      <c r="S142" s="42"/>
+      <c r="K142" s="44"/>
+      <c r="N142" s="44"/>
+      <c r="S142" s="44"/>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
@@ -18635,9 +18635,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K143" s="42"/>
-      <c r="N143" s="42"/>
-      <c r="S143" s="42"/>
+      <c r="K143" s="44"/>
+      <c r="N143" s="44"/>
+      <c r="S143" s="44"/>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
@@ -18675,9 +18675,9 @@
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="K144" s="42"/>
-      <c r="N144" s="42"/>
-      <c r="S144" s="42"/>
+      <c r="K144" s="44"/>
+      <c r="N144" s="44"/>
+      <c r="S144" s="44"/>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
@@ -18715,9 +18715,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K145" s="42"/>
-      <c r="N145" s="42"/>
-      <c r="S145" s="42"/>
+      <c r="K145" s="44"/>
+      <c r="N145" s="44"/>
+      <c r="S145" s="44"/>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
@@ -18755,9 +18755,9 @@
         <f t="shared" si="26"/>
         <v>1.3333333333333313</v>
       </c>
-      <c r="K146" s="42"/>
-      <c r="N146" s="42"/>
-      <c r="S146" s="42"/>
+      <c r="K146" s="44"/>
+      <c r="N146" s="44"/>
+      <c r="S146" s="44"/>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
@@ -18795,9 +18795,9 @@
         <f t="shared" si="26"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="K147" s="42"/>
-      <c r="N147" s="42"/>
-      <c r="S147" s="42"/>
+      <c r="K147" s="44"/>
+      <c r="N147" s="44"/>
+      <c r="S147" s="44"/>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
@@ -18835,9 +18835,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K148" s="42"/>
-      <c r="N148" s="42"/>
-      <c r="S148" s="42"/>
+      <c r="K148" s="44"/>
+      <c r="N148" s="44"/>
+      <c r="S148" s="44"/>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
@@ -18875,9 +18875,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K149" s="42"/>
-      <c r="N149" s="42"/>
-      <c r="S149" s="42"/>
+      <c r="K149" s="44"/>
+      <c r="N149" s="44"/>
+      <c r="S149" s="44"/>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
@@ -18915,9 +18915,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K150" s="42"/>
-      <c r="N150" s="42"/>
-      <c r="S150" s="42"/>
+      <c r="K150" s="44"/>
+      <c r="N150" s="44"/>
+      <c r="S150" s="44"/>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
@@ -18955,9 +18955,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K151" s="42"/>
-      <c r="N151" s="42"/>
-      <c r="S151" s="42"/>
+      <c r="K151" s="44"/>
+      <c r="N151" s="44"/>
+      <c r="S151" s="44"/>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
@@ -18995,9 +18995,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K152" s="42"/>
-      <c r="N152" s="42"/>
-      <c r="S152" s="42"/>
+      <c r="K152" s="44"/>
+      <c r="N152" s="44"/>
+      <c r="S152" s="44"/>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
@@ -19035,9 +19035,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K153" s="42"/>
-      <c r="N153" s="42"/>
-      <c r="S153" s="42"/>
+      <c r="K153" s="44"/>
+      <c r="N153" s="44"/>
+      <c r="S153" s="44"/>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
@@ -19075,9 +19075,9 @@
         <f t="shared" si="26"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K154" s="42"/>
-      <c r="N154" s="42"/>
-      <c r="S154" s="42"/>
+      <c r="K154" s="44"/>
+      <c r="N154" s="44"/>
+      <c r="S154" s="44"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
@@ -19115,9 +19115,9 @@
         <f>(I155-H155)*24</f>
         <v>1.3333333333333339</v>
       </c>
-      <c r="K155" s="42"/>
-      <c r="N155" s="42"/>
-      <c r="S155" s="42"/>
+      <c r="K155" s="44"/>
+      <c r="N155" s="44"/>
+      <c r="S155" s="44"/>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
@@ -19155,9 +19155,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K156" s="42"/>
-      <c r="N156" s="42"/>
-      <c r="S156" s="42"/>
+      <c r="K156" s="44"/>
+      <c r="N156" s="44"/>
+      <c r="S156" s="44"/>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
@@ -19195,9 +19195,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K157" s="42"/>
-      <c r="N157" s="42"/>
-      <c r="S157" s="42"/>
+      <c r="K157" s="44"/>
+      <c r="N157" s="44"/>
+      <c r="S157" s="44"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
@@ -19235,9 +19235,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K158" s="42"/>
-      <c r="N158" s="42"/>
-      <c r="S158" s="42"/>
+      <c r="K158" s="44"/>
+      <c r="N158" s="44"/>
+      <c r="S158" s="44"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
@@ -19275,9 +19275,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K159" s="42"/>
-      <c r="N159" s="42"/>
-      <c r="S159" s="42"/>
+      <c r="K159" s="44"/>
+      <c r="N159" s="44"/>
+      <c r="S159" s="44"/>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
@@ -19315,9 +19315,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K160" s="42"/>
-      <c r="N160" s="42"/>
-      <c r="S160" s="42"/>
+      <c r="K160" s="44"/>
+      <c r="N160" s="44"/>
+      <c r="S160" s="44"/>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
@@ -19355,9 +19355,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K161" s="42"/>
-      <c r="N161" s="42"/>
-      <c r="S161" s="42"/>
+      <c r="K161" s="44"/>
+      <c r="N161" s="44"/>
+      <c r="S161" s="44"/>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
@@ -19395,9 +19395,9 @@
         <f t="shared" si="26"/>
         <v>3.0000000000000013</v>
       </c>
-      <c r="K162" s="42"/>
-      <c r="N162" s="42"/>
-      <c r="S162" s="42"/>
+      <c r="K162" s="44"/>
+      <c r="N162" s="44"/>
+      <c r="S162" s="44"/>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
@@ -19435,9 +19435,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K163" s="42"/>
-      <c r="N163" s="42"/>
-      <c r="S163" s="42"/>
+      <c r="K163" s="44"/>
+      <c r="N163" s="44"/>
+      <c r="S163" s="44"/>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
@@ -19475,9 +19475,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K164" s="42"/>
-      <c r="N164" s="42"/>
-      <c r="S164" s="42"/>
+      <c r="K164" s="44"/>
+      <c r="N164" s="44"/>
+      <c r="S164" s="44"/>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
@@ -19515,9 +19515,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K165" s="42"/>
-      <c r="N165" s="42"/>
-      <c r="S165" s="42"/>
+      <c r="K165" s="44"/>
+      <c r="N165" s="44"/>
+      <c r="S165" s="44"/>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
@@ -19555,9 +19555,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K166" s="42"/>
-      <c r="N166" s="42"/>
-      <c r="S166" s="42"/>
+      <c r="K166" s="44"/>
+      <c r="N166" s="44"/>
+      <c r="S166" s="44"/>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
@@ -19595,9 +19595,9 @@
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="K167" s="42"/>
-      <c r="N167" s="42"/>
-      <c r="S167" s="42"/>
+      <c r="K167" s="44"/>
+      <c r="N167" s="44"/>
+      <c r="S167" s="44"/>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
@@ -19635,9 +19635,9 @@
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="K168" s="42"/>
-      <c r="N168" s="42"/>
-      <c r="S168" s="42"/>
+      <c r="K168" s="44"/>
+      <c r="N168" s="44"/>
+      <c r="S168" s="44"/>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
@@ -19675,9 +19675,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K169" s="42"/>
-      <c r="N169" s="42"/>
-      <c r="S169" s="42"/>
+      <c r="K169" s="44"/>
+      <c r="N169" s="44"/>
+      <c r="S169" s="44"/>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
@@ -19715,9 +19715,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K170" s="42"/>
-      <c r="N170" s="42"/>
-      <c r="S170" s="42"/>
+      <c r="K170" s="44"/>
+      <c r="N170" s="44"/>
+      <c r="S170" s="44"/>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
@@ -19755,9 +19755,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K171" s="42"/>
-      <c r="N171" s="42"/>
-      <c r="S171" s="42"/>
+      <c r="K171" s="44"/>
+      <c r="N171" s="44"/>
+      <c r="S171" s="44"/>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
@@ -19795,9 +19795,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K172" s="42"/>
-      <c r="N172" s="42"/>
-      <c r="S172" s="42"/>
+      <c r="K172" s="44"/>
+      <c r="N172" s="44"/>
+      <c r="S172" s="44"/>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
@@ -19835,9 +19835,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K173" s="42"/>
-      <c r="N173" s="42"/>
-      <c r="S173" s="42"/>
+      <c r="K173" s="44"/>
+      <c r="N173" s="44"/>
+      <c r="S173" s="44"/>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
@@ -19875,9 +19875,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K174" s="42"/>
-      <c r="N174" s="42"/>
-      <c r="S174" s="42"/>
+      <c r="K174" s="44"/>
+      <c r="N174" s="44"/>
+      <c r="S174" s="44"/>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
@@ -19915,9 +19915,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K175" s="42"/>
-      <c r="N175" s="42"/>
-      <c r="S175" s="42"/>
+      <c r="K175" s="44"/>
+      <c r="N175" s="44"/>
+      <c r="S175" s="44"/>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
@@ -19955,9 +19955,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K176" s="42"/>
-      <c r="N176" s="42"/>
-      <c r="S176" s="42"/>
+      <c r="K176" s="44"/>
+      <c r="N176" s="44"/>
+      <c r="S176" s="44"/>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
@@ -19995,9 +19995,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K177" s="42"/>
-      <c r="N177" s="42"/>
-      <c r="S177" s="42"/>
+      <c r="K177" s="44"/>
+      <c r="N177" s="44"/>
+      <c r="S177" s="44"/>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
@@ -20035,9 +20035,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K178" s="42"/>
-      <c r="N178" s="42"/>
-      <c r="S178" s="42"/>
+      <c r="K178" s="44"/>
+      <c r="N178" s="44"/>
+      <c r="S178" s="44"/>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
@@ -20075,9 +20075,9 @@
         <f t="shared" si="26"/>
         <v>1.3333333333333339</v>
       </c>
-      <c r="K179" s="42"/>
-      <c r="N179" s="42"/>
-      <c r="S179" s="42"/>
+      <c r="K179" s="44"/>
+      <c r="N179" s="44"/>
+      <c r="S179" s="44"/>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
@@ -20115,9 +20115,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K180" s="42"/>
-      <c r="N180" s="42"/>
-      <c r="S180" s="42"/>
+      <c r="K180" s="44"/>
+      <c r="N180" s="44"/>
+      <c r="S180" s="44"/>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
@@ -20155,9 +20155,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K181" s="42"/>
-      <c r="N181" s="42"/>
-      <c r="S181" s="42"/>
+      <c r="K181" s="44"/>
+      <c r="N181" s="44"/>
+      <c r="S181" s="44"/>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
@@ -20195,9 +20195,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K182" s="42"/>
-      <c r="N182" s="42"/>
-      <c r="S182" s="42"/>
+      <c r="K182" s="44"/>
+      <c r="N182" s="44"/>
+      <c r="S182" s="44"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
@@ -20235,9 +20235,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K183" s="42"/>
-      <c r="N183" s="42"/>
-      <c r="S183" s="42"/>
+      <c r="K183" s="44"/>
+      <c r="N183" s="44"/>
+      <c r="S183" s="44"/>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
@@ -20275,9 +20275,9 @@
         <f t="shared" si="26"/>
         <v>2.6666666666666679</v>
       </c>
-      <c r="K184" s="42"/>
-      <c r="N184" s="42"/>
-      <c r="S184" s="42"/>
+      <c r="K184" s="44"/>
+      <c r="N184" s="44"/>
+      <c r="S184" s="44"/>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
@@ -20315,9 +20315,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K185" s="42"/>
-      <c r="N185" s="42"/>
-      <c r="S185" s="42"/>
+      <c r="K185" s="44"/>
+      <c r="N185" s="44"/>
+      <c r="S185" s="44"/>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
@@ -20355,9 +20355,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K186" s="42"/>
-      <c r="N186" s="42"/>
-      <c r="S186" s="42"/>
+      <c r="K186" s="44"/>
+      <c r="N186" s="44"/>
+      <c r="S186" s="44"/>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
@@ -20395,9 +20395,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K187" s="42"/>
-      <c r="N187" s="42"/>
-      <c r="S187" s="42"/>
+      <c r="K187" s="44"/>
+      <c r="N187" s="44"/>
+      <c r="S187" s="44"/>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
@@ -20435,9 +20435,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K188" s="42"/>
-      <c r="N188" s="42"/>
-      <c r="S188" s="42"/>
+      <c r="K188" s="44"/>
+      <c r="N188" s="44"/>
+      <c r="S188" s="44"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
@@ -20475,9 +20475,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K189" s="42"/>
-      <c r="N189" s="42"/>
-      <c r="S189" s="42"/>
+      <c r="K189" s="44"/>
+      <c r="N189" s="44"/>
+      <c r="S189" s="44"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
@@ -20515,9 +20515,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K190" s="42"/>
-      <c r="N190" s="42"/>
-      <c r="S190" s="42"/>
+      <c r="K190" s="44"/>
+      <c r="N190" s="44"/>
+      <c r="S190" s="44"/>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
@@ -20555,9 +20555,9 @@
         <f t="shared" si="26"/>
         <v>1.3333333333333339</v>
       </c>
-      <c r="K191" s="42"/>
-      <c r="N191" s="42"/>
-      <c r="S191" s="42"/>
+      <c r="K191" s="44"/>
+      <c r="N191" s="44"/>
+      <c r="S191" s="44"/>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
@@ -20595,9 +20595,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K192" s="42"/>
-      <c r="N192" s="42"/>
-      <c r="S192" s="42"/>
+      <c r="K192" s="44"/>
+      <c r="N192" s="44"/>
+      <c r="S192" s="44"/>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
@@ -20635,9 +20635,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K193" s="42"/>
-      <c r="N193" s="42"/>
-      <c r="S193" s="42"/>
+      <c r="K193" s="44"/>
+      <c r="N193" s="44"/>
+      <c r="S193" s="44"/>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
@@ -20675,9 +20675,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K194" s="42"/>
-      <c r="N194" s="42"/>
-      <c r="S194" s="42"/>
+      <c r="K194" s="44"/>
+      <c r="N194" s="44"/>
+      <c r="S194" s="44"/>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
@@ -20715,9 +20715,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K195" s="42"/>
-      <c r="N195" s="42"/>
-      <c r="S195" s="42"/>
+      <c r="K195" s="44"/>
+      <c r="N195" s="44"/>
+      <c r="S195" s="44"/>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
@@ -20755,9 +20755,9 @@
         <f t="shared" ref="J196:J259" si="30">(I196-H196)*24</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K196" s="42"/>
-      <c r="N196" s="42"/>
-      <c r="S196" s="42"/>
+      <c r="K196" s="44"/>
+      <c r="N196" s="44"/>
+      <c r="S196" s="44"/>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
@@ -20795,9 +20795,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K197" s="42"/>
-      <c r="N197" s="42"/>
-      <c r="S197" s="42"/>
+      <c r="K197" s="44"/>
+      <c r="N197" s="44"/>
+      <c r="S197" s="44"/>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
@@ -20835,9 +20835,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K198" s="42"/>
-      <c r="N198" s="42"/>
-      <c r="S198" s="42"/>
+      <c r="K198" s="44"/>
+      <c r="N198" s="44"/>
+      <c r="S198" s="44"/>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
@@ -20875,9 +20875,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K199" s="42"/>
-      <c r="N199" s="42"/>
-      <c r="S199" s="42"/>
+      <c r="K199" s="44"/>
+      <c r="N199" s="44"/>
+      <c r="S199" s="44"/>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
@@ -20915,9 +20915,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K200" s="42"/>
-      <c r="N200" s="42"/>
-      <c r="S200" s="42"/>
+      <c r="K200" s="44"/>
+      <c r="N200" s="44"/>
+      <c r="S200" s="44"/>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
@@ -20955,9 +20955,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K201" s="42"/>
-      <c r="N201" s="42"/>
-      <c r="S201" s="42"/>
+      <c r="K201" s="44"/>
+      <c r="N201" s="44"/>
+      <c r="S201" s="44"/>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
@@ -20995,9 +20995,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K202" s="42"/>
-      <c r="N202" s="42"/>
-      <c r="S202" s="42"/>
+      <c r="K202" s="44"/>
+      <c r="N202" s="44"/>
+      <c r="S202" s="44"/>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
@@ -21035,9 +21035,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K203" s="42"/>
-      <c r="N203" s="42"/>
-      <c r="S203" s="42"/>
+      <c r="K203" s="44"/>
+      <c r="N203" s="44"/>
+      <c r="S203" s="44"/>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
@@ -21075,9 +21075,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K204" s="42"/>
-      <c r="N204" s="42"/>
-      <c r="S204" s="42"/>
+      <c r="K204" s="44"/>
+      <c r="N204" s="44"/>
+      <c r="S204" s="44"/>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
@@ -21115,9 +21115,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K205" s="42"/>
-      <c r="N205" s="42"/>
-      <c r="S205" s="42"/>
+      <c r="K205" s="44"/>
+      <c r="N205" s="44"/>
+      <c r="S205" s="44"/>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
@@ -21155,9 +21155,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K206" s="42"/>
-      <c r="N206" s="42"/>
-      <c r="S206" s="42"/>
+      <c r="K206" s="44"/>
+      <c r="N206" s="44"/>
+      <c r="S206" s="44"/>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
@@ -21195,9 +21195,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K207" s="42"/>
-      <c r="N207" s="42"/>
-      <c r="S207" s="42"/>
+      <c r="K207" s="44"/>
+      <c r="N207" s="44"/>
+      <c r="S207" s="44"/>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
@@ -21235,9 +21235,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K208" s="42"/>
-      <c r="N208" s="42"/>
-      <c r="S208" s="42"/>
+      <c r="K208" s="44"/>
+      <c r="N208" s="44"/>
+      <c r="S208" s="44"/>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
@@ -21275,9 +21275,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K209" s="42"/>
-      <c r="N209" s="42"/>
-      <c r="S209" s="42"/>
+      <c r="K209" s="44"/>
+      <c r="N209" s="44"/>
+      <c r="S209" s="44"/>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
@@ -21315,9 +21315,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K210" s="42"/>
-      <c r="N210" s="42"/>
-      <c r="S210" s="42"/>
+      <c r="K210" s="44"/>
+      <c r="N210" s="44"/>
+      <c r="S210" s="44"/>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
@@ -21355,9 +21355,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K211" s="42"/>
-      <c r="N211" s="42"/>
-      <c r="S211" s="42"/>
+      <c r="K211" s="44"/>
+      <c r="N211" s="44"/>
+      <c r="S211" s="44"/>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
@@ -21395,9 +21395,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K212" s="42"/>
-      <c r="N212" s="42"/>
-      <c r="S212" s="42"/>
+      <c r="K212" s="44"/>
+      <c r="N212" s="44"/>
+      <c r="S212" s="44"/>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
@@ -21435,9 +21435,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K213" s="42"/>
-      <c r="N213" s="42"/>
-      <c r="S213" s="42"/>
+      <c r="K213" s="44"/>
+      <c r="N213" s="44"/>
+      <c r="S213" s="44"/>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
@@ -21475,9 +21475,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K214" s="42"/>
-      <c r="N214" s="42"/>
-      <c r="S214" s="42"/>
+      <c r="K214" s="44"/>
+      <c r="N214" s="44"/>
+      <c r="S214" s="44"/>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
@@ -21515,9 +21515,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K215" s="42"/>
-      <c r="N215" s="42"/>
-      <c r="S215" s="42"/>
+      <c r="K215" s="44"/>
+      <c r="N215" s="44"/>
+      <c r="S215" s="44"/>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
@@ -21555,9 +21555,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K216" s="42"/>
-      <c r="N216" s="42"/>
-      <c r="S216" s="42"/>
+      <c r="K216" s="44"/>
+      <c r="N216" s="44"/>
+      <c r="S216" s="44"/>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
@@ -21595,9 +21595,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K217" s="42"/>
-      <c r="N217" s="42"/>
-      <c r="S217" s="42"/>
+      <c r="K217" s="44"/>
+      <c r="N217" s="44"/>
+      <c r="S217" s="44"/>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
@@ -21635,9 +21635,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K218" s="42"/>
-      <c r="N218" s="42"/>
-      <c r="S218" s="42"/>
+      <c r="K218" s="44"/>
+      <c r="N218" s="44"/>
+      <c r="S218" s="44"/>
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
@@ -21675,9 +21675,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K219" s="42"/>
-      <c r="N219" s="42"/>
-      <c r="S219" s="42"/>
+      <c r="K219" s="44"/>
+      <c r="N219" s="44"/>
+      <c r="S219" s="44"/>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
@@ -21715,9 +21715,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K220" s="42"/>
-      <c r="N220" s="42"/>
-      <c r="S220" s="42"/>
+      <c r="K220" s="44"/>
+      <c r="N220" s="44"/>
+      <c r="S220" s="44"/>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
@@ -21755,9 +21755,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K221" s="42"/>
-      <c r="N221" s="42"/>
-      <c r="S221" s="42"/>
+      <c r="K221" s="44"/>
+      <c r="N221" s="44"/>
+      <c r="S221" s="44"/>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
@@ -21795,9 +21795,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K222" s="42"/>
-      <c r="N222" s="42"/>
-      <c r="S222" s="42"/>
+      <c r="K222" s="44"/>
+      <c r="N222" s="44"/>
+      <c r="S222" s="44"/>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
@@ -21835,9 +21835,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K223" s="42"/>
-      <c r="N223" s="42"/>
-      <c r="S223" s="42"/>
+      <c r="K223" s="44"/>
+      <c r="N223" s="44"/>
+      <c r="S223" s="44"/>
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
@@ -21875,9 +21875,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K224" s="42"/>
-      <c r="N224" s="42"/>
-      <c r="S224" s="42"/>
+      <c r="K224" s="44"/>
+      <c r="N224" s="44"/>
+      <c r="S224" s="44"/>
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
@@ -21915,9 +21915,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K225" s="42"/>
-      <c r="N225" s="42"/>
-      <c r="S225" s="42"/>
+      <c r="K225" s="44"/>
+      <c r="N225" s="44"/>
+      <c r="S225" s="44"/>
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
@@ -21955,9 +21955,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K226" s="42"/>
-      <c r="N226" s="42"/>
-      <c r="S226" s="42"/>
+      <c r="K226" s="44"/>
+      <c r="N226" s="44"/>
+      <c r="S226" s="44"/>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
@@ -21995,9 +21995,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K227" s="42"/>
-      <c r="N227" s="42"/>
-      <c r="S227" s="42"/>
+      <c r="K227" s="44"/>
+      <c r="N227" s="44"/>
+      <c r="S227" s="44"/>
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
@@ -22035,9 +22035,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K228" s="42"/>
-      <c r="N228" s="42"/>
-      <c r="S228" s="42"/>
+      <c r="K228" s="44"/>
+      <c r="N228" s="44"/>
+      <c r="S228" s="44"/>
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
@@ -22075,9 +22075,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K229" s="42"/>
-      <c r="N229" s="42"/>
-      <c r="S229" s="42"/>
+      <c r="K229" s="44"/>
+      <c r="N229" s="44"/>
+      <c r="S229" s="44"/>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
@@ -22115,9 +22115,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K230" s="42"/>
-      <c r="N230" s="42"/>
-      <c r="S230" s="42"/>
+      <c r="K230" s="44"/>
+      <c r="N230" s="44"/>
+      <c r="S230" s="44"/>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
@@ -22155,9 +22155,9 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="K231" s="42"/>
-      <c r="N231" s="42"/>
-      <c r="S231" s="42"/>
+      <c r="K231" s="44"/>
+      <c r="N231" s="44"/>
+      <c r="S231" s="44"/>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
@@ -22195,9 +22195,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K232" s="42"/>
-      <c r="N232" s="42"/>
-      <c r="S232" s="42"/>
+      <c r="K232" s="44"/>
+      <c r="N232" s="44"/>
+      <c r="S232" s="44"/>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
@@ -22235,9 +22235,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K233" s="42"/>
-      <c r="N233" s="42"/>
-      <c r="S233" s="42"/>
+      <c r="K233" s="44"/>
+      <c r="N233" s="44"/>
+      <c r="S233" s="44"/>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
@@ -22275,9 +22275,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K234" s="42"/>
-      <c r="N234" s="42"/>
-      <c r="S234" s="42"/>
+      <c r="K234" s="44"/>
+      <c r="N234" s="44"/>
+      <c r="S234" s="44"/>
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
@@ -22315,9 +22315,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K235" s="42"/>
-      <c r="N235" s="42"/>
-      <c r="S235" s="42"/>
+      <c r="K235" s="44"/>
+      <c r="N235" s="44"/>
+      <c r="S235" s="44"/>
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
@@ -22355,9 +22355,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K236" s="42"/>
-      <c r="N236" s="42"/>
-      <c r="S236" s="42"/>
+      <c r="K236" s="44"/>
+      <c r="N236" s="44"/>
+      <c r="S236" s="44"/>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
@@ -22395,9 +22395,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K237" s="42"/>
-      <c r="N237" s="42"/>
-      <c r="S237" s="42"/>
+      <c r="K237" s="44"/>
+      <c r="N237" s="44"/>
+      <c r="S237" s="44"/>
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
@@ -22435,9 +22435,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K238" s="42"/>
-      <c r="N238" s="42"/>
-      <c r="S238" s="42"/>
+      <c r="K238" s="44"/>
+      <c r="N238" s="44"/>
+      <c r="S238" s="44"/>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
@@ -22475,9 +22475,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K239" s="42"/>
-      <c r="N239" s="42"/>
-      <c r="S239" s="42"/>
+      <c r="K239" s="44"/>
+      <c r="N239" s="44"/>
+      <c r="S239" s="44"/>
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
@@ -22515,9 +22515,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K240" s="42"/>
-      <c r="N240" s="42"/>
-      <c r="S240" s="42"/>
+      <c r="K240" s="44"/>
+      <c r="N240" s="44"/>
+      <c r="S240" s="44"/>
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
@@ -22555,9 +22555,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K241" s="42"/>
-      <c r="N241" s="42"/>
-      <c r="S241" s="42"/>
+      <c r="K241" s="44"/>
+      <c r="N241" s="44"/>
+      <c r="S241" s="44"/>
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
@@ -22595,9 +22595,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K242" s="42"/>
-      <c r="N242" s="42"/>
-      <c r="S242" s="42"/>
+      <c r="K242" s="44"/>
+      <c r="N242" s="44"/>
+      <c r="S242" s="44"/>
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
@@ -22635,9 +22635,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K243" s="42"/>
-      <c r="N243" s="42"/>
-      <c r="S243" s="42"/>
+      <c r="K243" s="44"/>
+      <c r="N243" s="44"/>
+      <c r="S243" s="44"/>
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
@@ -22675,9 +22675,9 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="K244" s="42"/>
-      <c r="N244" s="42"/>
-      <c r="S244" s="42"/>
+      <c r="K244" s="44"/>
+      <c r="N244" s="44"/>
+      <c r="S244" s="44"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
@@ -22715,9 +22715,9 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="K245" s="42"/>
-      <c r="N245" s="42"/>
-      <c r="S245" s="42"/>
+      <c r="K245" s="44"/>
+      <c r="N245" s="44"/>
+      <c r="S245" s="44"/>
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
@@ -22755,9 +22755,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K246" s="42"/>
-      <c r="N246" s="42"/>
-      <c r="S246" s="42"/>
+      <c r="K246" s="44"/>
+      <c r="N246" s="44"/>
+      <c r="S246" s="44"/>
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
@@ -22795,9 +22795,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K247" s="42"/>
-      <c r="N247" s="42"/>
-      <c r="S247" s="42"/>
+      <c r="K247" s="44"/>
+      <c r="N247" s="44"/>
+      <c r="S247" s="44"/>
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
@@ -22835,9 +22835,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K248" s="42"/>
-      <c r="N248" s="42"/>
-      <c r="S248" s="42"/>
+      <c r="K248" s="44"/>
+      <c r="N248" s="44"/>
+      <c r="S248" s="44"/>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
@@ -22875,9 +22875,9 @@
         <f t="shared" si="30"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K249" s="42"/>
-      <c r="N249" s="42"/>
-      <c r="S249" s="42"/>
+      <c r="K249" s="44"/>
+      <c r="N249" s="44"/>
+      <c r="S249" s="44"/>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
@@ -22915,9 +22915,9 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="K250" s="42"/>
-      <c r="N250" s="42"/>
-      <c r="S250" s="42"/>
+      <c r="K250" s="44"/>
+      <c r="N250" s="44"/>
+      <c r="S250" s="44"/>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
@@ -22955,9 +22955,9 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="K251" s="42"/>
-      <c r="N251" s="42"/>
-      <c r="S251" s="42"/>
+      <c r="K251" s="44"/>
+      <c r="N251" s="44"/>
+      <c r="S251" s="44"/>
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
@@ -22995,9 +22995,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K252" s="42"/>
-      <c r="N252" s="42"/>
-      <c r="S252" s="42"/>
+      <c r="K252" s="44"/>
+      <c r="N252" s="44"/>
+      <c r="S252" s="44"/>
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
@@ -23035,9 +23035,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K253" s="42"/>
-      <c r="N253" s="42"/>
-      <c r="S253" s="42"/>
+      <c r="K253" s="44"/>
+      <c r="N253" s="44"/>
+      <c r="S253" s="44"/>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
@@ -23075,9 +23075,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K254" s="42"/>
-      <c r="N254" s="42"/>
-      <c r="S254" s="42"/>
+      <c r="K254" s="44"/>
+      <c r="N254" s="44"/>
+      <c r="S254" s="44"/>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
@@ -23115,9 +23115,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K255" s="42"/>
-      <c r="N255" s="42"/>
-      <c r="S255" s="42"/>
+      <c r="K255" s="44"/>
+      <c r="N255" s="44"/>
+      <c r="S255" s="44"/>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
@@ -23155,9 +23155,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K256" s="42"/>
-      <c r="N256" s="42"/>
-      <c r="S256" s="42"/>
+      <c r="K256" s="44"/>
+      <c r="N256" s="44"/>
+      <c r="S256" s="44"/>
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
@@ -23195,9 +23195,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K257" s="42"/>
-      <c r="N257" s="42"/>
-      <c r="S257" s="42"/>
+      <c r="K257" s="44"/>
+      <c r="N257" s="44"/>
+      <c r="S257" s="44"/>
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
@@ -23235,9 +23235,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K258" s="42"/>
-      <c r="N258" s="42"/>
-      <c r="S258" s="42"/>
+      <c r="K258" s="44"/>
+      <c r="N258" s="44"/>
+      <c r="S258" s="44"/>
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
@@ -23275,9 +23275,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K259" s="42"/>
-      <c r="N259" s="42"/>
-      <c r="S259" s="42"/>
+      <c r="K259" s="44"/>
+      <c r="N259" s="44"/>
+      <c r="S259" s="44"/>
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
@@ -23315,9 +23315,9 @@
         <f t="shared" ref="J260:J323" si="34">(I260-H260)*24</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K260" s="42"/>
-      <c r="N260" s="42"/>
-      <c r="S260" s="42"/>
+      <c r="K260" s="44"/>
+      <c r="N260" s="44"/>
+      <c r="S260" s="44"/>
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
@@ -23355,9 +23355,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K261" s="42"/>
-      <c r="N261" s="42"/>
-      <c r="S261" s="42"/>
+      <c r="K261" s="44"/>
+      <c r="N261" s="44"/>
+      <c r="S261" s="44"/>
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
@@ -23395,9 +23395,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K262" s="42"/>
-      <c r="N262" s="42"/>
-      <c r="S262" s="42"/>
+      <c r="K262" s="44"/>
+      <c r="N262" s="44"/>
+      <c r="S262" s="44"/>
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
@@ -23435,9 +23435,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K263" s="42"/>
-      <c r="N263" s="42"/>
-      <c r="S263" s="42"/>
+      <c r="K263" s="44"/>
+      <c r="N263" s="44"/>
+      <c r="S263" s="44"/>
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
@@ -23475,9 +23475,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K264" s="42"/>
-      <c r="N264" s="42"/>
-      <c r="S264" s="42"/>
+      <c r="K264" s="44"/>
+      <c r="N264" s="44"/>
+      <c r="S264" s="44"/>
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
@@ -23515,9 +23515,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K265" s="42"/>
-      <c r="N265" s="42"/>
-      <c r="S265" s="42"/>
+      <c r="K265" s="44"/>
+      <c r="N265" s="44"/>
+      <c r="S265" s="44"/>
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
@@ -23555,9 +23555,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K266" s="42"/>
-      <c r="N266" s="42"/>
-      <c r="S266" s="42"/>
+      <c r="K266" s="44"/>
+      <c r="N266" s="44"/>
+      <c r="S266" s="44"/>
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
@@ -23595,9 +23595,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K267" s="42"/>
-      <c r="N267" s="42"/>
-      <c r="S267" s="42"/>
+      <c r="K267" s="44"/>
+      <c r="N267" s="44"/>
+      <c r="S267" s="44"/>
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
@@ -23635,9 +23635,9 @@
         <f t="shared" si="34"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K268" s="42"/>
-      <c r="N268" s="42"/>
-      <c r="S268" s="42"/>
+      <c r="K268" s="44"/>
+      <c r="N268" s="44"/>
+      <c r="S268" s="44"/>
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
@@ -23675,9 +23675,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K269" s="42"/>
-      <c r="N269" s="42"/>
-      <c r="S269" s="42"/>
+      <c r="K269" s="44"/>
+      <c r="N269" s="44"/>
+      <c r="S269" s="44"/>
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
@@ -23715,9 +23715,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K270" s="42"/>
-      <c r="N270" s="42"/>
-      <c r="S270" s="42"/>
+      <c r="K270" s="44"/>
+      <c r="N270" s="44"/>
+      <c r="S270" s="44"/>
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
@@ -23755,9 +23755,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K271" s="42"/>
-      <c r="N271" s="42"/>
-      <c r="S271" s="42"/>
+      <c r="K271" s="44"/>
+      <c r="N271" s="44"/>
+      <c r="S271" s="44"/>
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
@@ -23795,9 +23795,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K272" s="42"/>
-      <c r="N272" s="42"/>
-      <c r="S272" s="42"/>
+      <c r="K272" s="44"/>
+      <c r="N272" s="44"/>
+      <c r="S272" s="44"/>
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
@@ -23835,9 +23835,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K273" s="42"/>
-      <c r="N273" s="42"/>
-      <c r="S273" s="42"/>
+      <c r="K273" s="44"/>
+      <c r="N273" s="44"/>
+      <c r="S273" s="44"/>
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
@@ -23875,9 +23875,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K274" s="42"/>
-      <c r="N274" s="42"/>
-      <c r="S274" s="42"/>
+      <c r="K274" s="44"/>
+      <c r="N274" s="44"/>
+      <c r="S274" s="44"/>
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
@@ -23915,9 +23915,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K275" s="42"/>
-      <c r="N275" s="42"/>
-      <c r="S275" s="42"/>
+      <c r="K275" s="44"/>
+      <c r="N275" s="44"/>
+      <c r="S275" s="44"/>
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
@@ -23955,9 +23955,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K276" s="42"/>
-      <c r="N276" s="42"/>
-      <c r="S276" s="42"/>
+      <c r="K276" s="44"/>
+      <c r="N276" s="44"/>
+      <c r="S276" s="44"/>
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
@@ -23995,9 +23995,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K277" s="42"/>
-      <c r="N277" s="42"/>
-      <c r="S277" s="42"/>
+      <c r="K277" s="44"/>
+      <c r="N277" s="44"/>
+      <c r="S277" s="44"/>
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
@@ -24035,9 +24035,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K278" s="42"/>
-      <c r="N278" s="42"/>
-      <c r="S278" s="42"/>
+      <c r="K278" s="44"/>
+      <c r="N278" s="44"/>
+      <c r="S278" s="44"/>
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
@@ -24075,9 +24075,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K279" s="42"/>
-      <c r="N279" s="42"/>
-      <c r="S279" s="42"/>
+      <c r="K279" s="44"/>
+      <c r="N279" s="44"/>
+      <c r="S279" s="44"/>
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
@@ -24115,9 +24115,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K280" s="42"/>
-      <c r="N280" s="42"/>
-      <c r="S280" s="42"/>
+      <c r="K280" s="44"/>
+      <c r="N280" s="44"/>
+      <c r="S280" s="44"/>
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
@@ -24155,9 +24155,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K281" s="42"/>
-      <c r="N281" s="42"/>
-      <c r="S281" s="42"/>
+      <c r="K281" s="44"/>
+      <c r="N281" s="44"/>
+      <c r="S281" s="44"/>
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
@@ -24195,9 +24195,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K282" s="42"/>
-      <c r="N282" s="42"/>
-      <c r="S282" s="42"/>
+      <c r="K282" s="44"/>
+      <c r="N282" s="44"/>
+      <c r="S282" s="44"/>
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
@@ -24235,9 +24235,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K283" s="42"/>
-      <c r="N283" s="42"/>
-      <c r="S283" s="42"/>
+      <c r="K283" s="44"/>
+      <c r="N283" s="44"/>
+      <c r="S283" s="44"/>
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
@@ -24275,9 +24275,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K284" s="42"/>
-      <c r="N284" s="42"/>
-      <c r="S284" s="42"/>
+      <c r="K284" s="44"/>
+      <c r="N284" s="44"/>
+      <c r="S284" s="44"/>
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
@@ -24315,9 +24315,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K285" s="42"/>
-      <c r="N285" s="42"/>
-      <c r="S285" s="42"/>
+      <c r="K285" s="44"/>
+      <c r="N285" s="44"/>
+      <c r="S285" s="44"/>
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
@@ -24355,9 +24355,9 @@
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="K286" s="42"/>
-      <c r="N286" s="42"/>
-      <c r="S286" s="42"/>
+      <c r="K286" s="44"/>
+      <c r="N286" s="44"/>
+      <c r="S286" s="44"/>
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
@@ -24395,9 +24395,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K287" s="42"/>
-      <c r="N287" s="42"/>
-      <c r="S287" s="42"/>
+      <c r="K287" s="44"/>
+      <c r="N287" s="44"/>
+      <c r="S287" s="44"/>
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
@@ -24435,9 +24435,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K288" s="42"/>
-      <c r="N288" s="42"/>
-      <c r="S288" s="42"/>
+      <c r="K288" s="44"/>
+      <c r="N288" s="44"/>
+      <c r="S288" s="44"/>
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
@@ -24475,9 +24475,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K289" s="42"/>
-      <c r="N289" s="42"/>
-      <c r="S289" s="42"/>
+      <c r="K289" s="44"/>
+      <c r="N289" s="44"/>
+      <c r="S289" s="44"/>
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
@@ -24515,9 +24515,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K290" s="42"/>
-      <c r="N290" s="42"/>
-      <c r="S290" s="42"/>
+      <c r="K290" s="44"/>
+      <c r="N290" s="44"/>
+      <c r="S290" s="44"/>
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
@@ -24555,9 +24555,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K291" s="42"/>
-      <c r="N291" s="42"/>
-      <c r="S291" s="42"/>
+      <c r="K291" s="44"/>
+      <c r="N291" s="44"/>
+      <c r="S291" s="44"/>
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
@@ -24595,9 +24595,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K292" s="42"/>
-      <c r="N292" s="42"/>
-      <c r="S292" s="42"/>
+      <c r="K292" s="44"/>
+      <c r="N292" s="44"/>
+      <c r="S292" s="44"/>
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
@@ -24635,9 +24635,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K293" s="42"/>
-      <c r="N293" s="42"/>
-      <c r="S293" s="42"/>
+      <c r="K293" s="44"/>
+      <c r="N293" s="44"/>
+      <c r="S293" s="44"/>
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
@@ -24675,9 +24675,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K294" s="42"/>
-      <c r="N294" s="42"/>
-      <c r="S294" s="42"/>
+      <c r="K294" s="44"/>
+      <c r="N294" s="44"/>
+      <c r="S294" s="44"/>
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
@@ -24715,9 +24715,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K295" s="42"/>
-      <c r="N295" s="42"/>
-      <c r="S295" s="42"/>
+      <c r="K295" s="44"/>
+      <c r="N295" s="44"/>
+      <c r="S295" s="44"/>
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
@@ -24755,9 +24755,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K296" s="42"/>
-      <c r="N296" s="42"/>
-      <c r="S296" s="42"/>
+      <c r="K296" s="44"/>
+      <c r="N296" s="44"/>
+      <c r="S296" s="44"/>
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
@@ -24795,9 +24795,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K297" s="42"/>
-      <c r="N297" s="42"/>
-      <c r="S297" s="42"/>
+      <c r="K297" s="44"/>
+      <c r="N297" s="44"/>
+      <c r="S297" s="44"/>
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
@@ -24835,9 +24835,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K298" s="42"/>
-      <c r="N298" s="42"/>
-      <c r="S298" s="42"/>
+      <c r="K298" s="44"/>
+      <c r="N298" s="44"/>
+      <c r="S298" s="44"/>
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
@@ -24875,9 +24875,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K299" s="42"/>
-      <c r="N299" s="42"/>
-      <c r="S299" s="42"/>
+      <c r="K299" s="44"/>
+      <c r="N299" s="44"/>
+      <c r="S299" s="44"/>
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
@@ -24915,9 +24915,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K300" s="42"/>
-      <c r="N300" s="42"/>
-      <c r="S300" s="42"/>
+      <c r="K300" s="44"/>
+      <c r="N300" s="44"/>
+      <c r="S300" s="44"/>
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
@@ -24955,9 +24955,9 @@
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="K301" s="42"/>
-      <c r="N301" s="42"/>
-      <c r="S301" s="42"/>
+      <c r="K301" s="44"/>
+      <c r="N301" s="44"/>
+      <c r="S301" s="44"/>
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
@@ -24995,9 +24995,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K302" s="42"/>
-      <c r="N302" s="42"/>
-      <c r="S302" s="42"/>
+      <c r="K302" s="44"/>
+      <c r="N302" s="44"/>
+      <c r="S302" s="44"/>
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
@@ -25035,9 +25035,9 @@
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="K303" s="42"/>
-      <c r="N303" s="42"/>
-      <c r="S303" s="42"/>
+      <c r="K303" s="44"/>
+      <c r="N303" s="44"/>
+      <c r="S303" s="44"/>
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
@@ -25075,9 +25075,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K304" s="42"/>
-      <c r="N304" s="42"/>
-      <c r="S304" s="42"/>
+      <c r="K304" s="44"/>
+      <c r="N304" s="44"/>
+      <c r="S304" s="44"/>
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
@@ -25115,9 +25115,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K305" s="42"/>
-      <c r="N305" s="42"/>
-      <c r="S305" s="42"/>
+      <c r="K305" s="44"/>
+      <c r="N305" s="44"/>
+      <c r="S305" s="44"/>
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
@@ -25155,9 +25155,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K306" s="42"/>
-      <c r="N306" s="42"/>
-      <c r="S306" s="42"/>
+      <c r="K306" s="44"/>
+      <c r="N306" s="44"/>
+      <c r="S306" s="44"/>
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
@@ -25195,9 +25195,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K307" s="42"/>
-      <c r="N307" s="42"/>
-      <c r="S307" s="42"/>
+      <c r="K307" s="44"/>
+      <c r="N307" s="44"/>
+      <c r="S307" s="44"/>
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
@@ -25235,9 +25235,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K308" s="42"/>
-      <c r="N308" s="42"/>
-      <c r="S308" s="42"/>
+      <c r="K308" s="44"/>
+      <c r="N308" s="44"/>
+      <c r="S308" s="44"/>
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
@@ -25275,9 +25275,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K309" s="42"/>
-      <c r="N309" s="42"/>
-      <c r="S309" s="42"/>
+      <c r="K309" s="44"/>
+      <c r="N309" s="44"/>
+      <c r="S309" s="44"/>
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
@@ -25315,9 +25315,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K310" s="42"/>
-      <c r="N310" s="42"/>
-      <c r="S310" s="42"/>
+      <c r="K310" s="44"/>
+      <c r="N310" s="44"/>
+      <c r="S310" s="44"/>
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
@@ -25355,9 +25355,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K311" s="42"/>
-      <c r="N311" s="42"/>
-      <c r="S311" s="42"/>
+      <c r="K311" s="44"/>
+      <c r="N311" s="44"/>
+      <c r="S311" s="44"/>
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
@@ -25395,9 +25395,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K312" s="42"/>
-      <c r="N312" s="42"/>
-      <c r="S312" s="42"/>
+      <c r="K312" s="44"/>
+      <c r="N312" s="44"/>
+      <c r="S312" s="44"/>
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
@@ -25435,9 +25435,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K313" s="42"/>
-      <c r="N313" s="42"/>
-      <c r="S313" s="42"/>
+      <c r="K313" s="44"/>
+      <c r="N313" s="44"/>
+      <c r="S313" s="44"/>
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
@@ -25475,9 +25475,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K314" s="42"/>
-      <c r="N314" s="42"/>
-      <c r="S314" s="42"/>
+      <c r="K314" s="44"/>
+      <c r="N314" s="44"/>
+      <c r="S314" s="44"/>
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
@@ -25515,9 +25515,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K315" s="42"/>
-      <c r="N315" s="42"/>
-      <c r="S315" s="42"/>
+      <c r="K315" s="44"/>
+      <c r="N315" s="44"/>
+      <c r="S315" s="44"/>
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
@@ -25555,9 +25555,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K316" s="42"/>
-      <c r="N316" s="42"/>
-      <c r="S316" s="42"/>
+      <c r="K316" s="44"/>
+      <c r="N316" s="44"/>
+      <c r="S316" s="44"/>
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
@@ -25595,9 +25595,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K317" s="42"/>
-      <c r="N317" s="42"/>
-      <c r="S317" s="42"/>
+      <c r="K317" s="44"/>
+      <c r="N317" s="44"/>
+      <c r="S317" s="44"/>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
@@ -25635,9 +25635,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K318" s="42"/>
-      <c r="N318" s="42"/>
-      <c r="S318" s="42"/>
+      <c r="K318" s="44"/>
+      <c r="N318" s="44"/>
+      <c r="S318" s="44"/>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
@@ -25675,9 +25675,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K319" s="42"/>
-      <c r="N319" s="42"/>
-      <c r="S319" s="42"/>
+      <c r="K319" s="44"/>
+      <c r="N319" s="44"/>
+      <c r="S319" s="44"/>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
@@ -25715,9 +25715,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K320" s="42"/>
-      <c r="N320" s="42"/>
-      <c r="S320" s="42"/>
+      <c r="K320" s="44"/>
+      <c r="N320" s="44"/>
+      <c r="S320" s="44"/>
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
@@ -25755,9 +25755,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K321" s="42"/>
-      <c r="N321" s="42"/>
-      <c r="S321" s="42"/>
+      <c r="K321" s="44"/>
+      <c r="N321" s="44"/>
+      <c r="S321" s="44"/>
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
@@ -25795,9 +25795,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K322" s="42"/>
-      <c r="N322" s="42"/>
-      <c r="S322" s="42"/>
+      <c r="K322" s="44"/>
+      <c r="N322" s="44"/>
+      <c r="S322" s="44"/>
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
@@ -25835,9 +25835,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K323" s="42"/>
-      <c r="N323" s="42"/>
-      <c r="S323" s="42"/>
+      <c r="K323" s="44"/>
+      <c r="N323" s="44"/>
+      <c r="S323" s="44"/>
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
@@ -25875,9 +25875,9 @@
         <f t="shared" ref="J324:J387" si="38">(I324-H324)*24</f>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K324" s="42"/>
-      <c r="N324" s="42"/>
-      <c r="S324" s="42"/>
+      <c r="K324" s="44"/>
+      <c r="N324" s="44"/>
+      <c r="S324" s="44"/>
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
@@ -25915,9 +25915,9 @@
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="K325" s="42"/>
-      <c r="N325" s="42"/>
-      <c r="S325" s="42"/>
+      <c r="K325" s="44"/>
+      <c r="N325" s="44"/>
+      <c r="S325" s="44"/>
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
@@ -25955,9 +25955,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K326" s="42"/>
-      <c r="N326" s="42"/>
-      <c r="S326" s="42"/>
+      <c r="K326" s="44"/>
+      <c r="N326" s="44"/>
+      <c r="S326" s="44"/>
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
@@ -25995,9 +25995,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K327" s="42"/>
-      <c r="N327" s="42"/>
-      <c r="S327" s="42"/>
+      <c r="K327" s="44"/>
+      <c r="N327" s="44"/>
+      <c r="S327" s="44"/>
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
@@ -26035,9 +26035,9 @@
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="K328" s="42"/>
-      <c r="N328" s="42"/>
-      <c r="S328" s="42"/>
+      <c r="K328" s="44"/>
+      <c r="N328" s="44"/>
+      <c r="S328" s="44"/>
     </row>
     <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
@@ -26075,9 +26075,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K329" s="42"/>
-      <c r="N329" s="42"/>
-      <c r="S329" s="42"/>
+      <c r="K329" s="44"/>
+      <c r="N329" s="44"/>
+      <c r="S329" s="44"/>
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
@@ -26115,9 +26115,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K330" s="42"/>
-      <c r="N330" s="42"/>
-      <c r="S330" s="42"/>
+      <c r="K330" s="44"/>
+      <c r="N330" s="44"/>
+      <c r="S330" s="44"/>
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
@@ -26155,9 +26155,9 @@
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="K331" s="42"/>
-      <c r="N331" s="42"/>
-      <c r="S331" s="42"/>
+      <c r="K331" s="44"/>
+      <c r="N331" s="44"/>
+      <c r="S331" s="44"/>
     </row>
     <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
@@ -26195,9 +26195,9 @@
         <f t="shared" si="38"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="K332" s="42"/>
-      <c r="N332" s="42"/>
-      <c r="S332" s="42"/>
+      <c r="K332" s="44"/>
+      <c r="N332" s="44"/>
+      <c r="S332" s="44"/>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
@@ -26235,9 +26235,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K333" s="42"/>
-      <c r="N333" s="42"/>
-      <c r="S333" s="42"/>
+      <c r="K333" s="44"/>
+      <c r="N333" s="44"/>
+      <c r="S333" s="44"/>
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
@@ -26275,9 +26275,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K334" s="42"/>
-      <c r="N334" s="42"/>
-      <c r="S334" s="42"/>
+      <c r="K334" s="44"/>
+      <c r="N334" s="44"/>
+      <c r="S334" s="44"/>
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
@@ -26315,9 +26315,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K335" s="42"/>
-      <c r="N335" s="42"/>
-      <c r="S335" s="42"/>
+      <c r="K335" s="44"/>
+      <c r="N335" s="44"/>
+      <c r="S335" s="44"/>
     </row>
     <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
@@ -26355,9 +26355,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K336" s="42"/>
-      <c r="N336" s="42"/>
-      <c r="S336" s="42"/>
+      <c r="K336" s="44"/>
+      <c r="N336" s="44"/>
+      <c r="S336" s="44"/>
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
@@ -26395,9 +26395,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K337" s="42"/>
-      <c r="N337" s="42"/>
-      <c r="S337" s="42"/>
+      <c r="K337" s="44"/>
+      <c r="N337" s="44"/>
+      <c r="S337" s="44"/>
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
@@ -26435,9 +26435,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K338" s="42"/>
-      <c r="N338" s="42"/>
-      <c r="S338" s="42"/>
+      <c r="K338" s="44"/>
+      <c r="N338" s="44"/>
+      <c r="S338" s="44"/>
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
@@ -26475,9 +26475,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K339" s="42"/>
-      <c r="N339" s="42"/>
-      <c r="S339" s="42"/>
+      <c r="K339" s="44"/>
+      <c r="N339" s="44"/>
+      <c r="S339" s="44"/>
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
@@ -26515,9 +26515,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K340" s="42"/>
-      <c r="N340" s="42"/>
-      <c r="S340" s="42"/>
+      <c r="K340" s="44"/>
+      <c r="N340" s="44"/>
+      <c r="S340" s="44"/>
     </row>
     <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
@@ -26555,9 +26555,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K341" s="42"/>
-      <c r="N341" s="42"/>
-      <c r="S341" s="42"/>
+      <c r="K341" s="44"/>
+      <c r="N341" s="44"/>
+      <c r="S341" s="44"/>
     </row>
     <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
@@ -26595,9 +26595,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K342" s="42"/>
-      <c r="N342" s="42"/>
-      <c r="S342" s="42"/>
+      <c r="K342" s="44"/>
+      <c r="N342" s="44"/>
+      <c r="S342" s="44"/>
     </row>
     <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
@@ -26635,9 +26635,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K343" s="42"/>
-      <c r="N343" s="42"/>
-      <c r="S343" s="42"/>
+      <c r="K343" s="44"/>
+      <c r="N343" s="44"/>
+      <c r="S343" s="44"/>
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
@@ -26675,9 +26675,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K344" s="42"/>
-      <c r="N344" s="42"/>
-      <c r="S344" s="42"/>
+      <c r="K344" s="44"/>
+      <c r="N344" s="44"/>
+      <c r="S344" s="44"/>
     </row>
     <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
@@ -26715,9 +26715,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K345" s="42"/>
-      <c r="N345" s="42"/>
-      <c r="S345" s="42"/>
+      <c r="K345" s="44"/>
+      <c r="N345" s="44"/>
+      <c r="S345" s="44"/>
     </row>
     <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
@@ -26755,9 +26755,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K346" s="42"/>
-      <c r="N346" s="42"/>
-      <c r="S346" s="42"/>
+      <c r="K346" s="44"/>
+      <c r="N346" s="44"/>
+      <c r="S346" s="44"/>
     </row>
     <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
@@ -26795,9 +26795,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K347" s="42"/>
-      <c r="N347" s="42"/>
-      <c r="S347" s="42"/>
+      <c r="K347" s="44"/>
+      <c r="N347" s="44"/>
+      <c r="S347" s="44"/>
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
@@ -26835,9 +26835,9 @@
         <f t="shared" si="38"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="K348" s="42"/>
-      <c r="N348" s="42"/>
-      <c r="S348" s="42"/>
+      <c r="K348" s="44"/>
+      <c r="N348" s="44"/>
+      <c r="S348" s="44"/>
     </row>
     <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
@@ -26875,9 +26875,9 @@
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="K349" s="42"/>
-      <c r="N349" s="42"/>
-      <c r="S349" s="42"/>
+      <c r="K349" s="44"/>
+      <c r="N349" s="44"/>
+      <c r="S349" s="44"/>
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
@@ -26915,9 +26915,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K350" s="42"/>
-      <c r="N350" s="42"/>
-      <c r="S350" s="42"/>
+      <c r="K350" s="44"/>
+      <c r="N350" s="44"/>
+      <c r="S350" s="44"/>
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
@@ -26955,9 +26955,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K351" s="42"/>
-      <c r="N351" s="42"/>
-      <c r="S351" s="42"/>
+      <c r="K351" s="44"/>
+      <c r="N351" s="44"/>
+      <c r="S351" s="44"/>
     </row>
     <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
@@ -26995,9 +26995,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K352" s="42"/>
-      <c r="N352" s="42"/>
-      <c r="S352" s="42"/>
+      <c r="K352" s="44"/>
+      <c r="N352" s="44"/>
+      <c r="S352" s="44"/>
     </row>
     <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
@@ -27035,9 +27035,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K353" s="42"/>
-      <c r="N353" s="42"/>
-      <c r="S353" s="42"/>
+      <c r="K353" s="44"/>
+      <c r="N353" s="44"/>
+      <c r="S353" s="44"/>
     </row>
     <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
@@ -27075,9 +27075,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K354" s="42"/>
-      <c r="N354" s="42"/>
-      <c r="S354" s="42"/>
+      <c r="K354" s="44"/>
+      <c r="N354" s="44"/>
+      <c r="S354" s="44"/>
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
@@ -27115,9 +27115,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K355" s="42"/>
-      <c r="N355" s="42"/>
-      <c r="S355" s="42"/>
+      <c r="K355" s="44"/>
+      <c r="N355" s="44"/>
+      <c r="S355" s="44"/>
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
@@ -27155,9 +27155,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K356" s="42"/>
-      <c r="N356" s="42"/>
-      <c r="S356" s="42"/>
+      <c r="K356" s="44"/>
+      <c r="N356" s="44"/>
+      <c r="S356" s="44"/>
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
@@ -27195,9 +27195,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K357" s="42"/>
-      <c r="N357" s="42"/>
-      <c r="S357" s="42"/>
+      <c r="K357" s="44"/>
+      <c r="N357" s="44"/>
+      <c r="S357" s="44"/>
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
@@ -27235,9 +27235,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K358" s="42"/>
-      <c r="N358" s="42"/>
-      <c r="S358" s="42"/>
+      <c r="K358" s="44"/>
+      <c r="N358" s="44"/>
+      <c r="S358" s="44"/>
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
@@ -27275,9 +27275,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K359" s="42"/>
-      <c r="N359" s="42"/>
-      <c r="S359" s="42"/>
+      <c r="K359" s="44"/>
+      <c r="N359" s="44"/>
+      <c r="S359" s="44"/>
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
@@ -27315,9 +27315,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K360" s="42"/>
-      <c r="N360" s="42"/>
-      <c r="S360" s="42"/>
+      <c r="K360" s="44"/>
+      <c r="N360" s="44"/>
+      <c r="S360" s="44"/>
     </row>
     <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
@@ -27355,9 +27355,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K361" s="42"/>
-      <c r="N361" s="42"/>
-      <c r="S361" s="42"/>
+      <c r="K361" s="44"/>
+      <c r="N361" s="44"/>
+      <c r="S361" s="44"/>
     </row>
     <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
@@ -27395,9 +27395,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K362" s="42"/>
-      <c r="N362" s="42"/>
-      <c r="S362" s="42"/>
+      <c r="K362" s="44"/>
+      <c r="N362" s="44"/>
+      <c r="S362" s="44"/>
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
@@ -27435,9 +27435,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K363" s="42"/>
-      <c r="N363" s="42"/>
-      <c r="S363" s="42"/>
+      <c r="K363" s="44"/>
+      <c r="N363" s="44"/>
+      <c r="S363" s="44"/>
     </row>
     <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
@@ -27475,9 +27475,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K364" s="42"/>
-      <c r="N364" s="42"/>
-      <c r="S364" s="42"/>
+      <c r="K364" s="44"/>
+      <c r="N364" s="44"/>
+      <c r="S364" s="44"/>
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
@@ -27515,9 +27515,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K365" s="42"/>
-      <c r="N365" s="42"/>
-      <c r="S365" s="42"/>
+      <c r="K365" s="44"/>
+      <c r="N365" s="44"/>
+      <c r="S365" s="44"/>
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
@@ -27555,9 +27555,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K366" s="42"/>
-      <c r="N366" s="42"/>
-      <c r="S366" s="42"/>
+      <c r="K366" s="44"/>
+      <c r="N366" s="44"/>
+      <c r="S366" s="44"/>
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
@@ -27595,9 +27595,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K367" s="42"/>
-      <c r="N367" s="42"/>
-      <c r="S367" s="42"/>
+      <c r="K367" s="44"/>
+      <c r="N367" s="44"/>
+      <c r="S367" s="44"/>
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
@@ -27635,9 +27635,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K368" s="42"/>
-      <c r="N368" s="42"/>
-      <c r="S368" s="42"/>
+      <c r="K368" s="44"/>
+      <c r="N368" s="44"/>
+      <c r="S368" s="44"/>
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
@@ -27675,9 +27675,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K369" s="42"/>
-      <c r="N369" s="42"/>
-      <c r="S369" s="42"/>
+      <c r="K369" s="44"/>
+      <c r="N369" s="44"/>
+      <c r="S369" s="44"/>
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
@@ -27715,9 +27715,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K370" s="42"/>
-      <c r="N370" s="42"/>
-      <c r="S370" s="42"/>
+      <c r="K370" s="44"/>
+      <c r="N370" s="44"/>
+      <c r="S370" s="44"/>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
@@ -27755,9 +27755,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K371" s="42"/>
-      <c r="N371" s="42"/>
-      <c r="S371" s="42"/>
+      <c r="K371" s="44"/>
+      <c r="N371" s="44"/>
+      <c r="S371" s="44"/>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
@@ -27795,9 +27795,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K372" s="42"/>
-      <c r="N372" s="42"/>
-      <c r="S372" s="42"/>
+      <c r="K372" s="44"/>
+      <c r="N372" s="44"/>
+      <c r="S372" s="44"/>
     </row>
     <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
@@ -27835,9 +27835,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K373" s="42"/>
-      <c r="N373" s="42"/>
-      <c r="S373" s="42"/>
+      <c r="K373" s="44"/>
+      <c r="N373" s="44"/>
+      <c r="S373" s="44"/>
     </row>
     <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
@@ -27875,9 +27875,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K374" s="42"/>
-      <c r="N374" s="42"/>
-      <c r="S374" s="42"/>
+      <c r="K374" s="44"/>
+      <c r="N374" s="44"/>
+      <c r="S374" s="44"/>
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
@@ -27915,9 +27915,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K375" s="42"/>
-      <c r="N375" s="42"/>
-      <c r="S375" s="42"/>
+      <c r="K375" s="44"/>
+      <c r="N375" s="44"/>
+      <c r="S375" s="44"/>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
@@ -27955,9 +27955,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K376" s="42"/>
-      <c r="N376" s="42"/>
-      <c r="S376" s="42"/>
+      <c r="K376" s="44"/>
+      <c r="N376" s="44"/>
+      <c r="S376" s="44"/>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
@@ -27995,9 +27995,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K377" s="42"/>
-      <c r="N377" s="42"/>
-      <c r="S377" s="42"/>
+      <c r="K377" s="44"/>
+      <c r="N377" s="44"/>
+      <c r="S377" s="44"/>
     </row>
     <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
@@ -28035,9 +28035,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K378" s="42"/>
-      <c r="N378" s="42"/>
-      <c r="S378" s="42"/>
+      <c r="K378" s="44"/>
+      <c r="N378" s="44"/>
+      <c r="S378" s="44"/>
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
@@ -28075,9 +28075,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K379" s="42"/>
-      <c r="N379" s="42"/>
-      <c r="S379" s="42"/>
+      <c r="K379" s="44"/>
+      <c r="N379" s="44"/>
+      <c r="S379" s="44"/>
     </row>
     <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
@@ -28115,9 +28115,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K380" s="42"/>
-      <c r="N380" s="42"/>
-      <c r="S380" s="42"/>
+      <c r="K380" s="44"/>
+      <c r="N380" s="44"/>
+      <c r="S380" s="44"/>
     </row>
     <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
@@ -28155,9 +28155,9 @@
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="K381" s="42"/>
-      <c r="N381" s="42"/>
-      <c r="S381" s="42"/>
+      <c r="K381" s="44"/>
+      <c r="N381" s="44"/>
+      <c r="S381" s="44"/>
     </row>
     <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
@@ -28195,9 +28195,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K382" s="42"/>
-      <c r="N382" s="42"/>
-      <c r="S382" s="42"/>
+      <c r="K382" s="44"/>
+      <c r="N382" s="44"/>
+      <c r="S382" s="44"/>
     </row>
     <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
@@ -28235,9 +28235,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K383" s="42"/>
-      <c r="N383" s="42"/>
-      <c r="S383" s="42"/>
+      <c r="K383" s="44"/>
+      <c r="N383" s="44"/>
+      <c r="S383" s="44"/>
     </row>
     <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
@@ -28275,9 +28275,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K384" s="42"/>
-      <c r="N384" s="42"/>
-      <c r="S384" s="42"/>
+      <c r="K384" s="44"/>
+      <c r="N384" s="44"/>
+      <c r="S384" s="44"/>
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
@@ -28315,9 +28315,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K385" s="42"/>
-      <c r="N385" s="42"/>
-      <c r="S385" s="42"/>
+      <c r="K385" s="44"/>
+      <c r="N385" s="44"/>
+      <c r="S385" s="44"/>
     </row>
     <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
@@ -28355,9 +28355,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K386" s="42"/>
-      <c r="N386" s="42"/>
-      <c r="S386" s="42"/>
+      <c r="K386" s="44"/>
+      <c r="N386" s="44"/>
+      <c r="S386" s="44"/>
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
@@ -28395,9 +28395,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K387" s="42"/>
-      <c r="N387" s="42"/>
-      <c r="S387" s="42"/>
+      <c r="K387" s="44"/>
+      <c r="N387" s="44"/>
+      <c r="S387" s="44"/>
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
@@ -28435,9 +28435,9 @@
         <f t="shared" ref="J388:J411" si="42">(I388-H388)*24</f>
         <v>3</v>
       </c>
-      <c r="K388" s="42"/>
-      <c r="N388" s="42"/>
-      <c r="S388" s="42"/>
+      <c r="K388" s="44"/>
+      <c r="N388" s="44"/>
+      <c r="S388" s="44"/>
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
@@ -28475,9 +28475,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K389" s="42"/>
-      <c r="N389" s="42"/>
-      <c r="S389" s="42"/>
+      <c r="K389" s="44"/>
+      <c r="N389" s="44"/>
+      <c r="S389" s="44"/>
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
@@ -28515,9 +28515,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K390" s="42"/>
-      <c r="N390" s="42"/>
-      <c r="S390" s="42"/>
+      <c r="K390" s="44"/>
+      <c r="N390" s="44"/>
+      <c r="S390" s="44"/>
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
@@ -28555,9 +28555,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K391" s="42"/>
-      <c r="N391" s="42"/>
-      <c r="S391" s="42"/>
+      <c r="K391" s="44"/>
+      <c r="N391" s="44"/>
+      <c r="S391" s="44"/>
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
@@ -28595,9 +28595,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K392" s="42"/>
-      <c r="N392" s="42"/>
-      <c r="S392" s="42"/>
+      <c r="K392" s="44"/>
+      <c r="N392" s="44"/>
+      <c r="S392" s="44"/>
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
@@ -28635,9 +28635,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K393" s="42"/>
-      <c r="N393" s="42"/>
-      <c r="S393" s="42"/>
+      <c r="K393" s="44"/>
+      <c r="N393" s="44"/>
+      <c r="S393" s="44"/>
     </row>
     <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
@@ -28675,9 +28675,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K394" s="42"/>
-      <c r="N394" s="42"/>
-      <c r="S394" s="42"/>
+      <c r="K394" s="44"/>
+      <c r="N394" s="44"/>
+      <c r="S394" s="44"/>
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
@@ -28715,9 +28715,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K395" s="42"/>
-      <c r="N395" s="42"/>
-      <c r="S395" s="42"/>
+      <c r="K395" s="44"/>
+      <c r="N395" s="44"/>
+      <c r="S395" s="44"/>
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
@@ -28755,9 +28755,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K396" s="42"/>
-      <c r="N396" s="42"/>
-      <c r="S396" s="42"/>
+      <c r="K396" s="44"/>
+      <c r="N396" s="44"/>
+      <c r="S396" s="44"/>
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
@@ -28795,9 +28795,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K397" s="42"/>
-      <c r="N397" s="42"/>
-      <c r="S397" s="42"/>
+      <c r="K397" s="44"/>
+      <c r="N397" s="44"/>
+      <c r="S397" s="44"/>
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
@@ -28835,9 +28835,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K398" s="42"/>
-      <c r="N398" s="42"/>
-      <c r="S398" s="42"/>
+      <c r="K398" s="44"/>
+      <c r="N398" s="44"/>
+      <c r="S398" s="44"/>
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
@@ -28875,9 +28875,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K399" s="42"/>
-      <c r="N399" s="42"/>
-      <c r="S399" s="42"/>
+      <c r="K399" s="44"/>
+      <c r="N399" s="44"/>
+      <c r="S399" s="44"/>
     </row>
     <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
@@ -28915,9 +28915,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K400" s="42"/>
-      <c r="N400" s="42"/>
-      <c r="S400" s="42"/>
+      <c r="K400" s="44"/>
+      <c r="N400" s="44"/>
+      <c r="S400" s="44"/>
     </row>
     <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
@@ -28955,9 +28955,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K401" s="42"/>
-      <c r="N401" s="42"/>
-      <c r="S401" s="42"/>
+      <c r="K401" s="44"/>
+      <c r="N401" s="44"/>
+      <c r="S401" s="44"/>
     </row>
     <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
@@ -28995,9 +28995,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K402" s="42"/>
-      <c r="N402" s="42"/>
-      <c r="S402" s="42"/>
+      <c r="K402" s="44"/>
+      <c r="N402" s="44"/>
+      <c r="S402" s="44"/>
     </row>
     <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
@@ -29035,9 +29035,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K403" s="42"/>
-      <c r="N403" s="42"/>
-      <c r="S403" s="42"/>
+      <c r="K403" s="44"/>
+      <c r="N403" s="44"/>
+      <c r="S403" s="44"/>
     </row>
     <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
@@ -29075,9 +29075,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K404" s="42"/>
-      <c r="N404" s="42"/>
-      <c r="S404" s="42"/>
+      <c r="K404" s="44"/>
+      <c r="N404" s="44"/>
+      <c r="S404" s="44"/>
     </row>
     <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
@@ -29115,9 +29115,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K405" s="42"/>
-      <c r="N405" s="42"/>
-      <c r="S405" s="42"/>
+      <c r="K405" s="44"/>
+      <c r="N405" s="44"/>
+      <c r="S405" s="44"/>
     </row>
     <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
@@ -29155,9 +29155,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K406" s="42"/>
-      <c r="N406" s="42"/>
-      <c r="S406" s="42"/>
+      <c r="K406" s="44"/>
+      <c r="N406" s="44"/>
+      <c r="S406" s="44"/>
     </row>
     <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
@@ -29195,9 +29195,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K407" s="42"/>
-      <c r="N407" s="42"/>
-      <c r="S407" s="42"/>
+      <c r="K407" s="44"/>
+      <c r="N407" s="44"/>
+      <c r="S407" s="44"/>
     </row>
     <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
@@ -29235,9 +29235,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K408" s="42"/>
-      <c r="N408" s="42"/>
-      <c r="S408" s="42"/>
+      <c r="K408" s="44"/>
+      <c r="N408" s="44"/>
+      <c r="S408" s="44"/>
     </row>
     <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
@@ -29275,9 +29275,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K409" s="42"/>
-      <c r="N409" s="42"/>
-      <c r="S409" s="42"/>
+      <c r="K409" s="44"/>
+      <c r="N409" s="44"/>
+      <c r="S409" s="44"/>
     </row>
     <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
@@ -29315,9 +29315,9 @@
         <f t="shared" si="42"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K410" s="42"/>
-      <c r="N410" s="42"/>
-      <c r="S410" s="42"/>
+      <c r="K410" s="44"/>
+      <c r="N410" s="44"/>
+      <c r="S410" s="44"/>
     </row>
     <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
@@ -29355,57 +29355,57 @@
         <f t="shared" si="42"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K411" s="42"/>
-      <c r="N411" s="42"/>
-      <c r="S411" s="42"/>
+      <c r="K411" s="44"/>
+      <c r="N411" s="44"/>
+      <c r="S411" s="44"/>
     </row>
     <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C412" t="s">
         <v>71</v>
       </c>
-      <c r="K412" s="42"/>
-      <c r="N412" s="42"/>
-      <c r="S412" s="42"/>
+      <c r="K412" s="44"/>
+      <c r="N412" s="44"/>
+      <c r="S412" s="44"/>
     </row>
     <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C413" t="s">
         <v>47</v>
       </c>
-      <c r="K413" s="42"/>
-      <c r="N413" s="42"/>
-      <c r="S413" s="42"/>
+      <c r="K413" s="44"/>
+      <c r="N413" s="44"/>
+      <c r="S413" s="44"/>
     </row>
     <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C414" t="s">
         <v>201</v>
       </c>
-      <c r="K414" s="42"/>
-      <c r="N414" s="42"/>
-      <c r="S414" s="42"/>
+      <c r="K414" s="44"/>
+      <c r="N414" s="44"/>
+      <c r="S414" s="44"/>
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C415" t="s">
         <v>71</v>
       </c>
-      <c r="K415" s="42"/>
-      <c r="N415" s="42"/>
-      <c r="S415" s="42"/>
+      <c r="K415" s="44"/>
+      <c r="N415" s="44"/>
+      <c r="S415" s="44"/>
     </row>
     <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C416" t="s">
         <v>208</v>
       </c>
-      <c r="K416" s="42"/>
-      <c r="N416" s="42"/>
-      <c r="S416" s="42"/>
+      <c r="K416" s="44"/>
+      <c r="N416" s="44"/>
+      <c r="S416" s="44"/>
     </row>
     <row r="417" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C417" t="s">
         <v>220</v>
       </c>
-      <c r="K417" s="43"/>
-      <c r="N417" s="43"/>
-      <c r="S417" s="43"/>
+      <c r="K417" s="45"/>
+      <c r="N417" s="45"/>
+      <c r="S417" s="45"/>
     </row>
   </sheetData>
   <sortState ref="B9:C593">
@@ -29413,18 +29413,18 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="AC1:AC1048576"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="X1:X1048576"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="K1:K1048576"/>
+    <mergeCell ref="S1:S1048576"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="N1:N1048576"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="AC1:AC1048576"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="X1:X1048576"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="K1:K1048576"/>
-    <mergeCell ref="S1:S1048576"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29435,8 +29435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300793FE-19EF-405E-BC33-F239AE127AED}">
   <dimension ref="A1:AD374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29457,17 +29457,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>399</v>
       </c>
-      <c r="H1" s="46"/>
+      <c r="H1" s="40"/>
       <c r="N1" s="35" t="s">
         <v>402</v>
       </c>

--- a/Documentation/Miscellaneous/Schedule of Term 3 (2017-2018).xlsx
+++ b/Documentation/Miscellaneous/Schedule of Term 3 (2017-2018).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JM\Documents\IOT-FMS\trunk\Documentation\Miscellaneous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JM\Desktop\IOT-FMS\trunk\Documentation\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{691EC7E6-2517-413F-9D46-EABC48631AC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6418BD7A-8635-491D-AAB8-9524F85A8428}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="10275" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1846,7 +1846,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1929,6 +1929,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="19" fillId="6" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1944,30 +1962,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="12" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9669,24 +9671,24 @@
     <col min="8" max="8" width="10.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="46"/>
+    <col min="11" max="11" width="9.140625" style="38"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="46"/>
+    <col min="14" max="14" width="9.140625" style="38"/>
     <col min="15" max="15" width="19.85546875" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="46"/>
+    <col min="19" max="19" width="9.140625" style="38"/>
     <col min="20" max="20" width="20" customWidth="1"/>
     <col min="21" max="21" width="8" customWidth="1"/>
     <col min="22" max="22" width="13.5703125" customWidth="1"/>
     <col min="23" max="23" width="14.5703125" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="46"/>
+    <col min="24" max="24" width="9.140625" style="38"/>
     <col min="25" max="25" width="27.140625" customWidth="1"/>
     <col min="26" max="26" width="17" customWidth="1"/>
     <col min="27" max="27" width="25" customWidth="1"/>
     <col min="28" max="28" width="20.42578125" customWidth="1"/>
-    <col min="29" max="29" width="9" style="46" customWidth="1"/>
+    <col min="29" max="29" width="9" style="38" customWidth="1"/>
     <col min="30" max="30" width="14.85546875" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="13.28515625" hidden="1" customWidth="1"/>
     <col min="32" max="33" width="0" hidden="1" customWidth="1"/>
@@ -9695,43 +9697,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="47" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="39" t="s">
         <v>390</v>
       </c>
       <c r="M1" s="49"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
       <c r="R1" s="49"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="48" t="s">
+      <c r="S1" s="41"/>
+      <c r="T1" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="Y1" s="47" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="Y1" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -9740,25 +9742,25 @@
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="K2" s="44"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="N2" s="44"/>
+      <c r="N2" s="42"/>
       <c r="O2" s="12" t="s">
         <v>378</v>
       </c>
@@ -9771,7 +9773,7 @@
       <c r="R2" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="S2" s="44"/>
+      <c r="S2" s="42"/>
       <c r="T2" s="8" t="s">
         <v>378</v>
       </c>
@@ -9830,7 +9832,7 @@
         <f>(I3-H3)*24</f>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="42"/>
       <c r="L3" s="6">
         <v>302</v>
       </c>
@@ -9838,7 +9840,7 @@
         <f>SUMIF($A$3:$A$411,L3,$J$3:$J$411)</f>
         <v>7.9999999999999982</v>
       </c>
-      <c r="N3" s="44"/>
+      <c r="N3" s="42"/>
       <c r="O3" s="6">
         <v>2</v>
       </c>
@@ -9851,7 +9853,7 @@
       <c r="R3" s="6">
         <v>31</v>
       </c>
-      <c r="S3" s="44"/>
+      <c r="S3" s="42"/>
       <c r="T3" s="6">
         <f>($M3/2)*15</f>
         <v>59.999999999999986</v>
@@ -9945,7 +9947,7 @@
         <f t="shared" ref="J4:J67" si="5">(I4-H4)*24</f>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="6">
         <v>304</v>
       </c>
@@ -9953,7 +9955,7 @@
         <f>SUMIF($A$3:$A$411,L4,$J$3:$J$411)</f>
         <v>18</v>
       </c>
-      <c r="N4" s="44"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="6">
         <v>2</v>
       </c>
@@ -9966,7 +9968,7 @@
       <c r="R4" s="6">
         <v>0</v>
       </c>
-      <c r="S4" s="44"/>
+      <c r="S4" s="42"/>
       <c r="T4" s="6">
         <f t="shared" ref="T4:T44" si="6">($M4/2)*15</f>
         <v>135</v>
@@ -10060,7 +10062,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K5" s="44"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="6">
         <v>305</v>
       </c>
@@ -10068,7 +10070,7 @@
         <f t="shared" ref="M5:M50" si="18">SUMIF($A$3:$A$411,L5,$J$3:$J$411)</f>
         <v>8.0000000000000018</v>
       </c>
-      <c r="N5" s="44"/>
+      <c r="N5" s="42"/>
       <c r="O5" s="6">
         <v>2</v>
       </c>
@@ -10081,7 +10083,7 @@
       <c r="R5" s="6">
         <v>0</v>
       </c>
-      <c r="S5" s="44"/>
+      <c r="S5" s="42"/>
       <c r="T5" s="6">
         <f t="shared" si="6"/>
         <v>60.000000000000014</v>
@@ -10175,7 +10177,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="6">
         <v>306</v>
       </c>
@@ -10183,7 +10185,7 @@
         <f t="shared" si="18"/>
         <v>7.9999999999999991</v>
       </c>
-      <c r="N6" s="44"/>
+      <c r="N6" s="42"/>
       <c r="O6" s="6">
         <v>2</v>
       </c>
@@ -10196,7 +10198,7 @@
       <c r="R6" s="6">
         <v>37</v>
       </c>
-      <c r="S6" s="44"/>
+      <c r="S6" s="42"/>
       <c r="T6" s="6">
         <f t="shared" si="6"/>
         <v>59.999999999999993</v>
@@ -10283,7 +10285,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K7" s="44"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="6">
         <v>307</v>
       </c>
@@ -10291,7 +10293,7 @@
         <f t="shared" si="18"/>
         <v>8.0000000000000036</v>
       </c>
-      <c r="N7" s="44"/>
+      <c r="N7" s="42"/>
       <c r="O7" s="6">
         <v>2</v>
       </c>
@@ -10304,7 +10306,7 @@
       <c r="R7" s="6">
         <v>0</v>
       </c>
-      <c r="S7" s="44"/>
+      <c r="S7" s="42"/>
       <c r="T7" s="6">
         <f t="shared" si="6"/>
         <v>60.000000000000028</v>
@@ -10394,7 +10396,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="6">
         <v>308</v>
       </c>
@@ -10402,7 +10404,7 @@
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="N8" s="44"/>
+      <c r="N8" s="42"/>
       <c r="O8" s="6">
         <v>2</v>
       </c>
@@ -10415,7 +10417,7 @@
       <c r="R8" s="6">
         <v>37</v>
       </c>
-      <c r="S8" s="44"/>
+      <c r="S8" s="42"/>
       <c r="T8" s="6">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -10502,7 +10504,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K9" s="44"/>
+      <c r="K9" s="42"/>
       <c r="L9" s="6">
         <v>309</v>
       </c>
@@ -10510,7 +10512,7 @@
         <f t="shared" si="18"/>
         <v>12.000000000000004</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="42"/>
       <c r="O9" s="6">
         <v>2</v>
       </c>
@@ -10523,7 +10525,7 @@
       <c r="R9" s="6">
         <v>0</v>
       </c>
-      <c r="S9" s="44"/>
+      <c r="S9" s="42"/>
       <c r="T9" s="6">
         <f t="shared" si="6"/>
         <v>90.000000000000028</v>
@@ -10613,7 +10615,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="6">
         <v>314</v>
       </c>
@@ -10621,7 +10623,7 @@
         <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="N10" s="44"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="6">
         <v>2</v>
       </c>
@@ -10634,7 +10636,7 @@
       <c r="R10" s="6">
         <v>37</v>
       </c>
-      <c r="S10" s="44"/>
+      <c r="S10" s="42"/>
       <c r="T10" s="6">
         <f t="shared" si="6"/>
         <v>225</v>
@@ -10724,7 +10726,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K11" s="44"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="6">
         <v>316</v>
       </c>
@@ -10732,7 +10734,7 @@
         <f t="shared" si="18"/>
         <v>44</v>
       </c>
-      <c r="N11" s="44"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="6">
         <v>2</v>
       </c>
@@ -10745,7 +10747,7 @@
       <c r="R11" s="6">
         <v>38</v>
       </c>
-      <c r="S11" s="44"/>
+      <c r="S11" s="42"/>
       <c r="T11" s="6">
         <f t="shared" si="6"/>
         <v>330</v>
@@ -10839,7 +10841,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="42"/>
       <c r="L12" s="6">
         <v>318</v>
       </c>
@@ -10847,7 +10849,7 @@
         <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="N12" s="44"/>
+      <c r="N12" s="42"/>
       <c r="O12" s="6">
         <v>2</v>
       </c>
@@ -10860,7 +10862,7 @@
       <c r="R12" s="6">
         <v>33</v>
       </c>
-      <c r="S12" s="44"/>
+      <c r="S12" s="42"/>
       <c r="T12" s="6">
         <f t="shared" si="6"/>
         <v>180</v>
@@ -10951,7 +10953,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="6">
         <v>409</v>
       </c>
@@ -10959,7 +10961,7 @@
         <f t="shared" si="18"/>
         <v>8.0000000000000018</v>
       </c>
-      <c r="N13" s="44"/>
+      <c r="N13" s="42"/>
       <c r="O13" s="6">
         <v>2</v>
       </c>
@@ -10972,7 +10974,7 @@
       <c r="R13" s="6">
         <v>0</v>
       </c>
-      <c r="S13" s="44"/>
+      <c r="S13" s="42"/>
       <c r="T13" s="6">
         <f t="shared" si="6"/>
         <v>60.000000000000014</v>
@@ -11062,7 +11064,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K14" s="44"/>
+      <c r="K14" s="42"/>
       <c r="L14" s="6">
         <v>415</v>
       </c>
@@ -11070,7 +11072,7 @@
         <f t="shared" si="18"/>
         <v>3.9999999999999964</v>
       </c>
-      <c r="N14" s="44"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="6">
         <v>2</v>
       </c>
@@ -11083,7 +11085,7 @@
       <c r="R14" s="6">
         <v>0</v>
       </c>
-      <c r="S14" s="44"/>
+      <c r="S14" s="42"/>
       <c r="T14" s="6">
         <f t="shared" si="6"/>
         <v>29.999999999999972</v>
@@ -11173,7 +11175,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K15" s="44"/>
+      <c r="K15" s="42"/>
       <c r="L15" s="6">
         <v>416</v>
       </c>
@@ -11181,7 +11183,7 @@
         <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="N15" s="44"/>
+      <c r="N15" s="42"/>
       <c r="O15" s="6">
         <v>2</v>
       </c>
@@ -11194,7 +11196,7 @@
       <c r="R15" s="6">
         <v>0</v>
       </c>
-      <c r="S15" s="44"/>
+      <c r="S15" s="42"/>
       <c r="T15" s="6">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -11284,7 +11286,7 @@
         <f t="shared" si="5"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="K16" s="44"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="6">
         <v>417</v>
       </c>
@@ -11292,7 +11294,7 @@
         <f t="shared" si="18"/>
         <v>7.9999999999999991</v>
       </c>
-      <c r="N16" s="44"/>
+      <c r="N16" s="42"/>
       <c r="O16" s="6">
         <v>2</v>
       </c>
@@ -11305,7 +11307,7 @@
       <c r="R16" s="6">
         <v>0</v>
       </c>
-      <c r="S16" s="44"/>
+      <c r="S16" s="42"/>
       <c r="T16" s="6">
         <f t="shared" si="6"/>
         <v>59.999999999999993</v>
@@ -11402,7 +11404,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K17" s="44"/>
+      <c r="K17" s="42"/>
       <c r="L17" s="6">
         <v>418</v>
       </c>
@@ -11410,7 +11412,7 @@
         <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="N17" s="44"/>
+      <c r="N17" s="42"/>
       <c r="O17" s="6">
         <v>2</v>
       </c>
@@ -11423,7 +11425,7 @@
       <c r="R17" s="6">
         <v>0</v>
       </c>
-      <c r="S17" s="44"/>
+      <c r="S17" s="42"/>
       <c r="T17" s="6">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -11513,7 +11515,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K18" s="44"/>
+      <c r="K18" s="42"/>
       <c r="L18" s="6">
         <v>505</v>
       </c>
@@ -11521,7 +11523,7 @@
         <f t="shared" si="18"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="N18" s="44"/>
+      <c r="N18" s="42"/>
       <c r="O18" s="6">
         <v>2</v>
       </c>
@@ -11534,7 +11536,7 @@
       <c r="R18" s="6">
         <v>29</v>
       </c>
-      <c r="S18" s="44"/>
+      <c r="S18" s="42"/>
       <c r="T18" s="6">
         <f t="shared" si="6"/>
         <v>30.000000000000014</v>
@@ -11624,7 +11626,7 @@
         <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="6">
         <v>515</v>
       </c>
@@ -11632,7 +11634,7 @@
         <f t="shared" si="18"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="N19" s="44"/>
+      <c r="N19" s="42"/>
       <c r="O19" s="6">
         <v>2</v>
       </c>
@@ -11645,7 +11647,7 @@
       <c r="R19" s="6">
         <v>30</v>
       </c>
-      <c r="S19" s="44"/>
+      <c r="S19" s="42"/>
       <c r="T19" s="6">
         <f t="shared" si="6"/>
         <v>29.999999999999993</v>
@@ -11735,7 +11737,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="42"/>
       <c r="L20" s="6">
         <v>518</v>
       </c>
@@ -11743,7 +11745,7 @@
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="N20" s="44"/>
+      <c r="N20" s="42"/>
       <c r="O20" s="6">
         <v>2</v>
       </c>
@@ -11756,7 +11758,7 @@
       <c r="R20" s="6">
         <v>0</v>
       </c>
-      <c r="S20" s="44"/>
+      <c r="S20" s="42"/>
       <c r="T20" s="6">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -11846,7 +11848,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K21" s="44"/>
+      <c r="K21" s="42"/>
       <c r="L21" s="6">
         <v>602</v>
       </c>
@@ -11854,7 +11856,7 @@
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="N21" s="44"/>
+      <c r="N21" s="42"/>
       <c r="O21" s="6">
         <v>2</v>
       </c>
@@ -11867,7 +11869,7 @@
       <c r="R21" s="6">
         <v>32</v>
       </c>
-      <c r="S21" s="44"/>
+      <c r="S21" s="42"/>
       <c r="T21" s="6">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -11957,7 +11959,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K22" s="44"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="6">
         <v>604</v>
       </c>
@@ -11965,7 +11967,7 @@
         <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="N22" s="44"/>
+      <c r="N22" s="42"/>
       <c r="O22" s="6">
         <v>2</v>
       </c>
@@ -11978,7 +11980,7 @@
       <c r="R22" s="6">
         <v>28</v>
       </c>
-      <c r="S22" s="44"/>
+      <c r="S22" s="42"/>
       <c r="T22" s="6">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -12068,7 +12070,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K23" s="44"/>
+      <c r="K23" s="42"/>
       <c r="L23" s="6">
         <v>606</v>
       </c>
@@ -12076,7 +12078,7 @@
         <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="N23" s="44"/>
+      <c r="N23" s="42"/>
       <c r="O23" s="6">
         <v>2</v>
       </c>
@@ -12089,7 +12091,7 @@
       <c r="R23" s="6">
         <v>30</v>
       </c>
-      <c r="S23" s="44"/>
+      <c r="S23" s="42"/>
       <c r="T23" s="6">
         <f t="shared" si="6"/>
         <v>180</v>
@@ -12179,7 +12181,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K24" s="44"/>
+      <c r="K24" s="42"/>
       <c r="L24" s="6">
         <v>608</v>
       </c>
@@ -12187,7 +12189,7 @@
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="N24" s="44"/>
+      <c r="N24" s="42"/>
       <c r="O24" s="6">
         <v>2</v>
       </c>
@@ -12200,7 +12202,7 @@
       <c r="R24" s="6">
         <v>30</v>
       </c>
-      <c r="S24" s="44"/>
+      <c r="S24" s="42"/>
       <c r="T24" s="6">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -12290,7 +12292,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K25" s="44"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="6">
         <v>613</v>
       </c>
@@ -12298,7 +12300,7 @@
         <f t="shared" si="18"/>
         <v>26</v>
       </c>
-      <c r="N25" s="44"/>
+      <c r="N25" s="42"/>
       <c r="O25" s="6">
         <v>2</v>
       </c>
@@ -12311,7 +12313,7 @@
       <c r="R25" s="6">
         <v>0</v>
       </c>
-      <c r="S25" s="44"/>
+      <c r="S25" s="42"/>
       <c r="T25" s="6">
         <f t="shared" si="6"/>
         <v>195</v>
@@ -12401,7 +12403,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="42"/>
       <c r="L26" s="6">
         <v>801</v>
       </c>
@@ -12409,7 +12411,7 @@
         <f t="shared" si="18"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="42"/>
       <c r="O26" s="6">
         <v>1</v>
       </c>
@@ -12422,7 +12424,7 @@
       <c r="R26" s="6">
         <v>9</v>
       </c>
-      <c r="S26" s="44"/>
+      <c r="S26" s="42"/>
       <c r="T26" s="6">
         <f t="shared" si="6"/>
         <v>30.000000000000014</v>
@@ -12512,7 +12514,7 @@
         <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="42"/>
       <c r="L27" s="6">
         <v>802</v>
       </c>
@@ -12520,7 +12522,7 @@
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="42"/>
       <c r="O27" s="6">
         <v>2</v>
       </c>
@@ -12533,7 +12535,7 @@
       <c r="R27" s="6">
         <v>30</v>
       </c>
-      <c r="S27" s="44"/>
+      <c r="S27" s="42"/>
       <c r="T27" s="6">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -12623,7 +12625,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K28" s="44"/>
+      <c r="K28" s="42"/>
       <c r="L28" s="6">
         <v>805</v>
       </c>
@@ -12631,7 +12633,7 @@
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="N28" s="44"/>
+      <c r="N28" s="42"/>
       <c r="O28" s="6">
         <v>2</v>
       </c>
@@ -12644,7 +12646,7 @@
       <c r="R28" s="6">
         <v>7</v>
       </c>
-      <c r="S28" s="44"/>
+      <c r="S28" s="42"/>
       <c r="T28" s="6">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -12734,7 +12736,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K29" s="44"/>
+      <c r="K29" s="42"/>
       <c r="L29" s="6">
         <v>809</v>
       </c>
@@ -12742,7 +12744,7 @@
         <f t="shared" si="18"/>
         <v>42.333333333333329</v>
       </c>
-      <c r="N29" s="44"/>
+      <c r="N29" s="42"/>
       <c r="O29" s="6">
         <v>2</v>
       </c>
@@ -12755,7 +12757,7 @@
       <c r="R29" s="6">
         <v>0</v>
       </c>
-      <c r="S29" s="44"/>
+      <c r="S29" s="42"/>
       <c r="T29" s="6">
         <f t="shared" si="6"/>
         <v>317.49999999999994</v>
@@ -12845,7 +12847,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K30" s="44"/>
+      <c r="K30" s="42"/>
       <c r="L30" s="6">
         <v>811</v>
       </c>
@@ -12853,7 +12855,7 @@
         <f t="shared" si="18"/>
         <v>15.999999999999998</v>
       </c>
-      <c r="N30" s="44"/>
+      <c r="N30" s="42"/>
       <c r="O30" s="6">
         <v>2</v>
       </c>
@@ -12866,7 +12868,7 @@
       <c r="R30" s="6">
         <v>0</v>
       </c>
-      <c r="S30" s="44"/>
+      <c r="S30" s="42"/>
       <c r="T30" s="6">
         <f t="shared" si="6"/>
         <v>119.99999999999999</v>
@@ -12956,7 +12958,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K31" s="44"/>
+      <c r="K31" s="42"/>
       <c r="L31" s="6">
         <v>813</v>
       </c>
@@ -12964,7 +12966,7 @@
         <f t="shared" si="18"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="N31" s="44"/>
+      <c r="N31" s="42"/>
       <c r="O31" s="6">
         <v>2</v>
       </c>
@@ -12977,7 +12979,7 @@
       <c r="R31" s="6">
         <v>0</v>
       </c>
-      <c r="S31" s="44"/>
+      <c r="S31" s="42"/>
       <c r="T31" s="6">
         <f t="shared" si="6"/>
         <v>310</v>
@@ -13067,7 +13069,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K32" s="44"/>
+      <c r="K32" s="42"/>
       <c r="L32" s="6">
         <v>815</v>
       </c>
@@ -13075,7 +13077,7 @@
         <f t="shared" si="18"/>
         <v>36</v>
       </c>
-      <c r="N32" s="44"/>
+      <c r="N32" s="42"/>
       <c r="O32" s="6">
         <v>2</v>
       </c>
@@ -13088,7 +13090,7 @@
       <c r="R32" s="6">
         <v>0</v>
       </c>
-      <c r="S32" s="44"/>
+      <c r="S32" s="42"/>
       <c r="T32" s="6">
         <f t="shared" si="6"/>
         <v>270</v>
@@ -13178,7 +13180,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K33" s="44"/>
+      <c r="K33" s="42"/>
       <c r="L33" s="6">
         <v>816</v>
       </c>
@@ -13186,7 +13188,7 @@
         <f t="shared" si="18"/>
         <v>29.999999999999993</v>
       </c>
-      <c r="N33" s="44"/>
+      <c r="N33" s="42"/>
       <c r="O33" s="6">
         <v>2</v>
       </c>
@@ -13199,7 +13201,7 @@
       <c r="R33" s="6">
         <v>0</v>
       </c>
-      <c r="S33" s="44"/>
+      <c r="S33" s="42"/>
       <c r="T33" s="6">
         <f t="shared" si="6"/>
         <v>224.99999999999994</v>
@@ -13289,7 +13291,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K34" s="44"/>
+      <c r="K34" s="42"/>
       <c r="L34" s="6">
         <v>817</v>
       </c>
@@ -13297,7 +13299,7 @@
         <f t="shared" si="18"/>
         <v>23.999999999999993</v>
       </c>
-      <c r="N34" s="44"/>
+      <c r="N34" s="42"/>
       <c r="O34" s="6">
         <v>2</v>
       </c>
@@ -13310,7 +13312,7 @@
       <c r="R34" s="6">
         <v>0</v>
       </c>
-      <c r="S34" s="44"/>
+      <c r="S34" s="42"/>
       <c r="T34" s="6">
         <f t="shared" si="6"/>
         <v>179.99999999999994</v>
@@ -13400,7 +13402,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K35" s="44"/>
+      <c r="K35" s="42"/>
       <c r="L35" s="6">
         <v>818</v>
       </c>
@@ -13408,7 +13410,7 @@
         <f t="shared" si="18"/>
         <v>19.999999999999993</v>
       </c>
-      <c r="N35" s="44"/>
+      <c r="N35" s="42"/>
       <c r="O35" s="6">
         <v>2</v>
       </c>
@@ -13421,7 +13423,7 @@
       <c r="R35" s="6">
         <v>0</v>
       </c>
-      <c r="S35" s="44"/>
+      <c r="S35" s="42"/>
       <c r="T35" s="6">
         <f t="shared" si="6"/>
         <v>149.99999999999994</v>
@@ -13511,7 +13513,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K36" s="44"/>
+      <c r="K36" s="42"/>
       <c r="L36" s="6">
         <v>1013</v>
       </c>
@@ -13519,7 +13521,7 @@
         <f t="shared" si="18"/>
         <v>18</v>
       </c>
-      <c r="N36" s="44"/>
+      <c r="N36" s="42"/>
       <c r="O36" s="6">
         <v>2</v>
       </c>
@@ -13532,7 +13534,7 @@
       <c r="R36" s="6">
         <v>0</v>
       </c>
-      <c r="S36" s="44"/>
+      <c r="S36" s="42"/>
       <c r="T36" s="6">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -13622,7 +13624,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K37" s="44"/>
+      <c r="K37" s="42"/>
       <c r="L37" s="6">
         <v>1014</v>
       </c>
@@ -13630,7 +13632,7 @@
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="N37" s="44"/>
+      <c r="N37" s="42"/>
       <c r="O37" s="6">
         <v>2</v>
       </c>
@@ -13643,7 +13645,7 @@
       <c r="R37" s="6">
         <v>0</v>
       </c>
-      <c r="S37" s="44"/>
+      <c r="S37" s="42"/>
       <c r="T37" s="6">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -13733,7 +13735,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K38" s="44"/>
+      <c r="K38" s="42"/>
       <c r="L38" s="6">
         <v>1015</v>
       </c>
@@ -13741,7 +13743,7 @@
         <f t="shared" si="18"/>
         <v>27.999999999999993</v>
       </c>
-      <c r="N38" s="44"/>
+      <c r="N38" s="42"/>
       <c r="O38" s="6">
         <v>2</v>
       </c>
@@ -13754,7 +13756,7 @@
       <c r="R38" s="6">
         <v>0</v>
       </c>
-      <c r="S38" s="44"/>
+      <c r="S38" s="42"/>
       <c r="T38" s="6">
         <f t="shared" si="6"/>
         <v>209.99999999999994</v>
@@ -13844,7 +13846,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K39" s="44"/>
+      <c r="K39" s="42"/>
       <c r="L39" s="6">
         <v>1016</v>
       </c>
@@ -13852,7 +13854,7 @@
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="N39" s="44"/>
+      <c r="N39" s="42"/>
       <c r="O39" s="6">
         <v>2</v>
       </c>
@@ -13865,7 +13867,7 @@
       <c r="R39" s="6">
         <v>0</v>
       </c>
-      <c r="S39" s="44"/>
+      <c r="S39" s="42"/>
       <c r="T39" s="6">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -13955,7 +13957,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K40" s="44"/>
+      <c r="K40" s="42"/>
       <c r="L40" s="6">
         <v>1017</v>
       </c>
@@ -13963,7 +13965,7 @@
         <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="N40" s="44"/>
+      <c r="N40" s="42"/>
       <c r="O40" s="6">
         <v>2</v>
       </c>
@@ -13976,7 +13978,7 @@
       <c r="R40" s="6">
         <v>0</v>
       </c>
-      <c r="S40" s="44"/>
+      <c r="S40" s="42"/>
       <c r="T40" s="6">
         <f t="shared" si="6"/>
         <v>225</v>
@@ -14066,7 +14068,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K41" s="44"/>
+      <c r="K41" s="42"/>
       <c r="L41" s="6">
         <v>1018</v>
       </c>
@@ -14074,7 +14076,7 @@
         <f t="shared" si="18"/>
         <v>16.000000000000004</v>
       </c>
-      <c r="N41" s="44"/>
+      <c r="N41" s="42"/>
       <c r="O41" s="6">
         <v>2</v>
       </c>
@@ -14087,7 +14089,7 @@
       <c r="R41" s="6">
         <v>0</v>
       </c>
-      <c r="S41" s="44"/>
+      <c r="S41" s="42"/>
       <c r="T41" s="6">
         <f t="shared" si="6"/>
         <v>120.00000000000003</v>
@@ -14177,7 +14179,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K42" s="44"/>
+      <c r="K42" s="42"/>
       <c r="L42" s="6">
         <v>1114</v>
       </c>
@@ -14185,7 +14187,7 @@
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="N42" s="44"/>
+      <c r="N42" s="42"/>
       <c r="O42" s="6">
         <v>3</v>
       </c>
@@ -14198,7 +14200,7 @@
       <c r="R42" s="6">
         <v>0</v>
       </c>
-      <c r="S42" s="44"/>
+      <c r="S42" s="42"/>
       <c r="T42" s="6">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -14288,7 +14290,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K43" s="44"/>
+      <c r="K43" s="42"/>
       <c r="L43" s="6">
         <v>1115</v>
       </c>
@@ -14296,7 +14298,7 @@
         <f t="shared" si="18"/>
         <v>16.000000000000004</v>
       </c>
-      <c r="N43" s="44"/>
+      <c r="N43" s="42"/>
       <c r="O43" s="6">
         <v>2</v>
       </c>
@@ -14309,7 +14311,7 @@
       <c r="R43" s="6">
         <v>0</v>
       </c>
-      <c r="S43" s="44"/>
+      <c r="S43" s="42"/>
       <c r="T43" s="6">
         <f t="shared" si="6"/>
         <v>120.00000000000003</v>
@@ -14399,7 +14401,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K44" s="44"/>
+      <c r="K44" s="42"/>
       <c r="L44" s="6">
         <v>1117</v>
       </c>
@@ -14407,7 +14409,7 @@
         <f t="shared" si="18"/>
         <v>19.999999999999996</v>
       </c>
-      <c r="N44" s="44"/>
+      <c r="N44" s="42"/>
       <c r="O44" s="6">
         <v>2</v>
       </c>
@@ -14420,7 +14422,7 @@
       <c r="R44" s="6">
         <v>0</v>
       </c>
-      <c r="S44" s="44"/>
+      <c r="S44" s="42"/>
       <c r="T44" s="6">
         <f t="shared" si="6"/>
         <v>149.99999999999997</v>
@@ -14510,7 +14512,7 @@
         <f t="shared" si="5"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K45" s="44"/>
+      <c r="K45" s="42"/>
       <c r="L45" s="6" t="s">
         <v>199</v>
       </c>
@@ -14518,8 +14520,8 @@
         <f t="shared" si="18"/>
         <v>10.000000000000002</v>
       </c>
-      <c r="N45" s="44"/>
-      <c r="S45" s="44"/>
+      <c r="N45" s="42"/>
+      <c r="S45" s="42"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
@@ -14581,7 +14583,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K46" s="44"/>
+      <c r="K46" s="42"/>
       <c r="L46" s="6" t="s">
         <v>235</v>
       </c>
@@ -14589,8 +14591,8 @@
         <f t="shared" si="18"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="N46" s="44"/>
-      <c r="S46" s="44"/>
+      <c r="N46" s="42"/>
+      <c r="S46" s="42"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
@@ -14652,7 +14654,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K47" s="44"/>
+      <c r="K47" s="42"/>
       <c r="L47" s="6" t="s">
         <v>139</v>
       </c>
@@ -14660,8 +14662,8 @@
         <f t="shared" si="18"/>
         <v>18.000000000000004</v>
       </c>
-      <c r="N47" s="44"/>
-      <c r="S47" s="44"/>
+      <c r="N47" s="42"/>
+      <c r="S47" s="42"/>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
@@ -14723,7 +14725,7 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K48" s="44"/>
+      <c r="K48" s="42"/>
       <c r="L48" s="6" t="s">
         <v>190</v>
       </c>
@@ -14731,8 +14733,8 @@
         <f t="shared" si="18"/>
         <v>38</v>
       </c>
-      <c r="N48" s="44"/>
-      <c r="S48" s="44"/>
+      <c r="N48" s="42"/>
+      <c r="S48" s="42"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
@@ -14794,7 +14796,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K49" s="44"/>
+      <c r="K49" s="42"/>
       <c r="L49" s="6" t="s">
         <v>213</v>
       </c>
@@ -14802,8 +14804,8 @@
         <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="N49" s="44"/>
-      <c r="S49" s="44"/>
+      <c r="N49" s="42"/>
+      <c r="S49" s="42"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
@@ -14865,7 +14867,7 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K50" s="44"/>
+      <c r="K50" s="42"/>
       <c r="L50" s="6" t="s">
         <v>231</v>
       </c>
@@ -14873,8 +14875,8 @@
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="N50" s="44"/>
-      <c r="S50" s="44"/>
+      <c r="N50" s="42"/>
+      <c r="S50" s="42"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
@@ -14936,10 +14938,10 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K51" s="44"/>
+      <c r="K51" s="42"/>
       <c r="L51" s="6"/>
-      <c r="N51" s="44"/>
-      <c r="S51" s="44"/>
+      <c r="N51" s="42"/>
+      <c r="S51" s="42"/>
       <c r="AD51" s="15">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -14993,10 +14995,10 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K52" s="44"/>
+      <c r="K52" s="42"/>
       <c r="L52" s="6"/>
-      <c r="N52" s="44"/>
-      <c r="S52" s="44"/>
+      <c r="N52" s="42"/>
+      <c r="S52" s="42"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
@@ -15034,10 +15036,10 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K53" s="44"/>
+      <c r="K53" s="42"/>
       <c r="L53" s="6"/>
-      <c r="N53" s="44"/>
-      <c r="S53" s="44"/>
+      <c r="N53" s="42"/>
+      <c r="S53" s="42"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
@@ -15075,9 +15077,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K54" s="44"/>
-      <c r="N54" s="44"/>
-      <c r="S54" s="44"/>
+      <c r="K54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="S54" s="42"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
@@ -15115,9 +15117,9 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K55" s="44"/>
-      <c r="N55" s="44"/>
-      <c r="S55" s="44"/>
+      <c r="K55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="S55" s="42"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
@@ -15155,9 +15157,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K56" s="44"/>
-      <c r="N56" s="44"/>
-      <c r="S56" s="44"/>
+      <c r="K56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="S56" s="42"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
@@ -15195,9 +15197,9 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="S57" s="44"/>
+      <c r="K57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="S57" s="42"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
@@ -15235,9 +15237,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K58" s="44"/>
-      <c r="N58" s="44"/>
-      <c r="S58" s="44"/>
+      <c r="K58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="S58" s="42"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
@@ -15275,9 +15277,9 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K59" s="44"/>
-      <c r="N59" s="44"/>
-      <c r="S59" s="44"/>
+      <c r="K59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="S59" s="42"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
@@ -15315,9 +15317,9 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K60" s="44"/>
-      <c r="N60" s="44"/>
-      <c r="S60" s="44"/>
+      <c r="K60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="S60" s="42"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
@@ -15355,9 +15357,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K61" s="44"/>
-      <c r="N61" s="44"/>
-      <c r="S61" s="44"/>
+      <c r="K61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="S61" s="42"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
@@ -15395,9 +15397,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K62" s="44"/>
-      <c r="N62" s="44"/>
-      <c r="S62" s="44"/>
+      <c r="K62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="S62" s="42"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
@@ -15435,9 +15437,9 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K63" s="44"/>
-      <c r="N63" s="44"/>
-      <c r="S63" s="44"/>
+      <c r="K63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="S63" s="42"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
@@ -15475,9 +15477,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K64" s="44"/>
-      <c r="N64" s="44"/>
-      <c r="S64" s="44"/>
+      <c r="K64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="S64" s="42"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
@@ -15515,9 +15517,9 @@
         <f t="shared" si="5"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="K65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="S65" s="44"/>
+      <c r="K65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="S65" s="42"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
@@ -15555,9 +15557,9 @@
         <f t="shared" si="5"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K66" s="44"/>
-      <c r="N66" s="44"/>
-      <c r="S66" s="44"/>
+      <c r="K66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="S66" s="42"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
@@ -15595,9 +15597,9 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K67" s="44"/>
-      <c r="N67" s="44"/>
-      <c r="S67" s="44"/>
+      <c r="K67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="S67" s="42"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
@@ -15635,9 +15637,9 @@
         <f t="shared" ref="J68:J131" si="22">(I68-H68)*24</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K68" s="44"/>
-      <c r="N68" s="44"/>
-      <c r="S68" s="44"/>
+      <c r="K68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="S68" s="42"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
@@ -15675,9 +15677,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="S69" s="44"/>
+      <c r="K69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="S69" s="42"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
@@ -15715,9 +15717,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="S70" s="44"/>
+      <c r="K70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="S70" s="42"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
@@ -15755,9 +15757,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="S71" s="44"/>
+      <c r="K71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="S71" s="42"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
@@ -15795,9 +15797,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K72" s="44"/>
-      <c r="N72" s="44"/>
-      <c r="S72" s="44"/>
+      <c r="K72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="S72" s="42"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
@@ -15835,9 +15837,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K73" s="44"/>
-      <c r="N73" s="44"/>
-      <c r="S73" s="44"/>
+      <c r="K73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="S73" s="42"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
@@ -15875,9 +15877,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K74" s="44"/>
-      <c r="N74" s="44"/>
-      <c r="S74" s="44"/>
+      <c r="K74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="S74" s="42"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
@@ -15915,9 +15917,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K75" s="44"/>
-      <c r="N75" s="44"/>
-      <c r="S75" s="44"/>
+      <c r="K75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="S75" s="42"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
@@ -15955,9 +15957,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K76" s="44"/>
-      <c r="N76" s="44"/>
-      <c r="S76" s="44"/>
+      <c r="K76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="S76" s="42"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
@@ -15995,9 +15997,9 @@
         <f t="shared" si="22"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="K77" s="44"/>
-      <c r="N77" s="44"/>
-      <c r="S77" s="44"/>
+      <c r="K77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="S77" s="42"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
@@ -16035,9 +16037,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K78" s="44"/>
-      <c r="N78" s="44"/>
-      <c r="S78" s="44"/>
+      <c r="K78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="S78" s="42"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
@@ -16075,9 +16077,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K79" s="44"/>
-      <c r="N79" s="44"/>
-      <c r="S79" s="44"/>
+      <c r="K79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="S79" s="42"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
@@ -16115,9 +16117,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K80" s="44"/>
-      <c r="N80" s="44"/>
-      <c r="S80" s="44"/>
+      <c r="K80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="S80" s="42"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
@@ -16155,9 +16157,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K81" s="44"/>
-      <c r="N81" s="44"/>
-      <c r="S81" s="44"/>
+      <c r="K81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="S81" s="42"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
@@ -16195,9 +16197,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K82" s="44"/>
-      <c r="N82" s="44"/>
-      <c r="S82" s="44"/>
+      <c r="K82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="S82" s="42"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
@@ -16235,9 +16237,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K83" s="44"/>
-      <c r="N83" s="44"/>
-      <c r="S83" s="44"/>
+      <c r="K83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="S83" s="42"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
@@ -16275,9 +16277,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K84" s="44"/>
-      <c r="N84" s="44"/>
-      <c r="S84" s="44"/>
+      <c r="K84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="S84" s="42"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
@@ -16315,9 +16317,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="S85" s="44"/>
+      <c r="K85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="S85" s="42"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
@@ -16355,9 +16357,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K86" s="44"/>
-      <c r="N86" s="44"/>
-      <c r="S86" s="44"/>
+      <c r="K86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="S86" s="42"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
@@ -16395,9 +16397,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="S87" s="44"/>
+      <c r="K87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="S87" s="42"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
@@ -16435,9 +16437,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K88" s="44"/>
-      <c r="N88" s="44"/>
-      <c r="S88" s="44"/>
+      <c r="K88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="S88" s="42"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
@@ -16475,9 +16477,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K89" s="44"/>
-      <c r="N89" s="44"/>
-      <c r="S89" s="44"/>
+      <c r="K89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="S89" s="42"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
@@ -16515,9 +16517,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K90" s="44"/>
-      <c r="N90" s="44"/>
-      <c r="S90" s="44"/>
+      <c r="K90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="S90" s="42"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
@@ -16555,9 +16557,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K91" s="44"/>
-      <c r="N91" s="44"/>
-      <c r="S91" s="44"/>
+      <c r="K91" s="42"/>
+      <c r="N91" s="42"/>
+      <c r="S91" s="42"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
@@ -16595,9 +16597,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="S92" s="44"/>
+      <c r="K92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="S92" s="42"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
@@ -16635,9 +16637,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="S93" s="44"/>
+      <c r="K93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="S93" s="42"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
@@ -16675,9 +16677,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K94" s="44"/>
-      <c r="N94" s="44"/>
-      <c r="S94" s="44"/>
+      <c r="K94" s="42"/>
+      <c r="N94" s="42"/>
+      <c r="S94" s="42"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
@@ -16715,9 +16717,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K95" s="44"/>
-      <c r="N95" s="44"/>
-      <c r="S95" s="44"/>
+      <c r="K95" s="42"/>
+      <c r="N95" s="42"/>
+      <c r="S95" s="42"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
@@ -16755,9 +16757,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="S96" s="44"/>
+      <c r="K96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="S96" s="42"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
@@ -16795,9 +16797,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K97" s="44"/>
-      <c r="N97" s="44"/>
-      <c r="S97" s="44"/>
+      <c r="K97" s="42"/>
+      <c r="N97" s="42"/>
+      <c r="S97" s="42"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
@@ -16835,9 +16837,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K98" s="44"/>
-      <c r="N98" s="44"/>
-      <c r="S98" s="44"/>
+      <c r="K98" s="42"/>
+      <c r="N98" s="42"/>
+      <c r="S98" s="42"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
@@ -16875,9 +16877,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K99" s="44"/>
-      <c r="N99" s="44"/>
-      <c r="S99" s="44"/>
+      <c r="K99" s="42"/>
+      <c r="N99" s="42"/>
+      <c r="S99" s="42"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
@@ -16915,9 +16917,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K100" s="44"/>
-      <c r="N100" s="44"/>
-      <c r="S100" s="44"/>
+      <c r="K100" s="42"/>
+      <c r="N100" s="42"/>
+      <c r="S100" s="42"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
@@ -16955,9 +16957,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K101" s="44"/>
-      <c r="N101" s="44"/>
-      <c r="S101" s="44"/>
+      <c r="K101" s="42"/>
+      <c r="N101" s="42"/>
+      <c r="S101" s="42"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
@@ -16995,9 +16997,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K102" s="44"/>
-      <c r="N102" s="44"/>
-      <c r="S102" s="44"/>
+      <c r="K102" s="42"/>
+      <c r="N102" s="42"/>
+      <c r="S102" s="42"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
@@ -17035,9 +17037,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K103" s="44"/>
-      <c r="N103" s="44"/>
-      <c r="S103" s="44"/>
+      <c r="K103" s="42"/>
+      <c r="N103" s="42"/>
+      <c r="S103" s="42"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
@@ -17075,9 +17077,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K104" s="44"/>
-      <c r="N104" s="44"/>
-      <c r="S104" s="44"/>
+      <c r="K104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="S104" s="42"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
@@ -17115,9 +17117,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K105" s="44"/>
-      <c r="N105" s="44"/>
-      <c r="S105" s="44"/>
+      <c r="K105" s="42"/>
+      <c r="N105" s="42"/>
+      <c r="S105" s="42"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
@@ -17155,9 +17157,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K106" s="44"/>
-      <c r="N106" s="44"/>
-      <c r="S106" s="44"/>
+      <c r="K106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="S106" s="42"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
@@ -17195,9 +17197,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K107" s="44"/>
-      <c r="N107" s="44"/>
-      <c r="S107" s="44"/>
+      <c r="K107" s="42"/>
+      <c r="N107" s="42"/>
+      <c r="S107" s="42"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
@@ -17235,9 +17237,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K108" s="44"/>
-      <c r="N108" s="44"/>
-      <c r="S108" s="44"/>
+      <c r="K108" s="42"/>
+      <c r="N108" s="42"/>
+      <c r="S108" s="42"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
@@ -17275,9 +17277,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K109" s="44"/>
-      <c r="N109" s="44"/>
-      <c r="S109" s="44"/>
+      <c r="K109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="S109" s="42"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
@@ -17315,9 +17317,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K110" s="44"/>
-      <c r="N110" s="44"/>
-      <c r="S110" s="44"/>
+      <c r="K110" s="42"/>
+      <c r="N110" s="42"/>
+      <c r="S110" s="42"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
@@ -17355,9 +17357,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K111" s="44"/>
-      <c r="N111" s="44"/>
-      <c r="S111" s="44"/>
+      <c r="K111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="S111" s="42"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
@@ -17395,9 +17397,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K112" s="44"/>
-      <c r="N112" s="44"/>
-      <c r="S112" s="44"/>
+      <c r="K112" s="42"/>
+      <c r="N112" s="42"/>
+      <c r="S112" s="42"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
@@ -17435,9 +17437,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K113" s="44"/>
-      <c r="N113" s="44"/>
-      <c r="S113" s="44"/>
+      <c r="K113" s="42"/>
+      <c r="N113" s="42"/>
+      <c r="S113" s="42"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
@@ -17475,9 +17477,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K114" s="44"/>
-      <c r="N114" s="44"/>
-      <c r="S114" s="44"/>
+      <c r="K114" s="42"/>
+      <c r="N114" s="42"/>
+      <c r="S114" s="42"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
@@ -17515,9 +17517,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K115" s="44"/>
-      <c r="N115" s="44"/>
-      <c r="S115" s="44"/>
+      <c r="K115" s="42"/>
+      <c r="N115" s="42"/>
+      <c r="S115" s="42"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
@@ -17555,9 +17557,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K116" s="44"/>
-      <c r="N116" s="44"/>
-      <c r="S116" s="44"/>
+      <c r="K116" s="42"/>
+      <c r="N116" s="42"/>
+      <c r="S116" s="42"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
@@ -17595,9 +17597,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K117" s="44"/>
-      <c r="N117" s="44"/>
-      <c r="S117" s="44"/>
+      <c r="K117" s="42"/>
+      <c r="N117" s="42"/>
+      <c r="S117" s="42"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
@@ -17635,9 +17637,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K118" s="44"/>
-      <c r="N118" s="44"/>
-      <c r="S118" s="44"/>
+      <c r="K118" s="42"/>
+      <c r="N118" s="42"/>
+      <c r="S118" s="42"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
@@ -17675,9 +17677,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K119" s="44"/>
-      <c r="N119" s="44"/>
-      <c r="S119" s="44"/>
+      <c r="K119" s="42"/>
+      <c r="N119" s="42"/>
+      <c r="S119" s="42"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
@@ -17715,9 +17717,9 @@
         <f t="shared" si="22"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K120" s="44"/>
-      <c r="N120" s="44"/>
-      <c r="S120" s="44"/>
+      <c r="K120" s="42"/>
+      <c r="N120" s="42"/>
+      <c r="S120" s="42"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
@@ -17755,9 +17757,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K121" s="44"/>
-      <c r="N121" s="44"/>
-      <c r="S121" s="44"/>
+      <c r="K121" s="42"/>
+      <c r="N121" s="42"/>
+      <c r="S121" s="42"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
@@ -17795,9 +17797,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K122" s="44"/>
-      <c r="N122" s="44"/>
-      <c r="S122" s="44"/>
+      <c r="K122" s="42"/>
+      <c r="N122" s="42"/>
+      <c r="S122" s="42"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
@@ -17835,9 +17837,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K123" s="44"/>
-      <c r="N123" s="44"/>
-      <c r="S123" s="44"/>
+      <c r="K123" s="42"/>
+      <c r="N123" s="42"/>
+      <c r="S123" s="42"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
@@ -17875,9 +17877,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K124" s="44"/>
-      <c r="N124" s="44"/>
-      <c r="S124" s="44"/>
+      <c r="K124" s="42"/>
+      <c r="N124" s="42"/>
+      <c r="S124" s="42"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
@@ -17915,9 +17917,9 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K125" s="44"/>
-      <c r="N125" s="44"/>
-      <c r="S125" s="44"/>
+      <c r="K125" s="42"/>
+      <c r="N125" s="42"/>
+      <c r="S125" s="42"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
@@ -17955,9 +17957,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K126" s="44"/>
-      <c r="N126" s="44"/>
-      <c r="S126" s="44"/>
+      <c r="K126" s="42"/>
+      <c r="N126" s="42"/>
+      <c r="S126" s="42"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
@@ -17995,9 +17997,9 @@
         <f t="shared" si="22"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K127" s="44"/>
-      <c r="N127" s="44"/>
-      <c r="S127" s="44"/>
+      <c r="K127" s="42"/>
+      <c r="N127" s="42"/>
+      <c r="S127" s="42"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
@@ -18035,9 +18037,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K128" s="44"/>
-      <c r="N128" s="44"/>
-      <c r="S128" s="44"/>
+      <c r="K128" s="42"/>
+      <c r="N128" s="42"/>
+      <c r="S128" s="42"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
@@ -18075,9 +18077,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K129" s="44"/>
-      <c r="N129" s="44"/>
-      <c r="S129" s="44"/>
+      <c r="K129" s="42"/>
+      <c r="N129" s="42"/>
+      <c r="S129" s="42"/>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
@@ -18115,9 +18117,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K130" s="44"/>
-      <c r="N130" s="44"/>
-      <c r="S130" s="44"/>
+      <c r="K130" s="42"/>
+      <c r="N130" s="42"/>
+      <c r="S130" s="42"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
@@ -18155,9 +18157,9 @@
         <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K131" s="44"/>
-      <c r="N131" s="44"/>
-      <c r="S131" s="44"/>
+      <c r="K131" s="42"/>
+      <c r="N131" s="42"/>
+      <c r="S131" s="42"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
@@ -18195,9 +18197,9 @@
         <f t="shared" ref="J132:J195" si="26">(I132-H132)*24</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K132" s="44"/>
-      <c r="N132" s="44"/>
-      <c r="S132" s="44"/>
+      <c r="K132" s="42"/>
+      <c r="N132" s="42"/>
+      <c r="S132" s="42"/>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
@@ -18235,9 +18237,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K133" s="44"/>
-      <c r="N133" s="44"/>
-      <c r="S133" s="44"/>
+      <c r="K133" s="42"/>
+      <c r="N133" s="42"/>
+      <c r="S133" s="42"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
@@ -18275,9 +18277,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K134" s="44"/>
-      <c r="N134" s="44"/>
-      <c r="S134" s="44"/>
+      <c r="K134" s="42"/>
+      <c r="N134" s="42"/>
+      <c r="S134" s="42"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
@@ -18315,9 +18317,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K135" s="44"/>
-      <c r="N135" s="44"/>
-      <c r="S135" s="44"/>
+      <c r="K135" s="42"/>
+      <c r="N135" s="42"/>
+      <c r="S135" s="42"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
@@ -18355,9 +18357,9 @@
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="K136" s="44"/>
-      <c r="N136" s="44"/>
-      <c r="S136" s="44"/>
+      <c r="K136" s="42"/>
+      <c r="N136" s="42"/>
+      <c r="S136" s="42"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
@@ -18395,9 +18397,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K137" s="44"/>
-      <c r="N137" s="44"/>
-      <c r="S137" s="44"/>
+      <c r="K137" s="42"/>
+      <c r="N137" s="42"/>
+      <c r="S137" s="42"/>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
@@ -18435,9 +18437,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K138" s="44"/>
-      <c r="N138" s="44"/>
-      <c r="S138" s="44"/>
+      <c r="K138" s="42"/>
+      <c r="N138" s="42"/>
+      <c r="S138" s="42"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
@@ -18475,9 +18477,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K139" s="44"/>
-      <c r="N139" s="44"/>
-      <c r="S139" s="44"/>
+      <c r="K139" s="42"/>
+      <c r="N139" s="42"/>
+      <c r="S139" s="42"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
@@ -18515,9 +18517,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K140" s="44"/>
-      <c r="N140" s="44"/>
-      <c r="S140" s="44"/>
+      <c r="K140" s="42"/>
+      <c r="N140" s="42"/>
+      <c r="S140" s="42"/>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
@@ -18555,9 +18557,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K141" s="44"/>
-      <c r="N141" s="44"/>
-      <c r="S141" s="44"/>
+      <c r="K141" s="42"/>
+      <c r="N141" s="42"/>
+      <c r="S141" s="42"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
@@ -18595,9 +18597,9 @@
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="K142" s="44"/>
-      <c r="N142" s="44"/>
-      <c r="S142" s="44"/>
+      <c r="K142" s="42"/>
+      <c r="N142" s="42"/>
+      <c r="S142" s="42"/>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
@@ -18635,9 +18637,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K143" s="44"/>
-      <c r="N143" s="44"/>
-      <c r="S143" s="44"/>
+      <c r="K143" s="42"/>
+      <c r="N143" s="42"/>
+      <c r="S143" s="42"/>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
@@ -18675,9 +18677,9 @@
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="K144" s="44"/>
-      <c r="N144" s="44"/>
-      <c r="S144" s="44"/>
+      <c r="K144" s="42"/>
+      <c r="N144" s="42"/>
+      <c r="S144" s="42"/>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
@@ -18715,9 +18717,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K145" s="44"/>
-      <c r="N145" s="44"/>
-      <c r="S145" s="44"/>
+      <c r="K145" s="42"/>
+      <c r="N145" s="42"/>
+      <c r="S145" s="42"/>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
@@ -18755,9 +18757,9 @@
         <f t="shared" si="26"/>
         <v>1.3333333333333313</v>
       </c>
-      <c r="K146" s="44"/>
-      <c r="N146" s="44"/>
-      <c r="S146" s="44"/>
+      <c r="K146" s="42"/>
+      <c r="N146" s="42"/>
+      <c r="S146" s="42"/>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
@@ -18795,9 +18797,9 @@
         <f t="shared" si="26"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="K147" s="44"/>
-      <c r="N147" s="44"/>
-      <c r="S147" s="44"/>
+      <c r="K147" s="42"/>
+      <c r="N147" s="42"/>
+      <c r="S147" s="42"/>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
@@ -18835,9 +18837,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K148" s="44"/>
-      <c r="N148" s="44"/>
-      <c r="S148" s="44"/>
+      <c r="K148" s="42"/>
+      <c r="N148" s="42"/>
+      <c r="S148" s="42"/>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
@@ -18875,9 +18877,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K149" s="44"/>
-      <c r="N149" s="44"/>
-      <c r="S149" s="44"/>
+      <c r="K149" s="42"/>
+      <c r="N149" s="42"/>
+      <c r="S149" s="42"/>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
@@ -18915,9 +18917,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K150" s="44"/>
-      <c r="N150" s="44"/>
-      <c r="S150" s="44"/>
+      <c r="K150" s="42"/>
+      <c r="N150" s="42"/>
+      <c r="S150" s="42"/>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
@@ -18955,9 +18957,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K151" s="44"/>
-      <c r="N151" s="44"/>
-      <c r="S151" s="44"/>
+      <c r="K151" s="42"/>
+      <c r="N151" s="42"/>
+      <c r="S151" s="42"/>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
@@ -18995,9 +18997,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K152" s="44"/>
-      <c r="N152" s="44"/>
-      <c r="S152" s="44"/>
+      <c r="K152" s="42"/>
+      <c r="N152" s="42"/>
+      <c r="S152" s="42"/>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
@@ -19035,9 +19037,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K153" s="44"/>
-      <c r="N153" s="44"/>
-      <c r="S153" s="44"/>
+      <c r="K153" s="42"/>
+      <c r="N153" s="42"/>
+      <c r="S153" s="42"/>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
@@ -19075,9 +19077,9 @@
         <f t="shared" si="26"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K154" s="44"/>
-      <c r="N154" s="44"/>
-      <c r="S154" s="44"/>
+      <c r="K154" s="42"/>
+      <c r="N154" s="42"/>
+      <c r="S154" s="42"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
@@ -19115,9 +19117,9 @@
         <f>(I155-H155)*24</f>
         <v>1.3333333333333339</v>
       </c>
-      <c r="K155" s="44"/>
-      <c r="N155" s="44"/>
-      <c r="S155" s="44"/>
+      <c r="K155" s="42"/>
+      <c r="N155" s="42"/>
+      <c r="S155" s="42"/>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
@@ -19155,9 +19157,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K156" s="44"/>
-      <c r="N156" s="44"/>
-      <c r="S156" s="44"/>
+      <c r="K156" s="42"/>
+      <c r="N156" s="42"/>
+      <c r="S156" s="42"/>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
@@ -19195,9 +19197,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K157" s="44"/>
-      <c r="N157" s="44"/>
-      <c r="S157" s="44"/>
+      <c r="K157" s="42"/>
+      <c r="N157" s="42"/>
+      <c r="S157" s="42"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
@@ -19235,9 +19237,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K158" s="44"/>
-      <c r="N158" s="44"/>
-      <c r="S158" s="44"/>
+      <c r="K158" s="42"/>
+      <c r="N158" s="42"/>
+      <c r="S158" s="42"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
@@ -19275,9 +19277,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K159" s="44"/>
-      <c r="N159" s="44"/>
-      <c r="S159" s="44"/>
+      <c r="K159" s="42"/>
+      <c r="N159" s="42"/>
+      <c r="S159" s="42"/>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
@@ -19315,9 +19317,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K160" s="44"/>
-      <c r="N160" s="44"/>
-      <c r="S160" s="44"/>
+      <c r="K160" s="42"/>
+      <c r="N160" s="42"/>
+      <c r="S160" s="42"/>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
@@ -19355,9 +19357,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K161" s="44"/>
-      <c r="N161" s="44"/>
-      <c r="S161" s="44"/>
+      <c r="K161" s="42"/>
+      <c r="N161" s="42"/>
+      <c r="S161" s="42"/>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
@@ -19395,9 +19397,9 @@
         <f t="shared" si="26"/>
         <v>3.0000000000000013</v>
       </c>
-      <c r="K162" s="44"/>
-      <c r="N162" s="44"/>
-      <c r="S162" s="44"/>
+      <c r="K162" s="42"/>
+      <c r="N162" s="42"/>
+      <c r="S162" s="42"/>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
@@ -19435,9 +19437,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K163" s="44"/>
-      <c r="N163" s="44"/>
-      <c r="S163" s="44"/>
+      <c r="K163" s="42"/>
+      <c r="N163" s="42"/>
+      <c r="S163" s="42"/>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
@@ -19475,9 +19477,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K164" s="44"/>
-      <c r="N164" s="44"/>
-      <c r="S164" s="44"/>
+      <c r="K164" s="42"/>
+      <c r="N164" s="42"/>
+      <c r="S164" s="42"/>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
@@ -19515,9 +19517,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K165" s="44"/>
-      <c r="N165" s="44"/>
-      <c r="S165" s="44"/>
+      <c r="K165" s="42"/>
+      <c r="N165" s="42"/>
+      <c r="S165" s="42"/>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
@@ -19555,9 +19557,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K166" s="44"/>
-      <c r="N166" s="44"/>
-      <c r="S166" s="44"/>
+      <c r="K166" s="42"/>
+      <c r="N166" s="42"/>
+      <c r="S166" s="42"/>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
@@ -19595,9 +19597,9 @@
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="K167" s="44"/>
-      <c r="N167" s="44"/>
-      <c r="S167" s="44"/>
+      <c r="K167" s="42"/>
+      <c r="N167" s="42"/>
+      <c r="S167" s="42"/>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
@@ -19635,9 +19637,9 @@
         <f t="shared" si="26"/>
         <v>4</v>
       </c>
-      <c r="K168" s="44"/>
-      <c r="N168" s="44"/>
-      <c r="S168" s="44"/>
+      <c r="K168" s="42"/>
+      <c r="N168" s="42"/>
+      <c r="S168" s="42"/>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
@@ -19675,9 +19677,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K169" s="44"/>
-      <c r="N169" s="44"/>
-      <c r="S169" s="44"/>
+      <c r="K169" s="42"/>
+      <c r="N169" s="42"/>
+      <c r="S169" s="42"/>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
@@ -19715,9 +19717,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K170" s="44"/>
-      <c r="N170" s="44"/>
-      <c r="S170" s="44"/>
+      <c r="K170" s="42"/>
+      <c r="N170" s="42"/>
+      <c r="S170" s="42"/>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
@@ -19755,9 +19757,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K171" s="44"/>
-      <c r="N171" s="44"/>
-      <c r="S171" s="44"/>
+      <c r="K171" s="42"/>
+      <c r="N171" s="42"/>
+      <c r="S171" s="42"/>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
@@ -19795,9 +19797,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K172" s="44"/>
-      <c r="N172" s="44"/>
-      <c r="S172" s="44"/>
+      <c r="K172" s="42"/>
+      <c r="N172" s="42"/>
+      <c r="S172" s="42"/>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
@@ -19835,9 +19837,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K173" s="44"/>
-      <c r="N173" s="44"/>
-      <c r="S173" s="44"/>
+      <c r="K173" s="42"/>
+      <c r="N173" s="42"/>
+      <c r="S173" s="42"/>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
@@ -19875,9 +19877,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K174" s="44"/>
-      <c r="N174" s="44"/>
-      <c r="S174" s="44"/>
+      <c r="K174" s="42"/>
+      <c r="N174" s="42"/>
+      <c r="S174" s="42"/>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
@@ -19915,9 +19917,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K175" s="44"/>
-      <c r="N175" s="44"/>
-      <c r="S175" s="44"/>
+      <c r="K175" s="42"/>
+      <c r="N175" s="42"/>
+      <c r="S175" s="42"/>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
@@ -19955,9 +19957,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K176" s="44"/>
-      <c r="N176" s="44"/>
-      <c r="S176" s="44"/>
+      <c r="K176" s="42"/>
+      <c r="N176" s="42"/>
+      <c r="S176" s="42"/>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
@@ -19995,9 +19997,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K177" s="44"/>
-      <c r="N177" s="44"/>
-      <c r="S177" s="44"/>
+      <c r="K177" s="42"/>
+      <c r="N177" s="42"/>
+      <c r="S177" s="42"/>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
@@ -20035,9 +20037,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K178" s="44"/>
-      <c r="N178" s="44"/>
-      <c r="S178" s="44"/>
+      <c r="K178" s="42"/>
+      <c r="N178" s="42"/>
+      <c r="S178" s="42"/>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
@@ -20075,9 +20077,9 @@
         <f t="shared" si="26"/>
         <v>1.3333333333333339</v>
       </c>
-      <c r="K179" s="44"/>
-      <c r="N179" s="44"/>
-      <c r="S179" s="44"/>
+      <c r="K179" s="42"/>
+      <c r="N179" s="42"/>
+      <c r="S179" s="42"/>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
@@ -20115,9 +20117,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K180" s="44"/>
-      <c r="N180" s="44"/>
-      <c r="S180" s="44"/>
+      <c r="K180" s="42"/>
+      <c r="N180" s="42"/>
+      <c r="S180" s="42"/>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
@@ -20155,9 +20157,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K181" s="44"/>
-      <c r="N181" s="44"/>
-      <c r="S181" s="44"/>
+      <c r="K181" s="42"/>
+      <c r="N181" s="42"/>
+      <c r="S181" s="42"/>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
@@ -20195,9 +20197,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K182" s="44"/>
-      <c r="N182" s="44"/>
-      <c r="S182" s="44"/>
+      <c r="K182" s="42"/>
+      <c r="N182" s="42"/>
+      <c r="S182" s="42"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
@@ -20235,9 +20237,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K183" s="44"/>
-      <c r="N183" s="44"/>
-      <c r="S183" s="44"/>
+      <c r="K183" s="42"/>
+      <c r="N183" s="42"/>
+      <c r="S183" s="42"/>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
@@ -20275,9 +20277,9 @@
         <f t="shared" si="26"/>
         <v>2.6666666666666679</v>
       </c>
-      <c r="K184" s="44"/>
-      <c r="N184" s="44"/>
-      <c r="S184" s="44"/>
+      <c r="K184" s="42"/>
+      <c r="N184" s="42"/>
+      <c r="S184" s="42"/>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
@@ -20315,9 +20317,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K185" s="44"/>
-      <c r="N185" s="44"/>
-      <c r="S185" s="44"/>
+      <c r="K185" s="42"/>
+      <c r="N185" s="42"/>
+      <c r="S185" s="42"/>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
@@ -20355,9 +20357,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K186" s="44"/>
-      <c r="N186" s="44"/>
-      <c r="S186" s="44"/>
+      <c r="K186" s="42"/>
+      <c r="N186" s="42"/>
+      <c r="S186" s="42"/>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
@@ -20395,9 +20397,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K187" s="44"/>
-      <c r="N187" s="44"/>
-      <c r="S187" s="44"/>
+      <c r="K187" s="42"/>
+      <c r="N187" s="42"/>
+      <c r="S187" s="42"/>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
@@ -20435,9 +20437,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K188" s="44"/>
-      <c r="N188" s="44"/>
-      <c r="S188" s="44"/>
+      <c r="K188" s="42"/>
+      <c r="N188" s="42"/>
+      <c r="S188" s="42"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
@@ -20475,9 +20477,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K189" s="44"/>
-      <c r="N189" s="44"/>
-      <c r="S189" s="44"/>
+      <c r="K189" s="42"/>
+      <c r="N189" s="42"/>
+      <c r="S189" s="42"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
@@ -20515,9 +20517,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K190" s="44"/>
-      <c r="N190" s="44"/>
-      <c r="S190" s="44"/>
+      <c r="K190" s="42"/>
+      <c r="N190" s="42"/>
+      <c r="S190" s="42"/>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
@@ -20555,9 +20557,9 @@
         <f t="shared" si="26"/>
         <v>1.3333333333333339</v>
       </c>
-      <c r="K191" s="44"/>
-      <c r="N191" s="44"/>
-      <c r="S191" s="44"/>
+      <c r="K191" s="42"/>
+      <c r="N191" s="42"/>
+      <c r="S191" s="42"/>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
@@ -20595,9 +20597,9 @@
         <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K192" s="44"/>
-      <c r="N192" s="44"/>
-      <c r="S192" s="44"/>
+      <c r="K192" s="42"/>
+      <c r="N192" s="42"/>
+      <c r="S192" s="42"/>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
@@ -20635,9 +20637,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K193" s="44"/>
-      <c r="N193" s="44"/>
-      <c r="S193" s="44"/>
+      <c r="K193" s="42"/>
+      <c r="N193" s="42"/>
+      <c r="S193" s="42"/>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
@@ -20675,9 +20677,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K194" s="44"/>
-      <c r="N194" s="44"/>
-      <c r="S194" s="44"/>
+      <c r="K194" s="42"/>
+      <c r="N194" s="42"/>
+      <c r="S194" s="42"/>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
@@ -20715,9 +20717,9 @@
         <f t="shared" si="26"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K195" s="44"/>
-      <c r="N195" s="44"/>
-      <c r="S195" s="44"/>
+      <c r="K195" s="42"/>
+      <c r="N195" s="42"/>
+      <c r="S195" s="42"/>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
@@ -20755,9 +20757,9 @@
         <f t="shared" ref="J196:J259" si="30">(I196-H196)*24</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K196" s="44"/>
-      <c r="N196" s="44"/>
-      <c r="S196" s="44"/>
+      <c r="K196" s="42"/>
+      <c r="N196" s="42"/>
+      <c r="S196" s="42"/>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
@@ -20795,9 +20797,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K197" s="44"/>
-      <c r="N197" s="44"/>
-      <c r="S197" s="44"/>
+      <c r="K197" s="42"/>
+      <c r="N197" s="42"/>
+      <c r="S197" s="42"/>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
@@ -20835,9 +20837,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K198" s="44"/>
-      <c r="N198" s="44"/>
-      <c r="S198" s="44"/>
+      <c r="K198" s="42"/>
+      <c r="N198" s="42"/>
+      <c r="S198" s="42"/>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
@@ -20875,9 +20877,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K199" s="44"/>
-      <c r="N199" s="44"/>
-      <c r="S199" s="44"/>
+      <c r="K199" s="42"/>
+      <c r="N199" s="42"/>
+      <c r="S199" s="42"/>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
@@ -20915,9 +20917,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K200" s="44"/>
-      <c r="N200" s="44"/>
-      <c r="S200" s="44"/>
+      <c r="K200" s="42"/>
+      <c r="N200" s="42"/>
+      <c r="S200" s="42"/>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
@@ -20955,9 +20957,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K201" s="44"/>
-      <c r="N201" s="44"/>
-      <c r="S201" s="44"/>
+      <c r="K201" s="42"/>
+      <c r="N201" s="42"/>
+      <c r="S201" s="42"/>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
@@ -20995,9 +20997,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K202" s="44"/>
-      <c r="N202" s="44"/>
-      <c r="S202" s="44"/>
+      <c r="K202" s="42"/>
+      <c r="N202" s="42"/>
+      <c r="S202" s="42"/>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
@@ -21035,9 +21037,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K203" s="44"/>
-      <c r="N203" s="44"/>
-      <c r="S203" s="44"/>
+      <c r="K203" s="42"/>
+      <c r="N203" s="42"/>
+      <c r="S203" s="42"/>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
@@ -21075,9 +21077,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K204" s="44"/>
-      <c r="N204" s="44"/>
-      <c r="S204" s="44"/>
+      <c r="K204" s="42"/>
+      <c r="N204" s="42"/>
+      <c r="S204" s="42"/>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
@@ -21115,9 +21117,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K205" s="44"/>
-      <c r="N205" s="44"/>
-      <c r="S205" s="44"/>
+      <c r="K205" s="42"/>
+      <c r="N205" s="42"/>
+      <c r="S205" s="42"/>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
@@ -21155,9 +21157,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K206" s="44"/>
-      <c r="N206" s="44"/>
-      <c r="S206" s="44"/>
+      <c r="K206" s="42"/>
+      <c r="N206" s="42"/>
+      <c r="S206" s="42"/>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
@@ -21195,9 +21197,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K207" s="44"/>
-      <c r="N207" s="44"/>
-      <c r="S207" s="44"/>
+      <c r="K207" s="42"/>
+      <c r="N207" s="42"/>
+      <c r="S207" s="42"/>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
@@ -21235,9 +21237,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K208" s="44"/>
-      <c r="N208" s="44"/>
-      <c r="S208" s="44"/>
+      <c r="K208" s="42"/>
+      <c r="N208" s="42"/>
+      <c r="S208" s="42"/>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
@@ -21275,9 +21277,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K209" s="44"/>
-      <c r="N209" s="44"/>
-      <c r="S209" s="44"/>
+      <c r="K209" s="42"/>
+      <c r="N209" s="42"/>
+      <c r="S209" s="42"/>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
@@ -21315,9 +21317,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K210" s="44"/>
-      <c r="N210" s="44"/>
-      <c r="S210" s="44"/>
+      <c r="K210" s="42"/>
+      <c r="N210" s="42"/>
+      <c r="S210" s="42"/>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
@@ -21355,9 +21357,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K211" s="44"/>
-      <c r="N211" s="44"/>
-      <c r="S211" s="44"/>
+      <c r="K211" s="42"/>
+      <c r="N211" s="42"/>
+      <c r="S211" s="42"/>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
@@ -21395,9 +21397,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K212" s="44"/>
-      <c r="N212" s="44"/>
-      <c r="S212" s="44"/>
+      <c r="K212" s="42"/>
+      <c r="N212" s="42"/>
+      <c r="S212" s="42"/>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
@@ -21435,9 +21437,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K213" s="44"/>
-      <c r="N213" s="44"/>
-      <c r="S213" s="44"/>
+      <c r="K213" s="42"/>
+      <c r="N213" s="42"/>
+      <c r="S213" s="42"/>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
@@ -21475,9 +21477,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K214" s="44"/>
-      <c r="N214" s="44"/>
-      <c r="S214" s="44"/>
+      <c r="K214" s="42"/>
+      <c r="N214" s="42"/>
+      <c r="S214" s="42"/>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
@@ -21515,9 +21517,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K215" s="44"/>
-      <c r="N215" s="44"/>
-      <c r="S215" s="44"/>
+      <c r="K215" s="42"/>
+      <c r="N215" s="42"/>
+      <c r="S215" s="42"/>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
@@ -21555,9 +21557,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K216" s="44"/>
-      <c r="N216" s="44"/>
-      <c r="S216" s="44"/>
+      <c r="K216" s="42"/>
+      <c r="N216" s="42"/>
+      <c r="S216" s="42"/>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
@@ -21595,9 +21597,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K217" s="44"/>
-      <c r="N217" s="44"/>
-      <c r="S217" s="44"/>
+      <c r="K217" s="42"/>
+      <c r="N217" s="42"/>
+      <c r="S217" s="42"/>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
@@ -21635,9 +21637,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K218" s="44"/>
-      <c r="N218" s="44"/>
-      <c r="S218" s="44"/>
+      <c r="K218" s="42"/>
+      <c r="N218" s="42"/>
+      <c r="S218" s="42"/>
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
@@ -21675,9 +21677,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K219" s="44"/>
-      <c r="N219" s="44"/>
-      <c r="S219" s="44"/>
+      <c r="K219" s="42"/>
+      <c r="N219" s="42"/>
+      <c r="S219" s="42"/>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
@@ -21715,9 +21717,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K220" s="44"/>
-      <c r="N220" s="44"/>
-      <c r="S220" s="44"/>
+      <c r="K220" s="42"/>
+      <c r="N220" s="42"/>
+      <c r="S220" s="42"/>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
@@ -21755,9 +21757,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K221" s="44"/>
-      <c r="N221" s="44"/>
-      <c r="S221" s="44"/>
+      <c r="K221" s="42"/>
+      <c r="N221" s="42"/>
+      <c r="S221" s="42"/>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
@@ -21795,9 +21797,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K222" s="44"/>
-      <c r="N222" s="44"/>
-      <c r="S222" s="44"/>
+      <c r="K222" s="42"/>
+      <c r="N222" s="42"/>
+      <c r="S222" s="42"/>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
@@ -21835,9 +21837,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K223" s="44"/>
-      <c r="N223" s="44"/>
-      <c r="S223" s="44"/>
+      <c r="K223" s="42"/>
+      <c r="N223" s="42"/>
+      <c r="S223" s="42"/>
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
@@ -21875,9 +21877,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K224" s="44"/>
-      <c r="N224" s="44"/>
-      <c r="S224" s="44"/>
+      <c r="K224" s="42"/>
+      <c r="N224" s="42"/>
+      <c r="S224" s="42"/>
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
@@ -21915,9 +21917,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K225" s="44"/>
-      <c r="N225" s="44"/>
-      <c r="S225" s="44"/>
+      <c r="K225" s="42"/>
+      <c r="N225" s="42"/>
+      <c r="S225" s="42"/>
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
@@ -21955,9 +21957,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K226" s="44"/>
-      <c r="N226" s="44"/>
-      <c r="S226" s="44"/>
+      <c r="K226" s="42"/>
+      <c r="N226" s="42"/>
+      <c r="S226" s="42"/>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
@@ -21995,9 +21997,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K227" s="44"/>
-      <c r="N227" s="44"/>
-      <c r="S227" s="44"/>
+      <c r="K227" s="42"/>
+      <c r="N227" s="42"/>
+      <c r="S227" s="42"/>
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
@@ -22035,9 +22037,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K228" s="44"/>
-      <c r="N228" s="44"/>
-      <c r="S228" s="44"/>
+      <c r="K228" s="42"/>
+      <c r="N228" s="42"/>
+      <c r="S228" s="42"/>
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
@@ -22075,9 +22077,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K229" s="44"/>
-      <c r="N229" s="44"/>
-      <c r="S229" s="44"/>
+      <c r="K229" s="42"/>
+      <c r="N229" s="42"/>
+      <c r="S229" s="42"/>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
@@ -22115,9 +22117,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K230" s="44"/>
-      <c r="N230" s="44"/>
-      <c r="S230" s="44"/>
+      <c r="K230" s="42"/>
+      <c r="N230" s="42"/>
+      <c r="S230" s="42"/>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
@@ -22155,9 +22157,9 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="K231" s="44"/>
-      <c r="N231" s="44"/>
-      <c r="S231" s="44"/>
+      <c r="K231" s="42"/>
+      <c r="N231" s="42"/>
+      <c r="S231" s="42"/>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
@@ -22195,9 +22197,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K232" s="44"/>
-      <c r="N232" s="44"/>
-      <c r="S232" s="44"/>
+      <c r="K232" s="42"/>
+      <c r="N232" s="42"/>
+      <c r="S232" s="42"/>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
@@ -22235,9 +22237,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K233" s="44"/>
-      <c r="N233" s="44"/>
-      <c r="S233" s="44"/>
+      <c r="K233" s="42"/>
+      <c r="N233" s="42"/>
+      <c r="S233" s="42"/>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
@@ -22275,9 +22277,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K234" s="44"/>
-      <c r="N234" s="44"/>
-      <c r="S234" s="44"/>
+      <c r="K234" s="42"/>
+      <c r="N234" s="42"/>
+      <c r="S234" s="42"/>
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
@@ -22315,9 +22317,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K235" s="44"/>
-      <c r="N235" s="44"/>
-      <c r="S235" s="44"/>
+      <c r="K235" s="42"/>
+      <c r="N235" s="42"/>
+      <c r="S235" s="42"/>
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
@@ -22355,9 +22357,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K236" s="44"/>
-      <c r="N236" s="44"/>
-      <c r="S236" s="44"/>
+      <c r="K236" s="42"/>
+      <c r="N236" s="42"/>
+      <c r="S236" s="42"/>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
@@ -22395,9 +22397,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K237" s="44"/>
-      <c r="N237" s="44"/>
-      <c r="S237" s="44"/>
+      <c r="K237" s="42"/>
+      <c r="N237" s="42"/>
+      <c r="S237" s="42"/>
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
@@ -22435,9 +22437,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K238" s="44"/>
-      <c r="N238" s="44"/>
-      <c r="S238" s="44"/>
+      <c r="K238" s="42"/>
+      <c r="N238" s="42"/>
+      <c r="S238" s="42"/>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
@@ -22475,9 +22477,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K239" s="44"/>
-      <c r="N239" s="44"/>
-      <c r="S239" s="44"/>
+      <c r="K239" s="42"/>
+      <c r="N239" s="42"/>
+      <c r="S239" s="42"/>
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
@@ -22515,9 +22517,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K240" s="44"/>
-      <c r="N240" s="44"/>
-      <c r="S240" s="44"/>
+      <c r="K240" s="42"/>
+      <c r="N240" s="42"/>
+      <c r="S240" s="42"/>
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
@@ -22555,9 +22557,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K241" s="44"/>
-      <c r="N241" s="44"/>
-      <c r="S241" s="44"/>
+      <c r="K241" s="42"/>
+      <c r="N241" s="42"/>
+      <c r="S241" s="42"/>
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
@@ -22595,9 +22597,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K242" s="44"/>
-      <c r="N242" s="44"/>
-      <c r="S242" s="44"/>
+      <c r="K242" s="42"/>
+      <c r="N242" s="42"/>
+      <c r="S242" s="42"/>
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
@@ -22635,9 +22637,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K243" s="44"/>
-      <c r="N243" s="44"/>
-      <c r="S243" s="44"/>
+      <c r="K243" s="42"/>
+      <c r="N243" s="42"/>
+      <c r="S243" s="42"/>
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
@@ -22675,9 +22677,9 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="K244" s="44"/>
-      <c r="N244" s="44"/>
-      <c r="S244" s="44"/>
+      <c r="K244" s="42"/>
+      <c r="N244" s="42"/>
+      <c r="S244" s="42"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
@@ -22715,9 +22717,9 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="K245" s="44"/>
-      <c r="N245" s="44"/>
-      <c r="S245" s="44"/>
+      <c r="K245" s="42"/>
+      <c r="N245" s="42"/>
+      <c r="S245" s="42"/>
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
@@ -22755,9 +22757,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K246" s="44"/>
-      <c r="N246" s="44"/>
-      <c r="S246" s="44"/>
+      <c r="K246" s="42"/>
+      <c r="N246" s="42"/>
+      <c r="S246" s="42"/>
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
@@ -22795,9 +22797,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K247" s="44"/>
-      <c r="N247" s="44"/>
-      <c r="S247" s="44"/>
+      <c r="K247" s="42"/>
+      <c r="N247" s="42"/>
+      <c r="S247" s="42"/>
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
@@ -22835,9 +22837,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K248" s="44"/>
-      <c r="N248" s="44"/>
-      <c r="S248" s="44"/>
+      <c r="K248" s="42"/>
+      <c r="N248" s="42"/>
+      <c r="S248" s="42"/>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
@@ -22875,9 +22877,9 @@
         <f t="shared" si="30"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K249" s="44"/>
-      <c r="N249" s="44"/>
-      <c r="S249" s="44"/>
+      <c r="K249" s="42"/>
+      <c r="N249" s="42"/>
+      <c r="S249" s="42"/>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
@@ -22915,9 +22917,9 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="K250" s="44"/>
-      <c r="N250" s="44"/>
-      <c r="S250" s="44"/>
+      <c r="K250" s="42"/>
+      <c r="N250" s="42"/>
+      <c r="S250" s="42"/>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
@@ -22955,9 +22957,9 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="K251" s="44"/>
-      <c r="N251" s="44"/>
-      <c r="S251" s="44"/>
+      <c r="K251" s="42"/>
+      <c r="N251" s="42"/>
+      <c r="S251" s="42"/>
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
@@ -22995,9 +22997,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K252" s="44"/>
-      <c r="N252" s="44"/>
-      <c r="S252" s="44"/>
+      <c r="K252" s="42"/>
+      <c r="N252" s="42"/>
+      <c r="S252" s="42"/>
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
@@ -23035,9 +23037,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K253" s="44"/>
-      <c r="N253" s="44"/>
-      <c r="S253" s="44"/>
+      <c r="K253" s="42"/>
+      <c r="N253" s="42"/>
+      <c r="S253" s="42"/>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
@@ -23075,9 +23077,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K254" s="44"/>
-      <c r="N254" s="44"/>
-      <c r="S254" s="44"/>
+      <c r="K254" s="42"/>
+      <c r="N254" s="42"/>
+      <c r="S254" s="42"/>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
@@ -23115,9 +23117,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K255" s="44"/>
-      <c r="N255" s="44"/>
-      <c r="S255" s="44"/>
+      <c r="K255" s="42"/>
+      <c r="N255" s="42"/>
+      <c r="S255" s="42"/>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
@@ -23155,9 +23157,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K256" s="44"/>
-      <c r="N256" s="44"/>
-      <c r="S256" s="44"/>
+      <c r="K256" s="42"/>
+      <c r="N256" s="42"/>
+      <c r="S256" s="42"/>
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
@@ -23195,9 +23197,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K257" s="44"/>
-      <c r="N257" s="44"/>
-      <c r="S257" s="44"/>
+      <c r="K257" s="42"/>
+      <c r="N257" s="42"/>
+      <c r="S257" s="42"/>
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
@@ -23235,9 +23237,9 @@
         <f t="shared" si="30"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K258" s="44"/>
-      <c r="N258" s="44"/>
-      <c r="S258" s="44"/>
+      <c r="K258" s="42"/>
+      <c r="N258" s="42"/>
+      <c r="S258" s="42"/>
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
@@ -23275,9 +23277,9 @@
         <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K259" s="44"/>
-      <c r="N259" s="44"/>
-      <c r="S259" s="44"/>
+      <c r="K259" s="42"/>
+      <c r="N259" s="42"/>
+      <c r="S259" s="42"/>
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
@@ -23315,9 +23317,9 @@
         <f t="shared" ref="J260:J323" si="34">(I260-H260)*24</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K260" s="44"/>
-      <c r="N260" s="44"/>
-      <c r="S260" s="44"/>
+      <c r="K260" s="42"/>
+      <c r="N260" s="42"/>
+      <c r="S260" s="42"/>
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
@@ -23355,9 +23357,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K261" s="44"/>
-      <c r="N261" s="44"/>
-      <c r="S261" s="44"/>
+      <c r="K261" s="42"/>
+      <c r="N261" s="42"/>
+      <c r="S261" s="42"/>
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
@@ -23395,9 +23397,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K262" s="44"/>
-      <c r="N262" s="44"/>
-      <c r="S262" s="44"/>
+      <c r="K262" s="42"/>
+      <c r="N262" s="42"/>
+      <c r="S262" s="42"/>
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
@@ -23435,9 +23437,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K263" s="44"/>
-      <c r="N263" s="44"/>
-      <c r="S263" s="44"/>
+      <c r="K263" s="42"/>
+      <c r="N263" s="42"/>
+      <c r="S263" s="42"/>
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
@@ -23475,9 +23477,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K264" s="44"/>
-      <c r="N264" s="44"/>
-      <c r="S264" s="44"/>
+      <c r="K264" s="42"/>
+      <c r="N264" s="42"/>
+      <c r="S264" s="42"/>
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
@@ -23515,9 +23517,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K265" s="44"/>
-      <c r="N265" s="44"/>
-      <c r="S265" s="44"/>
+      <c r="K265" s="42"/>
+      <c r="N265" s="42"/>
+      <c r="S265" s="42"/>
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
@@ -23555,9 +23557,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K266" s="44"/>
-      <c r="N266" s="44"/>
-      <c r="S266" s="44"/>
+      <c r="K266" s="42"/>
+      <c r="N266" s="42"/>
+      <c r="S266" s="42"/>
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
@@ -23595,9 +23597,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K267" s="44"/>
-      <c r="N267" s="44"/>
-      <c r="S267" s="44"/>
+      <c r="K267" s="42"/>
+      <c r="N267" s="42"/>
+      <c r="S267" s="42"/>
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
@@ -23635,9 +23637,9 @@
         <f t="shared" si="34"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="K268" s="44"/>
-      <c r="N268" s="44"/>
-      <c r="S268" s="44"/>
+      <c r="K268" s="42"/>
+      <c r="N268" s="42"/>
+      <c r="S268" s="42"/>
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
@@ -23675,9 +23677,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K269" s="44"/>
-      <c r="N269" s="44"/>
-      <c r="S269" s="44"/>
+      <c r="K269" s="42"/>
+      <c r="N269" s="42"/>
+      <c r="S269" s="42"/>
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
@@ -23715,9 +23717,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K270" s="44"/>
-      <c r="N270" s="44"/>
-      <c r="S270" s="44"/>
+      <c r="K270" s="42"/>
+      <c r="N270" s="42"/>
+      <c r="S270" s="42"/>
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
@@ -23755,9 +23757,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K271" s="44"/>
-      <c r="N271" s="44"/>
-      <c r="S271" s="44"/>
+      <c r="K271" s="42"/>
+      <c r="N271" s="42"/>
+      <c r="S271" s="42"/>
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
@@ -23795,9 +23797,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K272" s="44"/>
-      <c r="N272" s="44"/>
-      <c r="S272" s="44"/>
+      <c r="K272" s="42"/>
+      <c r="N272" s="42"/>
+      <c r="S272" s="42"/>
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
@@ -23835,9 +23837,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K273" s="44"/>
-      <c r="N273" s="44"/>
-      <c r="S273" s="44"/>
+      <c r="K273" s="42"/>
+      <c r="N273" s="42"/>
+      <c r="S273" s="42"/>
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
@@ -23875,9 +23877,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K274" s="44"/>
-      <c r="N274" s="44"/>
-      <c r="S274" s="44"/>
+      <c r="K274" s="42"/>
+      <c r="N274" s="42"/>
+      <c r="S274" s="42"/>
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
@@ -23915,9 +23917,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K275" s="44"/>
-      <c r="N275" s="44"/>
-      <c r="S275" s="44"/>
+      <c r="K275" s="42"/>
+      <c r="N275" s="42"/>
+      <c r="S275" s="42"/>
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
@@ -23955,9 +23957,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K276" s="44"/>
-      <c r="N276" s="44"/>
-      <c r="S276" s="44"/>
+      <c r="K276" s="42"/>
+      <c r="N276" s="42"/>
+      <c r="S276" s="42"/>
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
@@ -23995,9 +23997,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K277" s="44"/>
-      <c r="N277" s="44"/>
-      <c r="S277" s="44"/>
+      <c r="K277" s="42"/>
+      <c r="N277" s="42"/>
+      <c r="S277" s="42"/>
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
@@ -24035,9 +24037,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K278" s="44"/>
-      <c r="N278" s="44"/>
-      <c r="S278" s="44"/>
+      <c r="K278" s="42"/>
+      <c r="N278" s="42"/>
+      <c r="S278" s="42"/>
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
@@ -24075,9 +24077,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K279" s="44"/>
-      <c r="N279" s="44"/>
-      <c r="S279" s="44"/>
+      <c r="K279" s="42"/>
+      <c r="N279" s="42"/>
+      <c r="S279" s="42"/>
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
@@ -24115,9 +24117,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K280" s="44"/>
-      <c r="N280" s="44"/>
-      <c r="S280" s="44"/>
+      <c r="K280" s="42"/>
+      <c r="N280" s="42"/>
+      <c r="S280" s="42"/>
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
@@ -24155,9 +24157,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K281" s="44"/>
-      <c r="N281" s="44"/>
-      <c r="S281" s="44"/>
+      <c r="K281" s="42"/>
+      <c r="N281" s="42"/>
+      <c r="S281" s="42"/>
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
@@ -24195,9 +24197,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K282" s="44"/>
-      <c r="N282" s="44"/>
-      <c r="S282" s="44"/>
+      <c r="K282" s="42"/>
+      <c r="N282" s="42"/>
+      <c r="S282" s="42"/>
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
@@ -24235,9 +24237,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K283" s="44"/>
-      <c r="N283" s="44"/>
-      <c r="S283" s="44"/>
+      <c r="K283" s="42"/>
+      <c r="N283" s="42"/>
+      <c r="S283" s="42"/>
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
@@ -24275,9 +24277,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K284" s="44"/>
-      <c r="N284" s="44"/>
-      <c r="S284" s="44"/>
+      <c r="K284" s="42"/>
+      <c r="N284" s="42"/>
+      <c r="S284" s="42"/>
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
@@ -24315,9 +24317,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K285" s="44"/>
-      <c r="N285" s="44"/>
-      <c r="S285" s="44"/>
+      <c r="K285" s="42"/>
+      <c r="N285" s="42"/>
+      <c r="S285" s="42"/>
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
@@ -24355,9 +24357,9 @@
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="K286" s="44"/>
-      <c r="N286" s="44"/>
-      <c r="S286" s="44"/>
+      <c r="K286" s="42"/>
+      <c r="N286" s="42"/>
+      <c r="S286" s="42"/>
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
@@ -24395,9 +24397,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K287" s="44"/>
-      <c r="N287" s="44"/>
-      <c r="S287" s="44"/>
+      <c r="K287" s="42"/>
+      <c r="N287" s="42"/>
+      <c r="S287" s="42"/>
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
@@ -24435,9 +24437,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K288" s="44"/>
-      <c r="N288" s="44"/>
-      <c r="S288" s="44"/>
+      <c r="K288" s="42"/>
+      <c r="N288" s="42"/>
+      <c r="S288" s="42"/>
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
@@ -24475,9 +24477,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K289" s="44"/>
-      <c r="N289" s="44"/>
-      <c r="S289" s="44"/>
+      <c r="K289" s="42"/>
+      <c r="N289" s="42"/>
+      <c r="S289" s="42"/>
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
@@ -24515,9 +24517,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K290" s="44"/>
-      <c r="N290" s="44"/>
-      <c r="S290" s="44"/>
+      <c r="K290" s="42"/>
+      <c r="N290" s="42"/>
+      <c r="S290" s="42"/>
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
@@ -24555,9 +24557,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K291" s="44"/>
-      <c r="N291" s="44"/>
-      <c r="S291" s="44"/>
+      <c r="K291" s="42"/>
+      <c r="N291" s="42"/>
+      <c r="S291" s="42"/>
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
@@ -24595,9 +24597,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K292" s="44"/>
-      <c r="N292" s="44"/>
-      <c r="S292" s="44"/>
+      <c r="K292" s="42"/>
+      <c r="N292" s="42"/>
+      <c r="S292" s="42"/>
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
@@ -24635,9 +24637,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K293" s="44"/>
-      <c r="N293" s="44"/>
-      <c r="S293" s="44"/>
+      <c r="K293" s="42"/>
+      <c r="N293" s="42"/>
+      <c r="S293" s="42"/>
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
@@ -24675,9 +24677,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K294" s="44"/>
-      <c r="N294" s="44"/>
-      <c r="S294" s="44"/>
+      <c r="K294" s="42"/>
+      <c r="N294" s="42"/>
+      <c r="S294" s="42"/>
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
@@ -24715,9 +24717,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K295" s="44"/>
-      <c r="N295" s="44"/>
-      <c r="S295" s="44"/>
+      <c r="K295" s="42"/>
+      <c r="N295" s="42"/>
+      <c r="S295" s="42"/>
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
@@ -24755,9 +24757,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K296" s="44"/>
-      <c r="N296" s="44"/>
-      <c r="S296" s="44"/>
+      <c r="K296" s="42"/>
+      <c r="N296" s="42"/>
+      <c r="S296" s="42"/>
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
@@ -24795,9 +24797,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K297" s="44"/>
-      <c r="N297" s="44"/>
-      <c r="S297" s="44"/>
+      <c r="K297" s="42"/>
+      <c r="N297" s="42"/>
+      <c r="S297" s="42"/>
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
@@ -24835,9 +24837,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K298" s="44"/>
-      <c r="N298" s="44"/>
-      <c r="S298" s="44"/>
+      <c r="K298" s="42"/>
+      <c r="N298" s="42"/>
+      <c r="S298" s="42"/>
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
@@ -24875,9 +24877,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K299" s="44"/>
-      <c r="N299" s="44"/>
-      <c r="S299" s="44"/>
+      <c r="K299" s="42"/>
+      <c r="N299" s="42"/>
+      <c r="S299" s="42"/>
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
@@ -24915,9 +24917,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K300" s="44"/>
-      <c r="N300" s="44"/>
-      <c r="S300" s="44"/>
+      <c r="K300" s="42"/>
+      <c r="N300" s="42"/>
+      <c r="S300" s="42"/>
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
@@ -24955,9 +24957,9 @@
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="K301" s="44"/>
-      <c r="N301" s="44"/>
-      <c r="S301" s="44"/>
+      <c r="K301" s="42"/>
+      <c r="N301" s="42"/>
+      <c r="S301" s="42"/>
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
@@ -24995,9 +24997,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K302" s="44"/>
-      <c r="N302" s="44"/>
-      <c r="S302" s="44"/>
+      <c r="K302" s="42"/>
+      <c r="N302" s="42"/>
+      <c r="S302" s="42"/>
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
@@ -25035,9 +25037,9 @@
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="K303" s="44"/>
-      <c r="N303" s="44"/>
-      <c r="S303" s="44"/>
+      <c r="K303" s="42"/>
+      <c r="N303" s="42"/>
+      <c r="S303" s="42"/>
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
@@ -25075,9 +25077,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K304" s="44"/>
-      <c r="N304" s="44"/>
-      <c r="S304" s="44"/>
+      <c r="K304" s="42"/>
+      <c r="N304" s="42"/>
+      <c r="S304" s="42"/>
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
@@ -25115,9 +25117,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K305" s="44"/>
-      <c r="N305" s="44"/>
-      <c r="S305" s="44"/>
+      <c r="K305" s="42"/>
+      <c r="N305" s="42"/>
+      <c r="S305" s="42"/>
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
@@ -25155,9 +25157,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K306" s="44"/>
-      <c r="N306" s="44"/>
-      <c r="S306" s="44"/>
+      <c r="K306" s="42"/>
+      <c r="N306" s="42"/>
+      <c r="S306" s="42"/>
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
@@ -25195,9 +25197,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K307" s="44"/>
-      <c r="N307" s="44"/>
-      <c r="S307" s="44"/>
+      <c r="K307" s="42"/>
+      <c r="N307" s="42"/>
+      <c r="S307" s="42"/>
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
@@ -25235,9 +25237,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K308" s="44"/>
-      <c r="N308" s="44"/>
-      <c r="S308" s="44"/>
+      <c r="K308" s="42"/>
+      <c r="N308" s="42"/>
+      <c r="S308" s="42"/>
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
@@ -25275,9 +25277,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K309" s="44"/>
-      <c r="N309" s="44"/>
-      <c r="S309" s="44"/>
+      <c r="K309" s="42"/>
+      <c r="N309" s="42"/>
+      <c r="S309" s="42"/>
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
@@ -25315,9 +25317,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K310" s="44"/>
-      <c r="N310" s="44"/>
-      <c r="S310" s="44"/>
+      <c r="K310" s="42"/>
+      <c r="N310" s="42"/>
+      <c r="S310" s="42"/>
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
@@ -25355,9 +25357,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K311" s="44"/>
-      <c r="N311" s="44"/>
-      <c r="S311" s="44"/>
+      <c r="K311" s="42"/>
+      <c r="N311" s="42"/>
+      <c r="S311" s="42"/>
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
@@ -25395,9 +25397,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K312" s="44"/>
-      <c r="N312" s="44"/>
-      <c r="S312" s="44"/>
+      <c r="K312" s="42"/>
+      <c r="N312" s="42"/>
+      <c r="S312" s="42"/>
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
@@ -25435,9 +25437,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K313" s="44"/>
-      <c r="N313" s="44"/>
-      <c r="S313" s="44"/>
+      <c r="K313" s="42"/>
+      <c r="N313" s="42"/>
+      <c r="S313" s="42"/>
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
@@ -25475,9 +25477,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K314" s="44"/>
-      <c r="N314" s="44"/>
-      <c r="S314" s="44"/>
+      <c r="K314" s="42"/>
+      <c r="N314" s="42"/>
+      <c r="S314" s="42"/>
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
@@ -25515,9 +25517,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K315" s="44"/>
-      <c r="N315" s="44"/>
-      <c r="S315" s="44"/>
+      <c r="K315" s="42"/>
+      <c r="N315" s="42"/>
+      <c r="S315" s="42"/>
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
@@ -25555,9 +25557,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K316" s="44"/>
-      <c r="N316" s="44"/>
-      <c r="S316" s="44"/>
+      <c r="K316" s="42"/>
+      <c r="N316" s="42"/>
+      <c r="S316" s="42"/>
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
@@ -25595,9 +25597,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K317" s="44"/>
-      <c r="N317" s="44"/>
-      <c r="S317" s="44"/>
+      <c r="K317" s="42"/>
+      <c r="N317" s="42"/>
+      <c r="S317" s="42"/>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
@@ -25635,9 +25637,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K318" s="44"/>
-      <c r="N318" s="44"/>
-      <c r="S318" s="44"/>
+      <c r="K318" s="42"/>
+      <c r="N318" s="42"/>
+      <c r="S318" s="42"/>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
@@ -25675,9 +25677,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K319" s="44"/>
-      <c r="N319" s="44"/>
-      <c r="S319" s="44"/>
+      <c r="K319" s="42"/>
+      <c r="N319" s="42"/>
+      <c r="S319" s="42"/>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
@@ -25715,9 +25717,9 @@
         <f t="shared" si="34"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K320" s="44"/>
-      <c r="N320" s="44"/>
-      <c r="S320" s="44"/>
+      <c r="K320" s="42"/>
+      <c r="N320" s="42"/>
+      <c r="S320" s="42"/>
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
@@ -25755,9 +25757,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K321" s="44"/>
-      <c r="N321" s="44"/>
-      <c r="S321" s="44"/>
+      <c r="K321" s="42"/>
+      <c r="N321" s="42"/>
+      <c r="S321" s="42"/>
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
@@ -25795,9 +25797,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K322" s="44"/>
-      <c r="N322" s="44"/>
-      <c r="S322" s="44"/>
+      <c r="K322" s="42"/>
+      <c r="N322" s="42"/>
+      <c r="S322" s="42"/>
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
@@ -25835,9 +25837,9 @@
         <f t="shared" si="34"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K323" s="44"/>
-      <c r="N323" s="44"/>
-      <c r="S323" s="44"/>
+      <c r="K323" s="42"/>
+      <c r="N323" s="42"/>
+      <c r="S323" s="42"/>
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
@@ -25875,9 +25877,9 @@
         <f t="shared" ref="J324:J387" si="38">(I324-H324)*24</f>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K324" s="44"/>
-      <c r="N324" s="44"/>
-      <c r="S324" s="44"/>
+      <c r="K324" s="42"/>
+      <c r="N324" s="42"/>
+      <c r="S324" s="42"/>
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
@@ -25915,9 +25917,9 @@
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="K325" s="44"/>
-      <c r="N325" s="44"/>
-      <c r="S325" s="44"/>
+      <c r="K325" s="42"/>
+      <c r="N325" s="42"/>
+      <c r="S325" s="42"/>
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
@@ -25955,9 +25957,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K326" s="44"/>
-      <c r="N326" s="44"/>
-      <c r="S326" s="44"/>
+      <c r="K326" s="42"/>
+      <c r="N326" s="42"/>
+      <c r="S326" s="42"/>
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
@@ -25995,9 +25997,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K327" s="44"/>
-      <c r="N327" s="44"/>
-      <c r="S327" s="44"/>
+      <c r="K327" s="42"/>
+      <c r="N327" s="42"/>
+      <c r="S327" s="42"/>
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
@@ -26035,9 +26037,9 @@
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="K328" s="44"/>
-      <c r="N328" s="44"/>
-      <c r="S328" s="44"/>
+      <c r="K328" s="42"/>
+      <c r="N328" s="42"/>
+      <c r="S328" s="42"/>
     </row>
     <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
@@ -26075,9 +26077,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K329" s="44"/>
-      <c r="N329" s="44"/>
-      <c r="S329" s="44"/>
+      <c r="K329" s="42"/>
+      <c r="N329" s="42"/>
+      <c r="S329" s="42"/>
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
@@ -26115,9 +26117,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K330" s="44"/>
-      <c r="N330" s="44"/>
-      <c r="S330" s="44"/>
+      <c r="K330" s="42"/>
+      <c r="N330" s="42"/>
+      <c r="S330" s="42"/>
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
@@ -26155,9 +26157,9 @@
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="K331" s="44"/>
-      <c r="N331" s="44"/>
-      <c r="S331" s="44"/>
+      <c r="K331" s="42"/>
+      <c r="N331" s="42"/>
+      <c r="S331" s="42"/>
     </row>
     <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
@@ -26195,9 +26197,9 @@
         <f t="shared" si="38"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="K332" s="44"/>
-      <c r="N332" s="44"/>
-      <c r="S332" s="44"/>
+      <c r="K332" s="42"/>
+      <c r="N332" s="42"/>
+      <c r="S332" s="42"/>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
@@ -26235,9 +26237,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K333" s="44"/>
-      <c r="N333" s="44"/>
-      <c r="S333" s="44"/>
+      <c r="K333" s="42"/>
+      <c r="N333" s="42"/>
+      <c r="S333" s="42"/>
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
@@ -26275,9 +26277,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K334" s="44"/>
-      <c r="N334" s="44"/>
-      <c r="S334" s="44"/>
+      <c r="K334" s="42"/>
+      <c r="N334" s="42"/>
+      <c r="S334" s="42"/>
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
@@ -26315,9 +26317,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K335" s="44"/>
-      <c r="N335" s="44"/>
-      <c r="S335" s="44"/>
+      <c r="K335" s="42"/>
+      <c r="N335" s="42"/>
+      <c r="S335" s="42"/>
     </row>
     <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
@@ -26355,9 +26357,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K336" s="44"/>
-      <c r="N336" s="44"/>
-      <c r="S336" s="44"/>
+      <c r="K336" s="42"/>
+      <c r="N336" s="42"/>
+      <c r="S336" s="42"/>
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
@@ -26395,9 +26397,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K337" s="44"/>
-      <c r="N337" s="44"/>
-      <c r="S337" s="44"/>
+      <c r="K337" s="42"/>
+      <c r="N337" s="42"/>
+      <c r="S337" s="42"/>
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
@@ -26435,9 +26437,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K338" s="44"/>
-      <c r="N338" s="44"/>
-      <c r="S338" s="44"/>
+      <c r="K338" s="42"/>
+      <c r="N338" s="42"/>
+      <c r="S338" s="42"/>
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
@@ -26475,9 +26477,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K339" s="44"/>
-      <c r="N339" s="44"/>
-      <c r="S339" s="44"/>
+      <c r="K339" s="42"/>
+      <c r="N339" s="42"/>
+      <c r="S339" s="42"/>
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
@@ -26515,9 +26517,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K340" s="44"/>
-      <c r="N340" s="44"/>
-      <c r="S340" s="44"/>
+      <c r="K340" s="42"/>
+      <c r="N340" s="42"/>
+      <c r="S340" s="42"/>
     </row>
     <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
@@ -26555,9 +26557,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K341" s="44"/>
-      <c r="N341" s="44"/>
-      <c r="S341" s="44"/>
+      <c r="K341" s="42"/>
+      <c r="N341" s="42"/>
+      <c r="S341" s="42"/>
     </row>
     <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
@@ -26595,9 +26597,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K342" s="44"/>
-      <c r="N342" s="44"/>
-      <c r="S342" s="44"/>
+      <c r="K342" s="42"/>
+      <c r="N342" s="42"/>
+      <c r="S342" s="42"/>
     </row>
     <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
@@ -26635,9 +26637,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K343" s="44"/>
-      <c r="N343" s="44"/>
-      <c r="S343" s="44"/>
+      <c r="K343" s="42"/>
+      <c r="N343" s="42"/>
+      <c r="S343" s="42"/>
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
@@ -26675,9 +26677,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K344" s="44"/>
-      <c r="N344" s="44"/>
-      <c r="S344" s="44"/>
+      <c r="K344" s="42"/>
+      <c r="N344" s="42"/>
+      <c r="S344" s="42"/>
     </row>
     <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
@@ -26715,9 +26717,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K345" s="44"/>
-      <c r="N345" s="44"/>
-      <c r="S345" s="44"/>
+      <c r="K345" s="42"/>
+      <c r="N345" s="42"/>
+      <c r="S345" s="42"/>
     </row>
     <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
@@ -26755,9 +26757,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K346" s="44"/>
-      <c r="N346" s="44"/>
-      <c r="S346" s="44"/>
+      <c r="K346" s="42"/>
+      <c r="N346" s="42"/>
+      <c r="S346" s="42"/>
     </row>
     <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
@@ -26795,9 +26797,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K347" s="44"/>
-      <c r="N347" s="44"/>
-      <c r="S347" s="44"/>
+      <c r="K347" s="42"/>
+      <c r="N347" s="42"/>
+      <c r="S347" s="42"/>
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
@@ -26835,9 +26837,9 @@
         <f t="shared" si="38"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="K348" s="44"/>
-      <c r="N348" s="44"/>
-      <c r="S348" s="44"/>
+      <c r="K348" s="42"/>
+      <c r="N348" s="42"/>
+      <c r="S348" s="42"/>
     </row>
     <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
@@ -26875,9 +26877,9 @@
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="K349" s="44"/>
-      <c r="N349" s="44"/>
-      <c r="S349" s="44"/>
+      <c r="K349" s="42"/>
+      <c r="N349" s="42"/>
+      <c r="S349" s="42"/>
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
@@ -26915,9 +26917,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K350" s="44"/>
-      <c r="N350" s="44"/>
-      <c r="S350" s="44"/>
+      <c r="K350" s="42"/>
+      <c r="N350" s="42"/>
+      <c r="S350" s="42"/>
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
@@ -26955,9 +26957,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K351" s="44"/>
-      <c r="N351" s="44"/>
-      <c r="S351" s="44"/>
+      <c r="K351" s="42"/>
+      <c r="N351" s="42"/>
+      <c r="S351" s="42"/>
     </row>
     <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
@@ -26995,9 +26997,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K352" s="44"/>
-      <c r="N352" s="44"/>
-      <c r="S352" s="44"/>
+      <c r="K352" s="42"/>
+      <c r="N352" s="42"/>
+      <c r="S352" s="42"/>
     </row>
     <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
@@ -27035,9 +27037,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K353" s="44"/>
-      <c r="N353" s="44"/>
-      <c r="S353" s="44"/>
+      <c r="K353" s="42"/>
+      <c r="N353" s="42"/>
+      <c r="S353" s="42"/>
     </row>
     <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
@@ -27075,9 +27077,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K354" s="44"/>
-      <c r="N354" s="44"/>
-      <c r="S354" s="44"/>
+      <c r="K354" s="42"/>
+      <c r="N354" s="42"/>
+      <c r="S354" s="42"/>
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
@@ -27115,9 +27117,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K355" s="44"/>
-      <c r="N355" s="44"/>
-      <c r="S355" s="44"/>
+      <c r="K355" s="42"/>
+      <c r="N355" s="42"/>
+      <c r="S355" s="42"/>
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
@@ -27155,9 +27157,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K356" s="44"/>
-      <c r="N356" s="44"/>
-      <c r="S356" s="44"/>
+      <c r="K356" s="42"/>
+      <c r="N356" s="42"/>
+      <c r="S356" s="42"/>
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
@@ -27195,9 +27197,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K357" s="44"/>
-      <c r="N357" s="44"/>
-      <c r="S357" s="44"/>
+      <c r="K357" s="42"/>
+      <c r="N357" s="42"/>
+      <c r="S357" s="42"/>
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
@@ -27235,9 +27237,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K358" s="44"/>
-      <c r="N358" s="44"/>
-      <c r="S358" s="44"/>
+      <c r="K358" s="42"/>
+      <c r="N358" s="42"/>
+      <c r="S358" s="42"/>
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
@@ -27275,9 +27277,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K359" s="44"/>
-      <c r="N359" s="44"/>
-      <c r="S359" s="44"/>
+      <c r="K359" s="42"/>
+      <c r="N359" s="42"/>
+      <c r="S359" s="42"/>
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
@@ -27315,9 +27317,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K360" s="44"/>
-      <c r="N360" s="44"/>
-      <c r="S360" s="44"/>
+      <c r="K360" s="42"/>
+      <c r="N360" s="42"/>
+      <c r="S360" s="42"/>
     </row>
     <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
@@ -27355,9 +27357,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K361" s="44"/>
-      <c r="N361" s="44"/>
-      <c r="S361" s="44"/>
+      <c r="K361" s="42"/>
+      <c r="N361" s="42"/>
+      <c r="S361" s="42"/>
     </row>
     <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
@@ -27395,9 +27397,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K362" s="44"/>
-      <c r="N362" s="44"/>
-      <c r="S362" s="44"/>
+      <c r="K362" s="42"/>
+      <c r="N362" s="42"/>
+      <c r="S362" s="42"/>
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
@@ -27435,9 +27437,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K363" s="44"/>
-      <c r="N363" s="44"/>
-      <c r="S363" s="44"/>
+      <c r="K363" s="42"/>
+      <c r="N363" s="42"/>
+      <c r="S363" s="42"/>
     </row>
     <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
@@ -27475,9 +27477,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K364" s="44"/>
-      <c r="N364" s="44"/>
-      <c r="S364" s="44"/>
+      <c r="K364" s="42"/>
+      <c r="N364" s="42"/>
+      <c r="S364" s="42"/>
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
@@ -27515,9 +27517,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K365" s="44"/>
-      <c r="N365" s="44"/>
-      <c r="S365" s="44"/>
+      <c r="K365" s="42"/>
+      <c r="N365" s="42"/>
+      <c r="S365" s="42"/>
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
@@ -27555,9 +27557,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K366" s="44"/>
-      <c r="N366" s="44"/>
-      <c r="S366" s="44"/>
+      <c r="K366" s="42"/>
+      <c r="N366" s="42"/>
+      <c r="S366" s="42"/>
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
@@ -27595,9 +27597,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K367" s="44"/>
-      <c r="N367" s="44"/>
-      <c r="S367" s="44"/>
+      <c r="K367" s="42"/>
+      <c r="N367" s="42"/>
+      <c r="S367" s="42"/>
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
@@ -27635,9 +27637,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K368" s="44"/>
-      <c r="N368" s="44"/>
-      <c r="S368" s="44"/>
+      <c r="K368" s="42"/>
+      <c r="N368" s="42"/>
+      <c r="S368" s="42"/>
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
@@ -27675,9 +27677,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K369" s="44"/>
-      <c r="N369" s="44"/>
-      <c r="S369" s="44"/>
+      <c r="K369" s="42"/>
+      <c r="N369" s="42"/>
+      <c r="S369" s="42"/>
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
@@ -27715,9 +27717,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K370" s="44"/>
-      <c r="N370" s="44"/>
-      <c r="S370" s="44"/>
+      <c r="K370" s="42"/>
+      <c r="N370" s="42"/>
+      <c r="S370" s="42"/>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
@@ -27755,9 +27757,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K371" s="44"/>
-      <c r="N371" s="44"/>
-      <c r="S371" s="44"/>
+      <c r="K371" s="42"/>
+      <c r="N371" s="42"/>
+      <c r="S371" s="42"/>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
@@ -27795,9 +27797,9 @@
         <f t="shared" si="38"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K372" s="44"/>
-      <c r="N372" s="44"/>
-      <c r="S372" s="44"/>
+      <c r="K372" s="42"/>
+      <c r="N372" s="42"/>
+      <c r="S372" s="42"/>
     </row>
     <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
@@ -27835,9 +27837,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999996</v>
       </c>
-      <c r="K373" s="44"/>
-      <c r="N373" s="44"/>
-      <c r="S373" s="44"/>
+      <c r="K373" s="42"/>
+      <c r="N373" s="42"/>
+      <c r="S373" s="42"/>
     </row>
     <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
@@ -27875,9 +27877,9 @@
         <f t="shared" si="38"/>
         <v>1.9999999999999982</v>
       </c>
-      <c r="K374" s="44"/>
-      <c r="N374" s="44"/>
-      <c r="S374" s="44"/>
+      <c r="K374" s="42"/>
+      <c r="N374" s="42"/>
+      <c r="S374" s="42"/>
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
@@ -27915,9 +27917,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K375" s="44"/>
-      <c r="N375" s="44"/>
-      <c r="S375" s="44"/>
+      <c r="K375" s="42"/>
+      <c r="N375" s="42"/>
+      <c r="S375" s="42"/>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
@@ -27955,9 +27957,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K376" s="44"/>
-      <c r="N376" s="44"/>
-      <c r="S376" s="44"/>
+      <c r="K376" s="42"/>
+      <c r="N376" s="42"/>
+      <c r="S376" s="42"/>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
@@ -27995,9 +27997,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K377" s="44"/>
-      <c r="N377" s="44"/>
-      <c r="S377" s="44"/>
+      <c r="K377" s="42"/>
+      <c r="N377" s="42"/>
+      <c r="S377" s="42"/>
     </row>
     <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
@@ -28035,9 +28037,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K378" s="44"/>
-      <c r="N378" s="44"/>
-      <c r="S378" s="44"/>
+      <c r="K378" s="42"/>
+      <c r="N378" s="42"/>
+      <c r="S378" s="42"/>
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
@@ -28075,9 +28077,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K379" s="44"/>
-      <c r="N379" s="44"/>
-      <c r="S379" s="44"/>
+      <c r="K379" s="42"/>
+      <c r="N379" s="42"/>
+      <c r="S379" s="42"/>
     </row>
     <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
@@ -28115,9 +28117,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K380" s="44"/>
-      <c r="N380" s="44"/>
-      <c r="S380" s="44"/>
+      <c r="K380" s="42"/>
+      <c r="N380" s="42"/>
+      <c r="S380" s="42"/>
     </row>
     <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
@@ -28155,9 +28157,9 @@
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="K381" s="44"/>
-      <c r="N381" s="44"/>
-      <c r="S381" s="44"/>
+      <c r="K381" s="42"/>
+      <c r="N381" s="42"/>
+      <c r="S381" s="42"/>
     </row>
     <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
@@ -28195,9 +28197,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K382" s="44"/>
-      <c r="N382" s="44"/>
-      <c r="S382" s="44"/>
+      <c r="K382" s="42"/>
+      <c r="N382" s="42"/>
+      <c r="S382" s="42"/>
     </row>
     <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
@@ -28235,9 +28237,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K383" s="44"/>
-      <c r="N383" s="44"/>
-      <c r="S383" s="44"/>
+      <c r="K383" s="42"/>
+      <c r="N383" s="42"/>
+      <c r="S383" s="42"/>
     </row>
     <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
@@ -28275,9 +28277,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K384" s="44"/>
-      <c r="N384" s="44"/>
-      <c r="S384" s="44"/>
+      <c r="K384" s="42"/>
+      <c r="N384" s="42"/>
+      <c r="S384" s="42"/>
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
@@ -28315,9 +28317,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K385" s="44"/>
-      <c r="N385" s="44"/>
-      <c r="S385" s="44"/>
+      <c r="K385" s="42"/>
+      <c r="N385" s="42"/>
+      <c r="S385" s="42"/>
     </row>
     <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
@@ -28355,9 +28357,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K386" s="44"/>
-      <c r="N386" s="44"/>
-      <c r="S386" s="44"/>
+      <c r="K386" s="42"/>
+      <c r="N386" s="42"/>
+      <c r="S386" s="42"/>
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
@@ -28395,9 +28397,9 @@
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="K387" s="44"/>
-      <c r="N387" s="44"/>
-      <c r="S387" s="44"/>
+      <c r="K387" s="42"/>
+      <c r="N387" s="42"/>
+      <c r="S387" s="42"/>
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
@@ -28435,9 +28437,9 @@
         <f t="shared" ref="J388:J411" si="42">(I388-H388)*24</f>
         <v>3</v>
       </c>
-      <c r="K388" s="44"/>
-      <c r="N388" s="44"/>
-      <c r="S388" s="44"/>
+      <c r="K388" s="42"/>
+      <c r="N388" s="42"/>
+      <c r="S388" s="42"/>
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
@@ -28475,9 +28477,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K389" s="44"/>
-      <c r="N389" s="44"/>
-      <c r="S389" s="44"/>
+      <c r="K389" s="42"/>
+      <c r="N389" s="42"/>
+      <c r="S389" s="42"/>
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
@@ -28515,9 +28517,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K390" s="44"/>
-      <c r="N390" s="44"/>
-      <c r="S390" s="44"/>
+      <c r="K390" s="42"/>
+      <c r="N390" s="42"/>
+      <c r="S390" s="42"/>
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
@@ -28555,9 +28557,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K391" s="44"/>
-      <c r="N391" s="44"/>
-      <c r="S391" s="44"/>
+      <c r="K391" s="42"/>
+      <c r="N391" s="42"/>
+      <c r="S391" s="42"/>
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
@@ -28595,9 +28597,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K392" s="44"/>
-      <c r="N392" s="44"/>
-      <c r="S392" s="44"/>
+      <c r="K392" s="42"/>
+      <c r="N392" s="42"/>
+      <c r="S392" s="42"/>
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
@@ -28635,9 +28637,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K393" s="44"/>
-      <c r="N393" s="44"/>
-      <c r="S393" s="44"/>
+      <c r="K393" s="42"/>
+      <c r="N393" s="42"/>
+      <c r="S393" s="42"/>
     </row>
     <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
@@ -28675,9 +28677,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K394" s="44"/>
-      <c r="N394" s="44"/>
-      <c r="S394" s="44"/>
+      <c r="K394" s="42"/>
+      <c r="N394" s="42"/>
+      <c r="S394" s="42"/>
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
@@ -28715,9 +28717,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K395" s="44"/>
-      <c r="N395" s="44"/>
-      <c r="S395" s="44"/>
+      <c r="K395" s="42"/>
+      <c r="N395" s="42"/>
+      <c r="S395" s="42"/>
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
@@ -28755,9 +28757,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K396" s="44"/>
-      <c r="N396" s="44"/>
-      <c r="S396" s="44"/>
+      <c r="K396" s="42"/>
+      <c r="N396" s="42"/>
+      <c r="S396" s="42"/>
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
@@ -28795,9 +28797,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K397" s="44"/>
-      <c r="N397" s="44"/>
-      <c r="S397" s="44"/>
+      <c r="K397" s="42"/>
+      <c r="N397" s="42"/>
+      <c r="S397" s="42"/>
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
@@ -28835,9 +28837,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K398" s="44"/>
-      <c r="N398" s="44"/>
-      <c r="S398" s="44"/>
+      <c r="K398" s="42"/>
+      <c r="N398" s="42"/>
+      <c r="S398" s="42"/>
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
@@ -28875,9 +28877,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K399" s="44"/>
-      <c r="N399" s="44"/>
-      <c r="S399" s="44"/>
+      <c r="K399" s="42"/>
+      <c r="N399" s="42"/>
+      <c r="S399" s="42"/>
     </row>
     <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
@@ -28915,9 +28917,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K400" s="44"/>
-      <c r="N400" s="44"/>
-      <c r="S400" s="44"/>
+      <c r="K400" s="42"/>
+      <c r="N400" s="42"/>
+      <c r="S400" s="42"/>
     </row>
     <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
@@ -28955,9 +28957,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K401" s="44"/>
-      <c r="N401" s="44"/>
-      <c r="S401" s="44"/>
+      <c r="K401" s="42"/>
+      <c r="N401" s="42"/>
+      <c r="S401" s="42"/>
     </row>
     <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
@@ -28995,9 +28997,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K402" s="44"/>
-      <c r="N402" s="44"/>
-      <c r="S402" s="44"/>
+      <c r="K402" s="42"/>
+      <c r="N402" s="42"/>
+      <c r="S402" s="42"/>
     </row>
     <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
@@ -29035,9 +29037,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K403" s="44"/>
-      <c r="N403" s="44"/>
-      <c r="S403" s="44"/>
+      <c r="K403" s="42"/>
+      <c r="N403" s="42"/>
+      <c r="S403" s="42"/>
     </row>
     <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
@@ -29075,9 +29077,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K404" s="44"/>
-      <c r="N404" s="44"/>
-      <c r="S404" s="44"/>
+      <c r="K404" s="42"/>
+      <c r="N404" s="42"/>
+      <c r="S404" s="42"/>
     </row>
     <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
@@ -29115,9 +29117,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K405" s="44"/>
-      <c r="N405" s="44"/>
-      <c r="S405" s="44"/>
+      <c r="K405" s="42"/>
+      <c r="N405" s="42"/>
+      <c r="S405" s="42"/>
     </row>
     <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
@@ -29155,9 +29157,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K406" s="44"/>
-      <c r="N406" s="44"/>
-      <c r="S406" s="44"/>
+      <c r="K406" s="42"/>
+      <c r="N406" s="42"/>
+      <c r="S406" s="42"/>
     </row>
     <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
@@ -29195,9 +29197,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K407" s="44"/>
-      <c r="N407" s="44"/>
-      <c r="S407" s="44"/>
+      <c r="K407" s="42"/>
+      <c r="N407" s="42"/>
+      <c r="S407" s="42"/>
     </row>
     <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
@@ -29235,9 +29237,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K408" s="44"/>
-      <c r="N408" s="44"/>
-      <c r="S408" s="44"/>
+      <c r="K408" s="42"/>
+      <c r="N408" s="42"/>
+      <c r="S408" s="42"/>
     </row>
     <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
@@ -29275,9 +29277,9 @@
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="K409" s="44"/>
-      <c r="N409" s="44"/>
-      <c r="S409" s="44"/>
+      <c r="K409" s="42"/>
+      <c r="N409" s="42"/>
+      <c r="S409" s="42"/>
     </row>
     <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
@@ -29315,9 +29317,9 @@
         <f t="shared" si="42"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K410" s="44"/>
-      <c r="N410" s="44"/>
-      <c r="S410" s="44"/>
+      <c r="K410" s="42"/>
+      <c r="N410" s="42"/>
+      <c r="S410" s="42"/>
     </row>
     <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
@@ -29355,57 +29357,57 @@
         <f t="shared" si="42"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="K411" s="44"/>
-      <c r="N411" s="44"/>
-      <c r="S411" s="44"/>
+      <c r="K411" s="42"/>
+      <c r="N411" s="42"/>
+      <c r="S411" s="42"/>
     </row>
     <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C412" t="s">
         <v>71</v>
       </c>
-      <c r="K412" s="44"/>
-      <c r="N412" s="44"/>
-      <c r="S412" s="44"/>
+      <c r="K412" s="42"/>
+      <c r="N412" s="42"/>
+      <c r="S412" s="42"/>
     </row>
     <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C413" t="s">
         <v>47</v>
       </c>
-      <c r="K413" s="44"/>
-      <c r="N413" s="44"/>
-      <c r="S413" s="44"/>
+      <c r="K413" s="42"/>
+      <c r="N413" s="42"/>
+      <c r="S413" s="42"/>
     </row>
     <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C414" t="s">
         <v>201</v>
       </c>
-      <c r="K414" s="44"/>
-      <c r="N414" s="44"/>
-      <c r="S414" s="44"/>
+      <c r="K414" s="42"/>
+      <c r="N414" s="42"/>
+      <c r="S414" s="42"/>
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C415" t="s">
         <v>71</v>
       </c>
-      <c r="K415" s="44"/>
-      <c r="N415" s="44"/>
-      <c r="S415" s="44"/>
+      <c r="K415" s="42"/>
+      <c r="N415" s="42"/>
+      <c r="S415" s="42"/>
     </row>
     <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C416" t="s">
         <v>208</v>
       </c>
-      <c r="K416" s="44"/>
-      <c r="N416" s="44"/>
-      <c r="S416" s="44"/>
+      <c r="K416" s="42"/>
+      <c r="N416" s="42"/>
+      <c r="S416" s="42"/>
     </row>
     <row r="417" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C417" t="s">
         <v>220</v>
       </c>
-      <c r="K417" s="45"/>
-      <c r="N417" s="45"/>
-      <c r="S417" s="45"/>
+      <c r="K417" s="43"/>
+      <c r="N417" s="43"/>
+      <c r="S417" s="43"/>
     </row>
   </sheetData>
   <sortState ref="B9:C593">
@@ -29413,18 +29415,18 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="N1:N1048576"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="AC1:AC1048576"/>
     <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="X1:X1048576"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="K1:K1048576"/>
     <mergeCell ref="S1:S1048576"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="N1:N1048576"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29435,8 +29437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300793FE-19EF-405E-BC33-F239AE127AED}">
   <dimension ref="A1:AD374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L50"/>
+    <sheetView tabSelected="1" topLeftCell="J31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29444,30 +29446,31 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="26"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="0" style="26" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="26" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="0" style="26" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="26" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="26"/>
+    <col min="13" max="13" width="9.140625" style="26" customWidth="1"/>
     <col min="14" max="14" width="95.140625" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" customWidth="1"/>
     <col min="16" max="16" width="21.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="17" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
     <col min="28" max="28" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="H1" s="40"/>
+      <c r="H1" s="46"/>
       <c r="N1" s="35" t="s">
         <v>402</v>
       </c>
@@ -29542,12 +29545,12 @@
         <v>2</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" ref="L3:L50" ca="1" si="0">H3*0.125</f>
-        <v>0.99999999999999978</v>
+        <f ca="1">H3*0.1275</f>
+        <v>1.0199999999999998</v>
       </c>
       <c r="N3" s="9">
         <f ca="1">(((J3*(745.699872*2.5))/1000)*L3)*$P$1</f>
-        <v>38.101534959839988</v>
+        <v>38.863565659036794</v>
       </c>
       <c r="P3" s="14">
         <f>(((2.13/1000)*10.219)*12.5)</f>
@@ -29569,7 +29572,7 @@
         <v>352</v>
       </c>
       <c r="E4" s="9">
-        <f t="shared" ref="E4:E67" si="1">(D4-C4)*24</f>
+        <f t="shared" ref="E4:E67" si="0">(D4-C4)*24</f>
         <v>1.9999999999999996</v>
       </c>
       <c r="F4" s="28"/>
@@ -29577,7 +29580,7 @@
         <v>304</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H50" si="2">SUMIF($A$4:$A$411,G4,$E$4:$E$411)</f>
+        <f t="shared" ref="H4:H50" si="1">SUMIF($A$4:$A$411,G4,$E$4:$E$411)</f>
         <v>18</v>
       </c>
       <c r="I4" s="30"/>
@@ -29585,12 +29588,12 @@
         <v>2</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
+        <f t="shared" ref="L4:L50" si="2">H4*0.1275</f>
+        <v>2.2949999999999999</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" ref="N4:N50" si="3">(((J4*(745.699872*2.5))/1000)*L4)*$P$1</f>
-        <v>85.728453659639996</v>
+        <v>87.443022732832802</v>
       </c>
       <c r="P4" s="14">
         <f t="shared" ref="P4:P50" si="4">(((2.13/1000)*10.219)*12.5)</f>
@@ -29612,7 +29615,7 @@
         <v>350</v>
       </c>
       <c r="E5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F5" s="28"/>
@@ -29620,7 +29623,7 @@
         <v>305</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.0000000000000018</v>
       </c>
       <c r="I5" s="30"/>
@@ -29628,12 +29631,12 @@
         <v>2</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <f t="shared" si="2"/>
+        <v>1.0200000000000002</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="3"/>
-        <v>38.101534959840009</v>
+        <v>38.863565659036809</v>
       </c>
       <c r="P5" s="14">
         <f t="shared" si="4"/>
@@ -29655,7 +29658,7 @@
         <v>352</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F6" s="28"/>
@@ -29663,7 +29666,7 @@
         <v>306</v>
       </c>
       <c r="H6" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.9999999999999991</v>
       </c>
       <c r="I6" s="30"/>
@@ -29671,12 +29674,12 @@
         <v>2</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="2"/>
+        <v>1.0199999999999998</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="3"/>
-        <v>38.101534959839995</v>
+        <v>38.863565659036794</v>
       </c>
       <c r="P6" s="14">
         <f t="shared" si="4"/>
@@ -29698,7 +29701,7 @@
         <v>352</v>
       </c>
       <c r="E7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F7" s="28"/>
@@ -29706,7 +29709,7 @@
         <v>307</v>
       </c>
       <c r="H7" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.0000000000000036</v>
       </c>
       <c r="I7" s="30"/>
@@ -29714,12 +29717,12 @@
         <v>2</v>
       </c>
       <c r="L7" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000004</v>
+        <f t="shared" si="2"/>
+        <v>1.0200000000000005</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="3"/>
-        <v>38.101534959840016</v>
+        <v>38.863565659036816</v>
       </c>
       <c r="P7" s="14">
         <f t="shared" si="4"/>
@@ -29741,7 +29744,7 @@
         <v>352</v>
       </c>
       <c r="E8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F8" s="28"/>
@@ -29749,7 +29752,7 @@
         <v>308</v>
       </c>
       <c r="H8" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I8" s="30"/>
@@ -29757,12 +29760,12 @@
         <v>2</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.53</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="3"/>
-        <v>57.15230243976</v>
+        <v>58.295348488555206</v>
       </c>
       <c r="P8" s="14">
         <f t="shared" si="4"/>
@@ -29784,7 +29787,7 @@
         <v>353</v>
       </c>
       <c r="E9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F9" s="28"/>
@@ -29792,7 +29795,7 @@
         <v>309</v>
       </c>
       <c r="H9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.000000000000004</v>
       </c>
       <c r="I9" s="30"/>
@@ -29800,17 +29803,18 @@
         <v>3</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="0"/>
-        <v>1.5000000000000004</v>
+        <f t="shared" si="2"/>
+        <v>1.5300000000000005</v>
       </c>
       <c r="N9" s="9">
         <f>(((J9*(745.699872*3))/1000)*L9)*$P$1</f>
-        <v>102.87414439156802</v>
+        <v>104.93162727939938</v>
       </c>
       <c r="P9" s="14">
         <f t="shared" si="4"/>
         <v>0.272080875</v>
       </c>
+      <c r="T9" s="51"/>
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -29827,7 +29831,7 @@
         <v>351</v>
       </c>
       <c r="E10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F10" s="28"/>
@@ -29835,7 +29839,7 @@
         <v>314</v>
       </c>
       <c r="H10" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="I10" s="30"/>
@@ -29843,12 +29847,12 @@
         <v>2</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
+        <f t="shared" si="2"/>
+        <v>3.8250000000000002</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="3"/>
-        <v>142.8807560994</v>
+        <v>145.73837122138801</v>
       </c>
       <c r="P10" s="14">
         <f t="shared" si="4"/>
@@ -29870,7 +29874,7 @@
         <v>353</v>
       </c>
       <c r="E11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F11" s="28"/>
@@ -29878,7 +29882,7 @@
         <v>316</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="I11" s="30"/>
@@ -29886,12 +29890,12 @@
         <v>2</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
+        <f t="shared" si="2"/>
+        <v>5.61</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="3"/>
-        <v>209.55844227911999</v>
+        <v>213.7496111247024</v>
       </c>
       <c r="P11" s="14">
         <f t="shared" si="4"/>
@@ -29913,26 +29917,26 @@
         <v>352</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="G12" s="20">
         <v>318</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="J12" s="20">
         <v>2</v>
       </c>
       <c r="L12" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>3.06</v>
       </c>
       <c r="N12" s="9">
         <f t="shared" si="3"/>
-        <v>114.30460487952</v>
+        <v>116.59069697711041</v>
       </c>
       <c r="P12" s="14">
         <f t="shared" si="4"/>
@@ -29954,7 +29958,7 @@
         <v>352</v>
       </c>
       <c r="E13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F13" s="28"/>
@@ -29962,7 +29966,7 @@
         <v>409</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.0000000000000018</v>
       </c>
       <c r="I13" s="30"/>
@@ -29970,17 +29974,18 @@
         <v>3</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <f t="shared" si="2"/>
+        <v>1.0200000000000002</v>
       </c>
       <c r="N13" s="9">
         <f>(((J13*(745.699872*3))/1000)*L13)*$P$1</f>
-        <v>68.582762927712011</v>
+        <v>69.954418186266253</v>
       </c>
       <c r="P13" s="14">
         <f t="shared" si="4"/>
         <v>0.272080875</v>
       </c>
+      <c r="T13" s="51"/>
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -29997,7 +30002,7 @@
         <v>353</v>
       </c>
       <c r="E14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F14" s="28"/>
@@ -30005,7 +30010,7 @@
         <v>415</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.9999999999999964</v>
       </c>
       <c r="I14" s="30"/>
@@ -30013,12 +30018,12 @@
         <v>2</v>
       </c>
       <c r="L14" s="9">
-        <f t="shared" si="0"/>
-        <v>0.49999999999999956</v>
+        <f t="shared" si="2"/>
+        <v>0.50999999999999956</v>
       </c>
       <c r="N14" s="9">
         <f t="shared" si="3"/>
-        <v>19.050767479919983</v>
+        <v>19.431782829518383</v>
       </c>
       <c r="P14" s="14">
         <f t="shared" si="4"/>
@@ -30040,7 +30045,7 @@
         <v>350</v>
       </c>
       <c r="E15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F15" s="28"/>
@@ -30048,7 +30053,7 @@
         <v>416</v>
       </c>
       <c r="H15" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I15" s="30"/>
@@ -30056,12 +30061,12 @@
         <v>2</v>
       </c>
       <c r="L15" s="9">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>2.04</v>
       </c>
       <c r="N15" s="9">
         <f t="shared" si="3"/>
-        <v>76.203069919680004</v>
+        <v>77.727131318073603</v>
       </c>
       <c r="P15" s="14">
         <f t="shared" si="4"/>
@@ -30083,7 +30088,7 @@
         <v>355</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0000000000000018</v>
       </c>
       <c r="F16" s="28"/>
@@ -30091,7 +30096,7 @@
         <v>417</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.9999999999999991</v>
       </c>
       <c r="I16" s="30"/>
@@ -30099,12 +30104,12 @@
         <v>2</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="2"/>
+        <v>1.0199999999999998</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="3"/>
-        <v>38.101534959839995</v>
+        <v>38.863565659036794</v>
       </c>
       <c r="P16" s="14">
         <f t="shared" si="4"/>
@@ -30126,7 +30131,7 @@
         <v>357</v>
       </c>
       <c r="E17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F17" s="28"/>
@@ -30134,7 +30139,7 @@
         <v>418</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I17" s="30"/>
@@ -30142,12 +30147,12 @@
         <v>2</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>2.04</v>
       </c>
       <c r="N17" s="9">
         <f t="shared" si="3"/>
-        <v>76.203069919680004</v>
+        <v>77.727131318073603</v>
       </c>
       <c r="P17" s="14">
         <f t="shared" si="4"/>
@@ -30169,7 +30174,7 @@
         <v>351</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F18" s="28"/>
@@ -30177,7 +30182,7 @@
         <v>505</v>
       </c>
       <c r="H18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.0000000000000018</v>
       </c>
       <c r="I18" s="30"/>
@@ -30185,12 +30190,12 @@
         <v>2</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="0"/>
-        <v>0.50000000000000022</v>
+        <f t="shared" si="2"/>
+        <v>0.51000000000000023</v>
       </c>
       <c r="N18" s="9">
         <f t="shared" si="3"/>
-        <v>19.050767479920008</v>
+        <v>19.431782829518408</v>
       </c>
       <c r="P18" s="14">
         <f t="shared" si="4"/>
@@ -30212,7 +30217,7 @@
         <v>358</v>
       </c>
       <c r="E19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F19" s="28"/>
@@ -30220,7 +30225,7 @@
         <v>515</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="I19" s="30"/>
@@ -30228,17 +30233,18 @@
         <v>2</v>
       </c>
       <c r="L19" s="9">
-        <f t="shared" si="0"/>
-        <v>0.49999999999999989</v>
+        <f t="shared" si="2"/>
+        <v>0.5099999999999999</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="3"/>
-        <v>19.050767479919994</v>
+        <v>19.431782829518397</v>
       </c>
       <c r="P19" s="14">
         <f t="shared" si="4"/>
         <v>0.272080875</v>
       </c>
+      <c r="T19" s="14"/>
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -30255,7 +30261,7 @@
         <v>359</v>
       </c>
       <c r="E20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F20" s="28"/>
@@ -30263,7 +30269,7 @@
         <v>518</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I20" s="30"/>
@@ -30271,12 +30277,12 @@
         <v>2</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.51</v>
       </c>
       <c r="N20" s="9">
         <f t="shared" si="3"/>
-        <v>19.050767479920001</v>
+        <v>19.431782829518401</v>
       </c>
       <c r="P20" s="14">
         <f t="shared" si="4"/>
@@ -30298,7 +30304,7 @@
         <v>359</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F21" s="28"/>
@@ -30306,7 +30312,7 @@
         <v>602</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I21" s="30"/>
@@ -30314,12 +30320,12 @@
         <v>2</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.53</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" si="3"/>
-        <v>57.15230243976</v>
+        <v>58.295348488555206</v>
       </c>
       <c r="P21" s="14">
         <f t="shared" si="4"/>
@@ -30341,7 +30347,7 @@
         <v>359</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F22" s="28"/>
@@ -30349,7 +30355,7 @@
         <v>604</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
@@ -30357,12 +30363,12 @@
         <v>2</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>2.04</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="3"/>
-        <v>76.203069919680004</v>
+        <v>77.727131318073603</v>
       </c>
       <c r="P22" s="14">
         <f t="shared" si="4"/>
@@ -30384,7 +30390,7 @@
         <v>359</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F23" s="28"/>
@@ -30392,7 +30398,7 @@
         <v>606</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I23" s="30"/>
@@ -30400,12 +30406,12 @@
         <v>2</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>3.06</v>
       </c>
       <c r="N23" s="9">
         <f t="shared" si="3"/>
-        <v>114.30460487952</v>
+        <v>116.59069697711041</v>
       </c>
       <c r="P23" s="14">
         <f t="shared" si="4"/>
@@ -30427,7 +30433,7 @@
         <v>351</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F24" s="28"/>
@@ -30435,7 +30441,7 @@
         <v>608</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I24" s="30"/>
@@ -30443,12 +30449,12 @@
         <v>2</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f t="shared" si="2"/>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="3"/>
-        <v>95.253837399599988</v>
+        <v>97.158914147592</v>
       </c>
       <c r="P24" s="14">
         <f t="shared" si="4"/>
@@ -30470,7 +30476,7 @@
         <v>353</v>
       </c>
       <c r="E25" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F25" s="28"/>
@@ -30478,7 +30484,7 @@
         <v>613</v>
       </c>
       <c r="H25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I25" s="30"/>
@@ -30486,16 +30492,16 @@
         <v>2</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
+        <f t="shared" si="2"/>
+        <v>3.3149999999999999</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="3"/>
-        <v>123.82998861948001</v>
+        <v>126.30658839186961</v>
       </c>
       <c r="P25" s="14">
-        <f t="shared" si="4"/>
-        <v>0.272080875</v>
+        <f>(((2.13/1000)*10.219))</f>
+        <v>2.176647E-2</v>
       </c>
       <c r="W25" s="10"/>
     </row>
@@ -30513,7 +30519,7 @@
         <v>351</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F26" s="28"/>
@@ -30521,7 +30527,7 @@
         <v>801</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.0000000000000018</v>
       </c>
       <c r="I26" s="30"/>
@@ -30529,12 +30535,12 @@
         <v>1</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" si="0"/>
-        <v>0.50000000000000022</v>
+        <f t="shared" si="2"/>
+        <v>0.51000000000000023</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="3"/>
-        <v>9.5253837399600041</v>
+        <v>9.7158914147592039</v>
       </c>
       <c r="P26" s="14">
         <f t="shared" si="4"/>
@@ -30556,7 +30562,7 @@
         <v>358</v>
       </c>
       <c r="E27" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F27" s="28"/>
@@ -30564,7 +30570,7 @@
         <v>802</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I27" s="30"/>
@@ -30572,12 +30578,12 @@
         <v>2</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f t="shared" si="2"/>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="3"/>
-        <v>95.253837399599988</v>
+        <v>97.158914147592</v>
       </c>
       <c r="P27" s="14">
         <f t="shared" si="4"/>
@@ -30599,7 +30605,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="E28" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F28" s="28"/>
@@ -30607,7 +30613,7 @@
         <v>805</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I28" s="30"/>
@@ -30615,12 +30621,12 @@
         <v>2</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.53</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="3"/>
-        <v>57.15230243976</v>
+        <v>58.295348488555206</v>
       </c>
       <c r="P28" s="14">
         <f t="shared" si="4"/>
@@ -30642,7 +30648,7 @@
         <v>353</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F29" s="28"/>
@@ -30650,7 +30656,7 @@
         <v>809</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42.333333333333329</v>
       </c>
       <c r="I29" s="30"/>
@@ -30658,17 +30664,18 @@
         <v>3</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" si="0"/>
-        <v>5.2916666666666661</v>
+        <f t="shared" si="2"/>
+        <v>5.3974999999999991</v>
       </c>
       <c r="N29" s="9">
         <f>(((J29*(745.699872*3))/1000)*L29)*$P$1</f>
-        <v>362.91712049247599</v>
+        <v>370.17546290232542</v>
       </c>
       <c r="P29" s="14">
         <f t="shared" si="4"/>
         <v>0.272080875</v>
       </c>
+      <c r="T29" s="51"/>
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -30685,7 +30692,7 @@
         <v>351</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F30" s="28"/>
@@ -30693,7 +30700,7 @@
         <v>811</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15.999999999999998</v>
       </c>
       <c r="I30" s="30"/>
@@ -30701,12 +30708,12 @@
         <v>2</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9999999999999998</v>
+        <f t="shared" si="2"/>
+        <v>2.0399999999999996</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="3"/>
-        <v>76.20306991967999</v>
+        <v>77.727131318073589</v>
       </c>
       <c r="P30" s="14">
         <f t="shared" si="4"/>
@@ -30728,7 +30735,7 @@
         <v>351</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F31" s="28"/>
@@ -30736,7 +30743,7 @@
         <v>813</v>
       </c>
       <c r="H31" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I31" s="30"/>
@@ -30744,12 +30751,12 @@
         <v>2</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="0"/>
-        <v>5.166666666666667</v>
+        <f t="shared" si="2"/>
+        <v>5.2700000000000005</v>
       </c>
       <c r="N31" s="9">
         <f t="shared" si="3"/>
-        <v>196.85793062584003</v>
+        <v>200.79508923835684</v>
       </c>
       <c r="P31" s="14">
         <f t="shared" si="4"/>
@@ -30771,7 +30778,7 @@
         <v>353</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F32" s="28"/>
@@ -30779,7 +30786,7 @@
         <v>815</v>
       </c>
       <c r="H32" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="I32" s="30"/>
@@ -30787,12 +30794,12 @@
         <v>2</v>
       </c>
       <c r="L32" s="9">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+        <f t="shared" si="2"/>
+        <v>4.59</v>
       </c>
       <c r="N32" s="9">
         <f t="shared" si="3"/>
-        <v>171.45690731927999</v>
+        <v>174.8860454656656</v>
       </c>
       <c r="P32" s="14">
         <f t="shared" si="4"/>
@@ -30818,7 +30825,7 @@
         <v>351</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F33" s="28"/>
@@ -30826,7 +30833,7 @@
         <v>816</v>
       </c>
       <c r="H33" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29.999999999999993</v>
       </c>
       <c r="I33" s="30"/>
@@ -30834,12 +30841,12 @@
         <v>2</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="0"/>
-        <v>3.7499999999999991</v>
+        <f t="shared" si="2"/>
+        <v>3.8249999999999993</v>
       </c>
       <c r="N33" s="9">
         <f t="shared" si="3"/>
-        <v>142.88075609939997</v>
+        <v>145.73837122138798</v>
       </c>
       <c r="P33" s="14">
         <f t="shared" si="4"/>
@@ -30861,7 +30868,7 @@
         <v>353</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F34" s="28"/>
@@ -30869,7 +30876,7 @@
         <v>817</v>
       </c>
       <c r="H34" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23.999999999999993</v>
       </c>
       <c r="I34" s="30"/>
@@ -30877,12 +30884,12 @@
         <v>2</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="0"/>
-        <v>2.9999999999999991</v>
+        <f t="shared" si="2"/>
+        <v>3.0599999999999992</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="3"/>
-        <v>114.30460487951996</v>
+        <v>116.59069697711037</v>
       </c>
       <c r="P34" s="14">
         <f t="shared" si="4"/>
@@ -30904,7 +30911,7 @@
         <v>351</v>
       </c>
       <c r="E35" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F35" s="28"/>
@@ -30912,7 +30919,7 @@
         <v>818</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19.999999999999993</v>
       </c>
       <c r="I35" s="30"/>
@@ -30920,12 +30927,12 @@
         <v>2</v>
       </c>
       <c r="L35" s="9">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999991</v>
+        <f t="shared" si="2"/>
+        <v>2.5499999999999989</v>
       </c>
       <c r="N35" s="9">
         <f t="shared" si="3"/>
-        <v>95.253837399599973</v>
+        <v>97.158914147591972</v>
       </c>
       <c r="P35" s="14">
         <f t="shared" si="4"/>
@@ -30947,7 +30954,7 @@
         <v>350</v>
       </c>
       <c r="E36" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F36" s="28"/>
@@ -30955,7 +30962,7 @@
         <v>1013</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I36" s="30"/>
@@ -30963,12 +30970,12 @@
         <v>2</v>
       </c>
       <c r="L36" s="9">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
+        <f t="shared" si="2"/>
+        <v>2.2949999999999999</v>
       </c>
       <c r="N36" s="9">
         <f t="shared" si="3"/>
-        <v>85.728453659639996</v>
+        <v>87.443022732832802</v>
       </c>
       <c r="P36" s="14">
         <f t="shared" si="4"/>
@@ -30990,7 +30997,7 @@
         <v>358</v>
       </c>
       <c r="E37" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F37" s="28"/>
@@ -30998,7 +31005,7 @@
         <v>1014</v>
       </c>
       <c r="H37" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I37" s="30"/>
@@ -31006,12 +31013,12 @@
         <v>2</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.53</v>
       </c>
       <c r="N37" s="9">
         <f t="shared" si="3"/>
-        <v>57.15230243976</v>
+        <v>58.295348488555206</v>
       </c>
       <c r="P37" s="14">
         <f t="shared" si="4"/>
@@ -31034,7 +31041,7 @@
         <v>353</v>
       </c>
       <c r="E38" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F38" s="28"/>
@@ -31042,7 +31049,7 @@
         <v>1015</v>
       </c>
       <c r="H38" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27.999999999999993</v>
       </c>
       <c r="I38" s="30"/>
@@ -31050,12 +31057,12 @@
         <v>2</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="0"/>
-        <v>3.4999999999999991</v>
+        <f t="shared" si="2"/>
+        <v>3.569999999999999</v>
       </c>
       <c r="N38" s="9">
         <f t="shared" si="3"/>
-        <v>133.35537235943997</v>
+        <v>136.02247980662875</v>
       </c>
       <c r="P38" s="14">
         <f t="shared" si="4"/>
@@ -31077,7 +31084,7 @@
         <v>351</v>
       </c>
       <c r="E39" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F39" s="28"/>
@@ -31085,7 +31092,7 @@
         <v>1016</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I39" s="30"/>
@@ -31093,12 +31100,12 @@
         <v>2</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f t="shared" si="2"/>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N39" s="9">
         <f t="shared" si="3"/>
-        <v>95.253837399599988</v>
+        <v>97.158914147592</v>
       </c>
       <c r="P39" s="14">
         <f t="shared" si="4"/>
@@ -31120,7 +31127,7 @@
         <v>353</v>
       </c>
       <c r="E40" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F40" s="28"/>
@@ -31128,7 +31135,7 @@
         <v>1017</v>
       </c>
       <c r="H40" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="I40" s="30"/>
@@ -31136,12 +31143,12 @@
         <v>2</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
+        <f t="shared" si="2"/>
+        <v>3.8250000000000002</v>
       </c>
       <c r="N40" s="9">
         <f t="shared" si="3"/>
-        <v>142.8807560994</v>
+        <v>145.73837122138801</v>
       </c>
       <c r="P40" s="14">
         <f t="shared" si="4"/>
@@ -31163,7 +31170,7 @@
         <v>351</v>
       </c>
       <c r="E41" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F41" s="28"/>
@@ -31171,7 +31178,7 @@
         <v>1018</v>
       </c>
       <c r="H41" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.000000000000004</v>
       </c>
       <c r="I41" s="30"/>
@@ -31179,12 +31186,12 @@
         <v>2</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000004</v>
+        <f t="shared" si="2"/>
+        <v>2.0400000000000005</v>
       </c>
       <c r="N41" s="9">
         <f t="shared" si="3"/>
-        <v>76.203069919680019</v>
+        <v>77.727131318073617</v>
       </c>
       <c r="P41" s="14">
         <f t="shared" si="4"/>
@@ -31206,7 +31213,7 @@
         <v>358</v>
       </c>
       <c r="E42" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F42" s="28"/>
@@ -31214,7 +31221,7 @@
         <v>1114</v>
       </c>
       <c r="H42" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I42" s="30"/>
@@ -31222,12 +31229,12 @@
         <v>3</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
+        <f>H42*0.1275</f>
+        <v>1.2749999999999999</v>
       </c>
       <c r="N42" s="9">
         <f t="shared" si="3"/>
-        <v>71.440378049700001</v>
+        <v>72.869185610694004</v>
       </c>
       <c r="P42" s="14">
         <f t="shared" si="4"/>
@@ -31249,7 +31256,7 @@
         <v>353</v>
       </c>
       <c r="E43" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F43" s="28"/>
@@ -31257,7 +31264,7 @@
         <v>1115</v>
       </c>
       <c r="H43" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.000000000000004</v>
       </c>
       <c r="I43" s="30"/>
@@ -31265,12 +31272,12 @@
         <v>2</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000004</v>
+        <f t="shared" si="2"/>
+        <v>2.0400000000000005</v>
       </c>
       <c r="N43" s="9">
         <f t="shared" si="3"/>
-        <v>76.203069919680019</v>
+        <v>77.727131318073617</v>
       </c>
       <c r="P43" s="14">
         <f t="shared" si="4"/>
@@ -31292,7 +31299,7 @@
         <v>351</v>
       </c>
       <c r="E44" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F44" s="28"/>
@@ -31300,7 +31307,7 @@
         <v>1117</v>
       </c>
       <c r="H44" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19.999999999999996</v>
       </c>
       <c r="I44" s="30"/>
@@ -31308,12 +31315,12 @@
         <v>2</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999996</v>
+        <f t="shared" si="2"/>
+        <v>2.5499999999999994</v>
       </c>
       <c r="N44" s="9">
         <f t="shared" si="3"/>
-        <v>95.253837399599973</v>
+        <v>97.158914147591986</v>
       </c>
       <c r="P44" s="14">
         <f t="shared" si="4"/>
@@ -31335,7 +31342,7 @@
         <v>358</v>
       </c>
       <c r="E45" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.9999999999999991</v>
       </c>
       <c r="F45" s="28"/>
@@ -31343,7 +31350,7 @@
         <v>199</v>
       </c>
       <c r="H45" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.000000000000002</v>
       </c>
       <c r="I45" s="30"/>
@@ -31351,12 +31358,12 @@
         <v>1</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000002</v>
+        <f t="shared" si="2"/>
+        <v>1.2750000000000004</v>
       </c>
       <c r="N45" s="9">
         <f t="shared" si="3"/>
-        <v>23.813459349900004</v>
+        <v>24.289728536898004</v>
       </c>
       <c r="P45" s="14">
         <f t="shared" si="4"/>
@@ -31379,7 +31386,7 @@
         <v>352</v>
       </c>
       <c r="E46" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F46" s="28"/>
@@ -31387,7 +31394,7 @@
         <v>235</v>
       </c>
       <c r="H46" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="I46" s="30"/>
@@ -31395,12 +31402,12 @@
         <v>1</v>
       </c>
       <c r="L46" s="9">
-        <f t="shared" si="0"/>
-        <v>0.24999999999999994</v>
+        <f t="shared" si="2"/>
+        <v>0.25499999999999995</v>
       </c>
       <c r="N46" s="9">
         <f t="shared" si="3"/>
-        <v>4.7626918699799985</v>
+        <v>4.8579457073795993</v>
       </c>
       <c r="P46" s="14">
         <f t="shared" si="4"/>
@@ -31423,7 +31430,7 @@
         <v>351</v>
       </c>
       <c r="E47" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F47" s="28"/>
@@ -31431,7 +31438,7 @@
         <v>139</v>
       </c>
       <c r="H47" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18.000000000000004</v>
       </c>
       <c r="I47" s="30"/>
@@ -31439,12 +31446,12 @@
         <v>1</v>
       </c>
       <c r="L47" s="9">
-        <f t="shared" si="0"/>
-        <v>2.2500000000000004</v>
+        <f t="shared" si="2"/>
+        <v>2.2950000000000004</v>
       </c>
       <c r="N47" s="9">
         <f t="shared" si="3"/>
-        <v>42.864226829820005</v>
+        <v>43.721511366416408</v>
       </c>
       <c r="P47" s="14">
         <f t="shared" si="4"/>
@@ -31467,7 +31474,7 @@
         <v>350</v>
       </c>
       <c r="E48" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F48" s="28"/>
@@ -31475,7 +31482,7 @@
         <v>190</v>
       </c>
       <c r="H48" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="I48" s="30"/>
@@ -31483,19 +31490,19 @@
         <v>1</v>
       </c>
       <c r="L48" s="9">
-        <f t="shared" si="0"/>
-        <v>4.75</v>
+        <f t="shared" si="2"/>
+        <v>4.8449999999999998</v>
       </c>
       <c r="N48" s="9">
         <f t="shared" si="3"/>
-        <v>90.491145529619999</v>
+        <v>92.300968440212387</v>
       </c>
       <c r="P48" s="14">
         <f t="shared" si="4"/>
         <v>0.272080875</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>316</v>
       </c>
@@ -31509,7 +31516,7 @@
         <v>353</v>
       </c>
       <c r="E49" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F49" s="28"/>
@@ -31517,7 +31524,7 @@
         <v>213</v>
       </c>
       <c r="H49" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="I49" s="30"/>
@@ -31525,19 +31532,19 @@
         <v>1</v>
       </c>
       <c r="L49" s="9">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
+        <f t="shared" si="2"/>
+        <v>3.8250000000000002</v>
       </c>
       <c r="N49" s="9">
         <f t="shared" si="3"/>
-        <v>71.440378049700001</v>
+        <v>72.869185610694004</v>
       </c>
       <c r="P49" s="14">
         <f t="shared" si="4"/>
         <v>0.272080875</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>316</v>
       </c>
@@ -31551,7 +31558,7 @@
         <v>351</v>
       </c>
       <c r="E50" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F50" s="28"/>
@@ -31559,7 +31566,7 @@
         <v>231</v>
       </c>
       <c r="H50" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I50" s="30"/>
@@ -31567,19 +31574,19 @@
         <v>1</v>
       </c>
       <c r="L50" s="9">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f t="shared" si="2"/>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N50" s="9">
         <f t="shared" si="3"/>
-        <v>47.626918699799994</v>
+        <v>48.579457073796</v>
       </c>
       <c r="P50" s="14">
         <f t="shared" si="4"/>
         <v>0.272080875</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>316</v>
       </c>
@@ -31593,7 +31600,7 @@
         <v>350</v>
       </c>
       <c r="E51" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F51" s="28"/>
@@ -31606,17 +31613,18 @@
       </c>
       <c r="N51" s="34">
         <f ca="1">SUM(N3:N50)</f>
-        <v>4103.2178023834349</v>
+        <v>4185.282158431105</v>
       </c>
       <c r="O51" t="s">
         <v>404</v>
       </c>
       <c r="P51" s="37">
         <f>SUM(P3:P50)</f>
-        <v>13.059882000000009</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>12.80956759500001</v>
+      </c>
+      <c r="U51" s="52"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>316</v>
       </c>
@@ -31630,7 +31638,7 @@
         <v>352</v>
       </c>
       <c r="E52" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F52" s="28"/>
@@ -31640,17 +31648,17 @@
       <c r="J52" s="10"/>
       <c r="N52" s="34">
         <f ca="1">N51*4</f>
-        <v>16412.87120953374</v>
+        <v>16741.12863372442</v>
       </c>
       <c r="O52" t="s">
         <v>405</v>
       </c>
       <c r="P52" s="37">
         <f>P51*4</f>
-        <v>52.239528000000035</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>51.238270380000039</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>316</v>
       </c>
@@ -31664,7 +31672,7 @@
         <v>353</v>
       </c>
       <c r="E53" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F53" s="28"/>
@@ -31674,17 +31682,21 @@
       <c r="J53" s="10"/>
       <c r="N53" s="34">
         <f ca="1">N52*3</f>
-        <v>49238.613628601219</v>
+        <v>50223.385901173257</v>
       </c>
       <c r="O53" t="s">
         <v>406</v>
       </c>
       <c r="P53" s="37">
         <f>P52*3</f>
-        <v>156.71858400000011</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>153.71481114000011</v>
+      </c>
+      <c r="S53" s="51">
+        <f ca="1">T51/N51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>316</v>
       </c>
@@ -31698,7 +31710,7 @@
         <v>358</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F54" s="28"/>
@@ -31707,7 +31719,7 @@
       <c r="I54" s="30"/>
       <c r="J54" s="10"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>316</v>
       </c>
@@ -31721,7 +31733,7 @@
         <v>351</v>
       </c>
       <c r="E55" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F55" s="28"/>
@@ -31730,7 +31742,7 @@
       <c r="I55" s="30"/>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>316</v>
       </c>
@@ -31744,7 +31756,7 @@
         <v>352</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F56" s="28"/>
@@ -31753,7 +31765,7 @@
       <c r="I56" s="30"/>
       <c r="J56" s="10"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>316</v>
       </c>
@@ -31767,7 +31779,7 @@
         <v>351</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F57" s="28"/>
@@ -31776,7 +31788,7 @@
       <c r="I57" s="30"/>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>316</v>
       </c>
@@ -31790,7 +31802,7 @@
         <v>350</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F58" s="28"/>
@@ -31799,7 +31811,7 @@
       <c r="I58" s="30"/>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>316</v>
       </c>
@@ -31813,7 +31825,7 @@
         <v>353</v>
       </c>
       <c r="E59" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F59" s="28"/>
@@ -31822,7 +31834,7 @@
       <c r="I59" s="30"/>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>316</v>
       </c>
@@ -31836,7 +31848,7 @@
         <v>351</v>
       </c>
       <c r="E60" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F60" s="28"/>
@@ -31845,7 +31857,7 @@
       <c r="I60" s="30"/>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>316</v>
       </c>
@@ -31859,7 +31871,7 @@
         <v>350</v>
       </c>
       <c r="E61" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F61" s="28"/>
@@ -31867,8 +31879,11 @@
       <c r="H61" s="17"/>
       <c r="I61" s="30"/>
       <c r="J61" s="10"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>38.863565659036794</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>316</v>
       </c>
@@ -31882,7 +31897,7 @@
         <v>352</v>
       </c>
       <c r="E62" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F62" s="28"/>
@@ -31890,8 +31905,11 @@
       <c r="H62" s="17"/>
       <c r="I62" s="30"/>
       <c r="J62" s="10"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>87.443022732832802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>316</v>
       </c>
@@ -31905,7 +31923,7 @@
         <v>353</v>
       </c>
       <c r="E63" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F63" s="28"/>
@@ -31913,8 +31931,11 @@
       <c r="H63" s="17"/>
       <c r="I63" s="30"/>
       <c r="J63" s="10"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>38.863565659036809</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>316</v>
       </c>
@@ -31928,7 +31949,7 @@
         <v>358</v>
       </c>
       <c r="E64" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F64" s="28"/>
@@ -31936,8 +31957,11 @@
       <c r="H64" s="17"/>
       <c r="I64" s="30"/>
       <c r="J64" s="10"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <v>38.863565659036794</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>316</v>
       </c>
@@ -31951,7 +31975,7 @@
         <v>355</v>
       </c>
       <c r="E65" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0000000000000018</v>
       </c>
       <c r="F65" s="28"/>
@@ -31959,8 +31983,11 @@
       <c r="H65" s="17"/>
       <c r="I65" s="30"/>
       <c r="J65" s="10"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <v>38.863565659036816</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>318</v>
       </c>
@@ -31974,7 +32001,7 @@
         <v>353</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F66" s="28"/>
@@ -31982,8 +32009,11 @@
       <c r="H66" s="17"/>
       <c r="I66" s="30"/>
       <c r="J66" s="10"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <v>58.295348488555206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>318</v>
       </c>
@@ -31997,7 +32027,7 @@
         <v>358</v>
       </c>
       <c r="E67" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="F67" s="28"/>
@@ -32005,8 +32035,11 @@
       <c r="H67" s="17"/>
       <c r="I67" s="30"/>
       <c r="J67" s="10"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N67">
+        <v>104.93162727939938</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>318</v>
       </c>
@@ -32028,8 +32061,11 @@
       <c r="H68" s="17"/>
       <c r="I68" s="30"/>
       <c r="J68" s="10"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>145.73837122138801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>318</v>
       </c>
@@ -32051,8 +32087,11 @@
       <c r="H69" s="17"/>
       <c r="I69" s="30"/>
       <c r="J69" s="10"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N69">
+        <v>213.7496111247024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>318</v>
       </c>
@@ -32074,8 +32113,11 @@
       <c r="H70" s="17"/>
       <c r="I70" s="30"/>
       <c r="J70" s="10"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N70">
+        <v>116.59069697711041</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>318</v>
       </c>
@@ -32097,8 +32139,12 @@
       <c r="H71" s="17"/>
       <c r="I71" s="30"/>
       <c r="J71" s="10"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <f>SUM(N61:N70)</f>
+        <v>882.20294046013532</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>318</v>
       </c>
@@ -32121,7 +32167,7 @@
       <c r="I72" s="30"/>
       <c r="J72" s="10"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>318</v>
       </c>
@@ -32144,7 +32190,7 @@
       <c r="I73" s="30"/>
       <c r="J73" s="10"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>318</v>
       </c>
@@ -32167,7 +32213,7 @@
       <c r="I74" s="30"/>
       <c r="J74" s="10"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>318</v>
       </c>
@@ -32190,7 +32236,7 @@
       <c r="I75" s="30"/>
       <c r="J75" s="10"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>318</v>
       </c>
@@ -32213,7 +32259,7 @@
       <c r="I76" s="30"/>
       <c r="J76" s="10"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>409</v>
       </c>
@@ -32236,7 +32282,7 @@
       <c r="I77" s="30"/>
       <c r="J77" s="10"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>409</v>
       </c>
@@ -32259,7 +32305,7 @@
       <c r="I78" s="30"/>
       <c r="J78" s="10"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>415</v>
       </c>
@@ -32282,7 +32328,7 @@
       <c r="I79" s="30"/>
       <c r="J79" s="10"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>415</v>
       </c>
